--- a/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
+++ b/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CVM\Outil de gestion\GitHub2022\ExerciceExcel3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc197a25ccdc5fa/Desktop/GitHub2022/ExerciceExcel3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F94E178-8919-4BF0-8E90-5D9E5E3834FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{1F94E178-8919-4BF0-8E90-5D9E5E3834FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB47678A-72E7-44DC-AB4E-A15268CC2DAF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Objectifs de cet exercice</t>
   </si>
@@ -1330,6 +1330,42 @@
       <t>d</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | b ∙  x + c | + d</t>
+    </r>
+  </si>
+  <si>
+    <t>y = a ∙ x + b</t>
+  </si>
+  <si>
+    <t>y = a ∙ x</t>
+  </si>
+  <si>
+    <t>y = a ∙ ln( b ∙ x + c ) + d</t>
+  </si>
+  <si>
+    <t>y = a ∙ b</t>
+  </si>
 </sst>
 </file>
 
@@ -1339,7 +1375,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,6 +1702,35 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2935,7 +3000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3701,6 +3766,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -3777,29 +3880,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="53" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3821,24 +3909,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3875,7 +3967,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7869,7 +7961,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401640"/>
@@ -7895,7 +7987,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401248"/>
@@ -7913,7 +8005,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7939,7 +8031,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9968,7 +10060,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142439888"/>
@@ -9996,7 +10088,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143403992"/>
@@ -10016,7 +10108,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10450,92 +10542,92 @@
       <selection activeCell="G21" sqref="G21:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="4" customWidth="1"/>
-    <col min="7" max="10" width="8.28515625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="0.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="0.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" style="33" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="0.5703125" style="33" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="0.5703125" style="33" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="0.5703125" style="33" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="0.5703125" style="33" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="8.26953125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="8.26953125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.26953125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="0.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="0.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="0.54296875" style="33" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="0.54296875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="0.54296875" style="33" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="0.54296875" style="33" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="0.54296875" style="33" customWidth="1"/>
+    <col min="28" max="28" width="9.453125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-    </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+    </row>
+    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="204" t="s">
+      <c r="F4" s="214"/>
+      <c r="G4" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
       <c r="M4" s="21"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -10558,7 +10650,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -10571,12 +10663,12 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="87"/>
-      <c r="D7" s="213" t="s">
+      <c r="D7" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="213"/>
+      <c r="E7" s="225"/>
       <c r="F7" s="178" t="s">
         <v>41</v>
       </c>
@@ -10594,10 +10686,10 @@
       </c>
       <c r="K7" s="160"/>
       <c r="L7" s="161"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
@@ -10606,7 +10698,7 @@
       <c r="Y7" s="34"/>
       <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="22"/>
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
@@ -10629,12 +10721,12 @@
       <c r="Y8" s="34"/>
       <c r="AA8" s="34"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="98"/>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="226" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="214"/>
+      <c r="E9" s="226"/>
       <c r="F9" s="180" t="s">
         <v>42</v>
       </c>
@@ -10648,10 +10740,10 @@
       <c r="J9" s="165"/>
       <c r="K9" s="165"/>
       <c r="L9" s="165"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="212"/>
-      <c r="P9" s="212"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="224"/>
       <c r="Q9" s="99"/>
       <c r="R9" s="90"/>
       <c r="S9" s="100"/>
@@ -10666,7 +10758,7 @@
       <c r="AB9" s="39"/>
       <c r="AC9" s="22"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="22"/>
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
@@ -10695,12 +10787,12 @@
       <c r="AB10" s="39"/>
       <c r="AC10" s="22"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="110"/>
-      <c r="D11" s="215" t="s">
+      <c r="D11" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="215"/>
+      <c r="E11" s="227"/>
       <c r="F11" s="181" t="s">
         <v>43</v>
       </c>
@@ -10716,10 +10808,10 @@
       <c r="J11" s="168"/>
       <c r="K11" s="168"/>
       <c r="L11" s="168"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
       <c r="S11" s="112"/>
@@ -10734,7 +10826,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="22"/>
     </row>
-    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -10763,12 +10855,12 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="22"/>
     </row>
-    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="122"/>
-      <c r="D13" s="216" t="s">
+      <c r="D13" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="216"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="182" t="s">
         <v>44</v>
       </c>
@@ -10786,10 +10878,10 @@
       </c>
       <c r="K13" s="171"/>
       <c r="L13" s="171"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="217"/>
-      <c r="O13" s="217"/>
-      <c r="P13" s="217"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
       <c r="Q13" s="123"/>
       <c r="R13" s="93"/>
       <c r="S13" s="124"/>
@@ -10804,7 +10896,7 @@
       <c r="AB13" s="36"/>
       <c r="AC13" s="22"/>
     </row>
-    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="22"/>
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
@@ -10833,12 +10925,12 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="22"/>
     </row>
-    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="133"/>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="220"/>
+      <c r="E15" s="207"/>
       <c r="F15" s="183" t="s">
         <v>45</v>
       </c>
@@ -10858,10 +10950,10 @@
         <v>-20</v>
       </c>
       <c r="L15" s="174"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="219"/>
+      <c r="M15" s="206"/>
+      <c r="N15" s="206"/>
+      <c r="O15" s="206"/>
+      <c r="P15" s="206"/>
       <c r="Q15" s="135"/>
       <c r="R15" s="94"/>
       <c r="S15" s="136"/>
@@ -10876,7 +10968,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="22"/>
     </row>
-    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="22"/>
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
@@ -10905,12 +10997,12 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="143"/>
-      <c r="D17" s="222" t="s">
+      <c r="D17" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="222"/>
+      <c r="E17" s="209"/>
       <c r="F17" s="184" t="s">
         <v>46</v>
       </c>
@@ -10928,10 +11020,10 @@
       </c>
       <c r="K17" s="177"/>
       <c r="L17" s="177"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="221"/>
-      <c r="P17" s="221"/>
+      <c r="M17" s="208"/>
+      <c r="N17" s="208"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="208"/>
       <c r="Q17" s="145"/>
       <c r="R17" s="90"/>
       <c r="S17" s="144"/>
@@ -10946,7 +11038,7 @@
       <c r="AB17" s="146"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M18" s="33"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="95"/>
@@ -10956,7 +11048,7 @@
       <c r="Z18" s="140"/>
       <c r="AB18" s="147"/>
     </row>
-    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="95"/>
@@ -10966,26 +11058,26 @@
       <c r="Z19" s="140"/>
       <c r="AB19" s="147"/>
     </row>
-    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="202" t="s">
+      <c r="E20" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="206"/>
-      <c r="G20" s="209" t="s">
+      <c r="F20" s="218"/>
+      <c r="G20" s="221" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198" t="s">
+      <c r="H20" s="210"/>
+      <c r="I20" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198" t="s">
+      <c r="J20" s="210"/>
+      <c r="K20" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="199"/>
+      <c r="L20" s="211"/>
       <c r="M20" s="44"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -10998,25 +11090,25 @@
       <c r="Z20" s="140"/>
       <c r="AB20" s="147"/>
     </row>
-    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="210">
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="222">
         <v>-10</v>
       </c>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210">
+      <c r="H21" s="222"/>
+      <c r="I21" s="222">
         <v>0.2</v>
       </c>
-      <c r="J21" s="210"/>
-      <c r="K21" s="200">
+      <c r="J21" s="222"/>
+      <c r="K21" s="212">
         <f>G21+100*I21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="200"/>
+      <c r="L21" s="212"/>
       <c r="M21" s="47"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -11029,7 +11121,7 @@
       <c r="Z21" s="140"/>
       <c r="AB21" s="147"/>
     </row>
-    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P22" s="50"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="95"/>
@@ -11039,7 +11131,7 @@
       <c r="Z22" s="140"/>
       <c r="AB22" s="147"/>
     </row>
-    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P23" s="50"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="95"/>
@@ -11049,7 +11141,7 @@
       <c r="Z23" s="140"/>
       <c r="AB23" s="147"/>
     </row>
-    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -11089,7 +11181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="N25" s="53">
         <v>1</v>
@@ -11130,7 +11222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="53">
         <v>2</v>
       </c>
@@ -11170,7 +11262,7 @@
         <v>48.176784432060458</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="53">
         <v>3</v>
       </c>
@@ -11210,7 +11302,7 @@
         <v>46.635277633787879</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -11258,7 +11350,7 @@
         <v>45.299963707542659</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -11306,7 +11398,7 @@
         <v>44.122133350978828</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -11354,7 +11446,7 @@
         <v>43.068528194400564</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -11402,7 +11494,7 @@
         <v>42.115426396357314</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -11450,7 +11542,7 @@
         <v>41.245312626461022</v>
       </c>
     </row>
-    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -11498,7 +11590,7 @@
         <v>40.444885549725655</v>
       </c>
     </row>
-    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -11546,7 +11638,7 @@
         <v>39.703805828188443</v>
       </c>
     </row>
-    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -11594,7 +11686,7 @@
         <v>39.013877113318927</v>
       </c>
     </row>
-    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -11642,7 +11734,7 @@
         <v>38.368491901943216</v>
       </c>
     </row>
-    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -11690,7 +11782,7 @@
         <v>37.762245683778865</v>
       </c>
     </row>
-    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -11738,7 +11830,7 @@
         <v>37.190661545379378</v>
       </c>
     </row>
-    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -11786,7 +11878,7 @@
         <v>36.649989332676611</v>
       </c>
     </row>
-    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -11834,7 +11926,7 @@
         <v>36.137056388801113</v>
       </c>
     </row>
-    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -11882,7 +11974,7 @@
         <v>35.649154747106792</v>
       </c>
     </row>
-    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -11930,7 +12022,7 @@
         <v>35.183954590757857</v>
       </c>
     </row>
-    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -11978,7 +12070,7 @@
         <v>34.739436965049521</v>
       </c>
     </row>
-    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -12026,7 +12118,7 @@
         <v>34.313840820861557</v>
       </c>
     </row>
-    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -12074,7 +12166,7 @@
         <v>33.905620875659011</v>
       </c>
     </row>
-    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -12122,7 +12214,7 @@
         <v>33.513413744126197</v>
       </c>
     </row>
-    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -12170,7 +12262,7 @@
         <v>33.136010464297726</v>
       </c>
     </row>
-    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -12218,7 +12310,7 @@
         <v>32.772334022588979</v>
       </c>
     </row>
-    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -12266,7 +12358,7 @@
         <v>32.421420824476272</v>
       </c>
     </row>
-    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -12314,7 +12406,7 @@
         <v>32.082405307719455</v>
       </c>
     </row>
-    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -12362,7 +12454,7 @@
         <v>31.754507079489549</v>
       </c>
     </row>
-    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -12410,7 +12502,7 @@
         <v>31.437020096343744</v>
       </c>
     </row>
-    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -12458,7 +12550,7 @@
         <v>31.129303509676205</v>
       </c>
     </row>
-    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -12506,7 +12598,7 @@
         <v>30.830773878179397</v>
       </c>
     </row>
-    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -12554,7 +12646,7 @@
         <v>30.540898509446873</v>
       </c>
     </row>
-    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -12602,7 +12694,7 @@
         <v>30.259189739779909</v>
       </c>
     </row>
-    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -12650,7 +12742,7 @@
         <v>29.985199997898761</v>
       </c>
     </row>
-    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -12698,7 +12790,7 @@
         <v>29.718517527077147</v>
       </c>
     </row>
-    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12746,7 +12838,7 @@
         <v>29.458762663044542</v>
       </c>
     </row>
-    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -12794,7 +12886,7 @@
         <v>29.205584583201642</v>
       </c>
     </row>
-    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -12842,7 +12934,7 @@
         <v>28.958658457297929</v>
       </c>
     </row>
-    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -12890,7 +12982,7 @@
         <v>28.71768294150732</v>
       </c>
     </row>
-    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -12938,7 +13030,7 @@
         <v>28.48237796740538</v>
       </c>
     </row>
-    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -12986,7 +13078,7 @@
         <v>28.252482785158396</v>
       </c>
     </row>
-    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -13034,7 +13126,7 @@
         <v>28.027754226637811</v>
       </c>
     </row>
-    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -13082,7 +13174,7 @@
         <v>27.807965159450056</v>
       </c>
     </row>
-    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -13130,7 +13222,7 @@
         <v>27.592903107240421</v>
       </c>
     </row>
-    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -13178,7 +13270,7 @@
         <v>27.3823690152621</v>
       </c>
     </row>
-    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -13226,7 +13318,7 @@
         <v>27.176176143234741</v>
       </c>
     </row>
-    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -13274,7 +13366,7 @@
         <v>26.974149070059546</v>
       </c>
     </row>
-    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -13322,7 +13414,7 @@
         <v>26.776122797097749</v>
       </c>
     </row>
-    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -13370,7 +13462,7 @@
         <v>26.581941938526729</v>
       </c>
     </row>
-    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N73" s="53">
         <v>49</v>
       </c>
@@ -13408,7 +13500,7 @@
         <v>26.391459988819786</v>
       </c>
     </row>
-    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N74" s="53">
         <v>50</v>
       </c>
@@ -13446,7 +13538,7 @@
         <v>26.204538658698265</v>
       </c>
     </row>
-    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N75" s="53">
         <v>51</v>
       </c>
@@ -13484,7 +13576,7 @@
         <v>26.021047272016297</v>
       </c>
     </row>
-    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N76" s="53">
         <v>52</v>
       </c>
@@ -13522,7 +13614,7 @@
         <v>25.840862216989514</v>
       </c>
     </row>
-    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N77" s="53">
         <v>53</v>
       </c>
@@ -13560,7 +13652,7 @@
         <v>25.663866445995502</v>
       </c>
     </row>
-    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N78" s="53">
         <v>54</v>
       </c>
@@ -13598,7 +13690,7 @@
         <v>25.489949018876814</v>
       </c>
     </row>
-    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N79" s="53">
         <v>55</v>
       </c>
@@ -13636,7 +13728,7 @@
         <v>25.319004685283812</v>
       </c>
     </row>
-    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N80" s="53">
         <v>56</v>
       </c>
@@ -13674,7 +13766,7 @@
         <v>25.150933502119997</v>
       </c>
     </row>
-    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N81" s="53">
         <v>57</v>
       </c>
@@ -13712,7 +13804,7 @@
         <v>24.985640482607891</v>
       </c>
     </row>
-    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N82" s="53">
         <v>58</v>
       </c>
@@ -13750,7 +13842,7 @@
         <v>24.823035273890088</v>
       </c>
     </row>
-    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N83" s="53">
         <v>59</v>
       </c>
@@ -13788,7 +13880,7 @@
         <v>24.663031860425679</v>
       </c>
     </row>
-    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N84" s="53">
         <v>60</v>
       </c>
@@ -13826,7 +13918,7 @@
         <v>24.505548290744287</v>
       </c>
     </row>
-    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N85" s="53">
         <v>61</v>
       </c>
@@ -13864,7 +13956,7 @@
         <v>24.350506425384634</v>
       </c>
     </row>
-    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N86" s="53">
         <v>62</v>
       </c>
@@ -13902,7 +13994,7 @@
         <v>24.197831704076748</v>
       </c>
     </row>
-    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N87" s="53">
         <v>63</v>
       </c>
@@ -13940,7 +14032,7 @@
         <v>24.047452930431344</v>
       </c>
     </row>
-    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N88" s="53">
         <v>64</v>
       </c>
@@ -13978,7 +14070,7 @@
         <v>23.899302072579939</v>
       </c>
     </row>
-    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N89" s="53">
         <v>65</v>
       </c>
@@ -14016,7 +14108,7 @@
         <v>23.753314078368412</v>
       </c>
     </row>
-    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N90" s="53">
         <v>66</v>
       </c>
@@ -14054,7 +14146,7 @@
         <v>23.609426703847415</v>
       </c>
     </row>
-    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N91" s="53">
         <v>67</v>
       </c>
@@ -14092,7 +14184,7 @@
         <v>23.46758035392785</v>
       </c>
     </row>
-    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N92" s="53">
         <v>68</v>
       </c>
@@ -14130,7 +14222,7 @@
         <v>23.327717934180452</v>
       </c>
     </row>
-    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N93" s="53">
         <v>69</v>
       </c>
@@ -14168,7 +14260,7 @@
         <v>23.18978471285709</v>
       </c>
     </row>
-    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N94" s="53">
         <v>70</v>
       </c>
@@ -14206,7 +14298,7 @@
         <v>23.053728192299307</v>
       </c>
     </row>
-    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N95" s="53">
         <v>71</v>
       </c>
@@ -14244,7 +14336,7 @@
         <v>22.919497988977898</v>
       </c>
     </row>
-    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N96" s="53">
         <v>72</v>
       </c>
@@ -14282,7 +14374,7 @@
         <v>22.787045721477696</v>
       </c>
     </row>
-    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N97" s="53">
         <v>73</v>
       </c>
@@ -14320,7 +14412,7 @@
         <v>22.656324905804169</v>
       </c>
     </row>
-    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N98" s="53">
         <v>74</v>
       </c>
@@ -14358,7 +14450,7 @@
         <v>22.527290857445088</v>
       </c>
     </row>
-    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N99" s="53">
         <v>75</v>
       </c>
@@ -14396,7 +14488,7 @@
         <v>22.39990059967079</v>
       </c>
     </row>
-    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N100" s="53">
         <v>76</v>
       </c>
@@ -14434,7 +14526,7 @@
         <v>22.274112777602188</v>
       </c>
     </row>
-    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N101" s="53">
         <v>77</v>
       </c>
@@ -14472,7 +14564,7 @@
         <v>22.149887577616617</v>
       </c>
     </row>
-    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N102" s="53">
         <v>78</v>
       </c>
@@ -14510,7 +14602,7 @@
         <v>22.027186651698472</v>
       </c>
     </row>
-    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N103" s="53">
         <v>79</v>
       </c>
@@ -14548,7 +14640,7 @@
         <v>21.905973046375024</v>
       </c>
     </row>
-    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N104" s="53">
         <v>80</v>
       </c>
@@ -14586,7 +14678,7 @@
         <v>21.786211135907866</v>
       </c>
     </row>
-    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N105" s="53">
         <v>81</v>
       </c>
@@ -14624,7 +14716,7 @@
         <v>21.66786655943784</v>
       </c>
     </row>
-    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N106" s="53">
         <v>82</v>
       </c>
@@ -14662,7 +14754,7 @@
         <v>21.550906161805923</v>
       </c>
     </row>
-    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N107" s="53">
         <v>83</v>
       </c>
@@ -14700,7 +14792,7 @@
         <v>21.435297937795163</v>
       </c>
     </row>
-    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N108" s="53">
         <v>84</v>
       </c>
@@ -14738,7 +14830,7 @@
         <v>21.321010979558935</v>
       </c>
     </row>
-    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N109" s="53">
         <v>85</v>
       </c>
@@ -14776,7 +14868,7 @@
         <v>21.208015427019603</v>
       </c>
     </row>
-    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N110" s="53">
         <v>86</v>
       </c>
@@ -14814,7 +14906,7 @@
         <v>21.096282421038353</v>
       </c>
     </row>
-    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N111" s="53">
         <v>87</v>
       </c>
@@ -14852,7 +14944,7 @@
         <v>20.985784059172502</v>
       </c>
     </row>
-    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N112" s="53">
         <v>88</v>
       </c>
@@ -14890,7 +14982,7 @@
         <v>20.876493353850599</v>
       </c>
     </row>
-    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N113" s="53">
         <v>89</v>
       </c>
@@ -14928,7 +15020,7 @@
         <v>20.768384192808441</v>
       </c>
     </row>
-    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N114" s="53">
         <v>90</v>
       </c>
@@ -14966,7 +15058,7 @@
         <v>20.661431301640963</v>
       </c>
     </row>
-    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N115" s="53">
         <v>91</v>
       </c>
@@ -15004,7 +15096,7 @@
         <v>20.555610208335597</v>
       </c>
     </row>
-    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N116" s="53">
         <v>92</v>
       </c>
@@ -15042,7 +15134,7 @@
         <v>20.450897209662639</v>
       </c>
     </row>
-    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N117" s="53">
         <v>93</v>
       </c>
@@ -15080,7 +15172,7 @@
         <v>20.347269339307175</v>
       </c>
     </row>
-    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N118" s="53">
         <v>94</v>
       </c>
@@ -15118,7 +15210,7 @@
         <v>20.244704337635284</v>
       </c>
     </row>
-    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N119" s="53">
         <v>95</v>
       </c>
@@ -15156,7 +15248,7 @@
         <v>20.143180622995107</v>
       </c>
     </row>
-    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N120" s="53">
         <v>96</v>
       </c>
@@ -15194,7 +15286,7 @@
         <v>20.042677264460092</v>
       </c>
     </row>
-    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N121" s="53">
         <v>97</v>
       </c>
@@ -15232,7 +15324,7 @@
         <v>19.943173955928412</v>
       </c>
     </row>
-    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N122" s="53">
         <v>98</v>
       </c>
@@ -15270,7 +15362,7 @@
         <v>19.844650991498295</v>
       </c>
     </row>
-    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N123" s="53">
         <v>99</v>
       </c>
@@ -15308,7 +15400,7 @@
         <v>19.747089242044652</v>
       </c>
     </row>
-    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N124" s="53">
         <v>100</v>
       </c>
@@ -15346,7 +15438,7 @@
         <v>19.650470132927282</v>
       </c>
     </row>
-    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N125" s="53">
         <v>101</v>
       </c>
@@ -15387,12 +15479,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9NOS8jY5Ug7YrOY49rx7A6/cXCpIjF5Enxg4kw2PLmKKvG06duBf92zLgkT/MBeWCI1tXrFRs+R4hrI9dhXplw==" saltValue="nRjJWJch2cTa6A5Bi+wDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="22">
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B2:AB2"/>
@@ -15409,6 +15495,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15418,73 +15510,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1E6C65-06A5-4DD3-B3AB-3E980D2AF55D}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="0.85546875" style="228" customWidth="1"/>
-    <col min="5" max="14" width="11.42578125" style="228"/>
-    <col min="15" max="15" width="0.5703125" style="228" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="228"/>
-    <col min="17" max="17" width="0.5703125" style="228" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="228"/>
-    <col min="19" max="19" width="0.5703125" style="228" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="228"/>
-    <col min="21" max="21" width="0.5703125" style="228" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="228"/>
-    <col min="23" max="23" width="0.5703125" style="228" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="228"/>
-    <col min="25" max="25" width="0.5703125" style="228" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="228"/>
-    <col min="27" max="27" width="0.5703125" style="228" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="228"/>
+    <col min="1" max="4" width="0.81640625" style="198" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="198" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="11.453125" style="198"/>
+    <col min="15" max="15" width="0.54296875" style="198" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="198"/>
+    <col min="17" max="17" width="0.54296875" style="198" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" style="198"/>
+    <col min="19" max="19" width="0.54296875" style="198" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" style="198"/>
+    <col min="21" max="21" width="0.54296875" style="198" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" style="198"/>
+    <col min="23" max="23" width="0.54296875" style="198" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="198"/>
+    <col min="25" max="25" width="0.54296875" style="198" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="198"/>
+    <col min="27" max="27" width="0.54296875" style="198" customWidth="1"/>
+    <col min="28" max="16384" width="11.453125" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="232"/>
-      <c r="B2" s="229" t="s">
+    <row r="1" spans="1:28" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="200"/>
+      <c r="B2" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="229"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="229"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="231" t="s">
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231"/>
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="231"/>
+      <c r="AB2" s="231"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B4" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
       <c r="G4" s="230" t="s">
         <v>23</v>
       </c>
@@ -15494,37 +15588,805 @@
       <c r="K4" s="230"/>
       <c r="L4" s="230"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="231"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="234" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="235" t="s">
+      <c r="H5" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="235" t="s">
+      <c r="I5" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="235" t="s">
+      <c r="J5" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="235" t="s">
+      <c r="K5" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="233" t="s">
+      <c r="L5" s="201" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B7" s="237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="198" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="238">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="239">
+        <v>5</v>
+      </c>
+      <c r="I7" s="238">
+        <v>-25</v>
+      </c>
+      <c r="J7" s="238">
+        <v>50</v>
+      </c>
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
+    </row>
+    <row r="8" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="237" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="198" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="238">
+        <v>-4</v>
+      </c>
+      <c r="H9" s="238">
+        <v>10</v>
+      </c>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+    </row>
+    <row r="10" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B11" s="237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="238">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="238">
+        <v>3</v>
+      </c>
+      <c r="I11" s="238">
+        <v>-25</v>
+      </c>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+    </row>
+    <row r="12" spans="1:28" ht="0.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B13" s="237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="238">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H13" s="238">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="238">
+        <v>-3</v>
+      </c>
+      <c r="J13" s="238">
+        <v>0</v>
+      </c>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+    </row>
+    <row r="14" spans="1:28" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B15" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="238">
+        <v>1</v>
+      </c>
+      <c r="H15" s="238">
+        <v>2</v>
+      </c>
+      <c r="I15" s="238">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="238">
+        <v>0</v>
+      </c>
+      <c r="K15" s="238">
+        <v>-20</v>
+      </c>
+      <c r="L15" s="238"/>
+    </row>
+    <row r="16" spans="1:28" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B17" s="237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="238">
+        <v>-10</v>
+      </c>
+      <c r="H17" s="238">
+        <v>1</v>
+      </c>
+      <c r="I17" s="238">
+        <v>11</v>
+      </c>
+      <c r="J17" s="238">
+        <v>50</v>
+      </c>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+    </row>
+    <row r="18" spans="2:28" ht="2.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B20" s="243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="242" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="242"/>
+      <c r="K20" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="242"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B21" s="243"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="241">
+        <v>-10</v>
+      </c>
+      <c r="H21" s="241"/>
+      <c r="I21" s="241">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="241"/>
+      <c r="K21" s="240">
+        <v>10</v>
+      </c>
+      <c r="L21" s="240"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="P24" s="199" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="199" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="199" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" s="199" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="199" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N25" s="244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N26" s="244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N27" s="244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N28" s="244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N29" s="244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N30" s="244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N31" s="244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="N32" s="244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N33" s="244">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N34" s="244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="244">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="244">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="244">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N38" s="244">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N39" s="244">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N40" s="244">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N41" s="244">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N42" s="244">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N43" s="244">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N44" s="244">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N45" s="244">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N46" s="244">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N47" s="244">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N48" s="244">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N49" s="244">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N50" s="244">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N51" s="244">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N52" s="244">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N53" s="244">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N54" s="244">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N55" s="244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N56" s="244">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N57" s="244">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N58" s="244">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N59" s="244">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N60" s="244">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N61" s="244">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N62" s="244">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N63" s="244">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N64" s="244">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N65" s="244">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N66" s="244">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N67" s="244">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N68" s="244">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N69" s="244">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N70" s="244">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N71" s="244">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N72" s="244">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N73" s="244">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N74" s="244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N75" s="244">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N76" s="244">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N77" s="244">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N78" s="244">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N79" s="244">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N80" s="244">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N81" s="244">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N82" s="244">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N83" s="244">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N84" s="244">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N85" s="244">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N86" s="244">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N87" s="244">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N88" s="244">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N89" s="244">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N90" s="244">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N91" s="244">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N92" s="244">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N93" s="244">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N94" s="244">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N95" s="244">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N96" s="244">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N97" s="244">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N98" s="244">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N99" s="244">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N100" s="244">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N101" s="244">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N102" s="244">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N103" s="244">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N104" s="244">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N105" s="244">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N106" s="244">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N107" s="244">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N108" s="244">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N109" s="244">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N110" s="244">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N111" s="244">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N112" s="244">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N113" s="244">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N114" s="244">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N115" s="244">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N116" s="244">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N117" s="244">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N118" s="244">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N119" s="244">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N120" s="244">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N121" s="244">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N122" s="244">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N123" s="244">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N124" s="244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N125" s="244">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="16">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:F21"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15539,41 +16401,41 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="11.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0.5703125" style="33" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" style="33" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" style="4" customWidth="1"/>
+    <col min="7" max="10" width="11.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0.54296875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="201" t="s">
+    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -15585,20 +16447,20 @@
       <c r="S2" s="70"/>
       <c r="T2" s="70"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="202"/>
-      <c r="G4" s="204" t="s">
+      <c r="F4" s="214"/>
+      <c r="G4" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
       <c r="K4" s="56"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -15610,11 +16472,11 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
     </row>
-    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -15638,7 +16500,7 @@
       <c r="S5" s="54"/>
       <c r="T5" s="54"/>
     </row>
-    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -15656,12 +16518,12 @@
       <c r="S6" s="54"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="24"/>
-      <c r="D7" s="223" t="s">
+      <c r="D7" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="223"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="193" t="s">
         <v>52</v>
       </c>
@@ -15688,7 +16550,7 @@
       <c r="S7" s="62"/>
       <c r="T7" s="62"/>
     </row>
-    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="22"/>
       <c r="D8" s="197"/>
       <c r="E8" s="109"/>
@@ -15708,12 +16570,12 @@
       <c r="S8" s="62"/>
       <c r="T8" s="62"/>
     </row>
-    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="25"/>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="224"/>
+      <c r="E9" s="233"/>
       <c r="F9" s="195" t="s">
         <v>52</v>
       </c>
@@ -15741,7 +16603,7 @@
       <c r="T9" s="63"/>
       <c r="U9" s="22"/>
     </row>
-    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22"/>
       <c r="D10" s="197"/>
       <c r="E10" s="109"/>
@@ -15762,12 +16624,12 @@
       <c r="T10" s="63"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="26"/>
-      <c r="D11" s="225" t="s">
+      <c r="D11" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="225"/>
+      <c r="E11" s="234"/>
       <c r="F11" s="196" t="s">
         <v>53</v>
       </c>
@@ -15795,7 +16657,7 @@
       <c r="T11" s="64"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -15816,7 +16678,7 @@
       <c r="T12" s="64"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
@@ -15828,14 +16690,14 @@
       <c r="S13" s="54"/>
       <c r="T13" s="54"/>
     </row>
-    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="202" t="s">
+      <c r="E14" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="206"/>
+      <c r="F14" s="218"/>
       <c r="G14" s="71" t="s">
         <v>24</v>
       </c>
@@ -15857,12 +16719,12 @@
       <c r="S14" s="54"/>
       <c r="T14" s="54"/>
     </row>
-    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
       <c r="G15" s="191">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -15887,7 +16749,7 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
     </row>
-    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
       <c r="M16" s="54"/>
@@ -15899,7 +16761,7 @@
       <c r="S16" s="54"/>
       <c r="T16" s="54"/>
     </row>
-    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -15911,7 +16773,7 @@
       <c r="S17" s="54"/>
       <c r="T17" s="54"/>
     </row>
-    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -15935,7 +16797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="K19" s="54"/>
       <c r="L19" s="59">
@@ -15962,7 +16824,7 @@
         <v>2.45029690981724E-16</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K20" s="54"/>
       <c r="L20" s="59">
         <v>2</v>
@@ -15988,7 +16850,7 @@
         <v>0.12632937844610859</v>
       </c>
     </row>
-    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="54"/>
       <c r="L21" s="59">
         <v>3</v>
@@ -16014,7 +16876,7 @@
         <v>0.25675636036772742</v>
       </c>
     </row>
-    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -16045,7 +16907,7 @@
         <v>0.39592800879772216</v>
       </c>
     </row>
-    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -16076,7 +16938,7 @@
         <v>0.54975465219277131</v>
       </c>
     </row>
-    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -16107,7 +16969,7 @@
         <v>0.72654252800536256</v>
       </c>
     </row>
-    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -16138,7 +17000,7 @@
         <v>0.93906250581749473</v>
       </c>
     </row>
-    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -16169,7 +17031,7 @@
         <v>1.2087923504096127</v>
       </c>
     </row>
-    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -16200,7 +17062,7 @@
         <v>1.5757478599686567</v>
       </c>
     </row>
-    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -16231,7 +17093,7 @@
         <v>2.1251081731572126</v>
       </c>
     </row>
-    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -16262,7 +17124,7 @@
         <v>3.077683537175274</v>
       </c>
     </row>
-    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -16293,7 +17155,7 @@
         <v>5.2421835811132382</v>
       </c>
     </row>
-    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -16324,7 +17186,7 @@
         <v>15.894544843865891</v>
       </c>
     </row>
-    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -16355,7 +17217,7 @@
         <v>-15.894544843864672</v>
       </c>
     </row>
-    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -16386,7 +17248,7 @@
         <v>-5.2421835811131006</v>
       </c>
     </row>
-    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -16417,7 +17279,7 @@
         <v>-3.0776835371752238</v>
       </c>
     </row>
-    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -16448,7 +17310,7 @@
         <v>-2.1251081731571864</v>
       </c>
     </row>
-    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -16479,7 +17341,7 @@
         <v>-1.5757478599686401</v>
       </c>
     </row>
-    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -16510,7 +17372,7 @@
         <v>-1.208792350409601</v>
       </c>
     </row>
-    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -16541,7 +17403,7 @@
         <v>-0.93906250581748574</v>
       </c>
     </row>
-    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -16572,7 +17434,7 @@
         <v>-0.72654252800535524</v>
       </c>
     </row>
-    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -16603,7 +17465,7 @@
         <v>-0.54975465219276498</v>
       </c>
     </row>
-    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -16634,7 +17496,7 @@
         <v>-0.39592800879771656</v>
       </c>
     </row>
-    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -16665,7 +17527,7 @@
         <v>-0.25675636036772231</v>
       </c>
     </row>
-    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -16696,7 +17558,7 @@
         <v>-0.1263293784461037</v>
       </c>
     </row>
-    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -16727,7 +17589,7 @@
         <v>4.5634069439914882E-15</v>
       </c>
     </row>
-    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -16758,7 +17620,7 @@
         <v>0.126329378446113</v>
       </c>
     </row>
-    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -16789,7 +17651,7 @@
         <v>0.25675636036773203</v>
       </c>
     </row>
-    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -16820,7 +17682,7 @@
         <v>0.39592800879772716</v>
       </c>
     </row>
-    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -16851,7 +17713,7 @@
         <v>0.54975465219277697</v>
       </c>
     </row>
-    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -16882,7 +17744,7 @@
         <v>0.72654252800536923</v>
       </c>
     </row>
-    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -16913,7 +17775,7 @@
         <v>0.93906250581750284</v>
       </c>
     </row>
-    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -16944,7 +17806,7 @@
         <v>1.2087923504096234</v>
       </c>
     </row>
-    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -16975,7 +17837,7 @@
         <v>1.5757478599686718</v>
       </c>
     </row>
-    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -17006,7 +17868,7 @@
         <v>2.1251081731572365</v>
       </c>
     </row>
-    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -17037,7 +17899,7 @@
         <v>3.0776835371753171</v>
       </c>
     </row>
-    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -17068,7 +17930,7 @@
         <v>5.2421835811133484</v>
       </c>
     </row>
-    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -17099,7 +17961,7 @@
         <v>15.894544843866818</v>
       </c>
     </row>
-    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -17130,7 +17992,7 @@
         <v>-15.894544843863802</v>
       </c>
     </row>
-    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -17161,7 +18023,7 @@
         <v>-5.2421835811130091</v>
       </c>
     </row>
-    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -17192,7 +18054,7 @@
         <v>-3.0776835371751923</v>
       </c>
     </row>
-    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -17223,7 +18085,7 @@
         <v>-2.1251081731571708</v>
       </c>
     </row>
-    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -17254,7 +18116,7 @@
         <v>-1.5757478599686312</v>
       </c>
     </row>
-    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -17285,7 +18147,7 @@
         <v>-1.2087923504095952</v>
       </c>
     </row>
-    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -17316,7 +18178,7 @@
         <v>-0.93906250581748174</v>
       </c>
     </row>
-    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -17347,7 +18209,7 @@
         <v>-0.72654252800535235</v>
       </c>
     </row>
-    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -17378,7 +18240,7 @@
         <v>-0.54975465219276287</v>
       </c>
     </row>
-    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -17409,7 +18271,7 @@
         <v>-0.39592800879771484</v>
       </c>
     </row>
-    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L67" s="59">
         <v>49</v>
       </c>
@@ -17432,7 +18294,7 @@
         <v>-0.25675636036772087</v>
       </c>
     </row>
-    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L68" s="59">
         <v>50</v>
       </c>
@@ -17455,7 +18317,7 @@
         <v>-0.12632937844610254</v>
       </c>
     </row>
-    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L69" s="59">
         <v>51</v>
       </c>
@@ -17478,7 +18340,7 @@
         <v>5.5511151231257827E-15</v>
       </c>
     </row>
-    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L70" s="59">
         <v>52</v>
       </c>
@@ -17501,7 +18363,7 @@
         <v>0.12632937844611383</v>
       </c>
     </row>
-    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L71" s="59">
         <v>53</v>
       </c>
@@ -17524,7 +18386,7 @@
         <v>0.25675636036773269</v>
       </c>
     </row>
-    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L72" s="59">
         <v>54</v>
       </c>
@@ -17547,7 +18409,7 @@
         <v>0.39592800879772772</v>
       </c>
     </row>
-    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L73" s="59">
         <v>55</v>
       </c>
@@ -17570,7 +18432,7 @@
         <v>0.5497546521927773</v>
       </c>
     </row>
-    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L74" s="59">
         <v>56</v>
       </c>
@@ -17593,7 +18455,7 @@
         <v>0.72654252800536934</v>
       </c>
     </row>
-    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L75" s="59">
         <v>57</v>
       </c>
@@ -17616,7 +18478,7 @@
         <v>0.93906250581750261</v>
       </c>
     </row>
-    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L76" s="59">
         <v>58</v>
       </c>
@@ -17639,7 +18501,7 @@
         <v>1.2087923504096225</v>
       </c>
     </row>
-    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L77" s="59">
         <v>59</v>
       </c>
@@ -17662,7 +18524,7 @@
         <v>1.5757478599686698</v>
       </c>
     </row>
-    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L78" s="59">
         <v>60</v>
       </c>
@@ -17685,7 +18547,7 @@
         <v>2.1251081731572321</v>
       </c>
     </row>
-    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L79" s="59">
         <v>61</v>
       </c>
@@ -17708,7 +18570,7 @@
         <v>3.0776835371753086</v>
       </c>
     </row>
-    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L80" s="59">
         <v>62</v>
       </c>
@@ -17731,7 +18593,7 @@
         <v>5.2421835811133253</v>
       </c>
     </row>
-    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L81" s="59">
         <v>63</v>
       </c>
@@ -17754,7 +18616,7 @@
         <v>15.894544843866617</v>
       </c>
     </row>
-    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L82" s="59">
         <v>64</v>
       </c>
@@ -17777,7 +18639,7 @@
         <v>-15.894544843864002</v>
       </c>
     </row>
-    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L83" s="59">
         <v>65</v>
       </c>
@@ -17800,7 +18662,7 @@
         <v>-5.2421835811130322</v>
       </c>
     </row>
-    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L84" s="59">
         <v>66</v>
       </c>
@@ -17823,7 +18685,7 @@
         <v>-3.0776835371752007</v>
       </c>
     </row>
-    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L85" s="59">
         <v>67</v>
       </c>
@@ -17846,7 +18708,7 @@
         <v>-2.1251081731571753</v>
       </c>
     </row>
-    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L86" s="59">
         <v>68</v>
       </c>
@@ -17869,7 +18731,7 @@
         <v>-1.5757478599686332</v>
       </c>
     </row>
-    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L87" s="59">
         <v>69</v>
       </c>
@@ -17892,7 +18754,7 @@
         <v>-1.2087923504095961</v>
       </c>
     </row>
-    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L88" s="59">
         <v>70</v>
       </c>
@@ -17915,7 +18777,7 @@
         <v>-0.93906250581748196</v>
       </c>
     </row>
-    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L89" s="59">
         <v>71</v>
       </c>
@@ -17938,7 +18800,7 @@
         <v>-0.72654252800535224</v>
       </c>
     </row>
-    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L90" s="59">
         <v>72</v>
       </c>
@@ -17961,7 +18823,7 @@
         <v>-0.54975465219276243</v>
       </c>
     </row>
-    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L91" s="59">
         <v>73</v>
       </c>
@@ -17984,7 +18846,7 @@
         <v>-0.39592800879771428</v>
       </c>
     </row>
-    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L92" s="59">
         <v>74</v>
       </c>
@@ -18007,7 +18869,7 @@
         <v>-0.2567563603677202</v>
       </c>
     </row>
-    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L93" s="59">
         <v>75</v>
       </c>
@@ -18030,7 +18892,7 @@
         <v>-0.1263293784461017</v>
       </c>
     </row>
-    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L94" s="59">
         <v>76</v>
       </c>
@@ -18053,7 +18915,7 @@
         <v>6.5388233022600772E-15</v>
       </c>
     </row>
-    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L95" s="59">
         <v>77</v>
       </c>
@@ -18076,7 +18938,7 @@
         <v>0.126329378446115</v>
       </c>
     </row>
-    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L96" s="59">
         <v>78</v>
       </c>
@@ -18099,7 +18961,7 @@
         <v>0.25675636036773414</v>
       </c>
     </row>
-    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L97" s="59">
         <v>79</v>
       </c>
@@ -18122,7 +18984,7 @@
         <v>0.39592800879772944</v>
       </c>
     </row>
-    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L98" s="59">
         <v>80</v>
       </c>
@@ -18145,7 +19007,7 @@
         <v>0.54975465219277952</v>
       </c>
     </row>
-    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L99" s="59">
         <v>81</v>
       </c>
@@ -18168,7 +19030,7 @@
         <v>0.72654252800537222</v>
       </c>
     </row>
-    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L100" s="59">
         <v>82</v>
       </c>
@@ -18191,7 +19053,7 @@
         <v>0.93906250581750661</v>
       </c>
     </row>
-    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L101" s="59">
         <v>83</v>
       </c>
@@ -18214,7 +19076,7 @@
         <v>1.2087923504096272</v>
       </c>
     </row>
-    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L102" s="59">
         <v>84</v>
       </c>
@@ -18237,7 +19099,7 @@
         <v>1.5757478599686772</v>
       </c>
     </row>
-    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L103" s="59">
         <v>85</v>
       </c>
@@ -18260,7 +19122,7 @@
         <v>2.125108173157245</v>
       </c>
     </row>
-    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L104" s="59">
         <v>86</v>
       </c>
@@ -18283,7 +19145,7 @@
         <v>3.0776835371753353</v>
       </c>
     </row>
-    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L105" s="59">
         <v>87</v>
       </c>
@@ -18306,7 +19168,7 @@
         <v>5.2421835811134043</v>
       </c>
     </row>
-    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L106" s="59">
         <v>88</v>
       </c>
@@ -18329,7 +19191,7 @@
         <v>15.894544843867376</v>
       </c>
     </row>
-    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L107" s="59">
         <v>89</v>
       </c>
@@ -18352,7 +19214,7 @@
         <v>-15.894544843863189</v>
       </c>
     </row>
-    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L108" s="59">
         <v>90</v>
       </c>
@@ -18375,7 +19237,7 @@
         <v>-5.2421835811129345</v>
       </c>
     </row>
-    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L109" s="59">
         <v>91</v>
       </c>
@@ -18398,7 +19260,7 @@
         <v>-3.0776835371751625</v>
       </c>
     </row>
-    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L110" s="59">
         <v>92</v>
       </c>
@@ -18421,7 +19283,7 @@
         <v>-2.1251081731571539</v>
       </c>
     </row>
-    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L111" s="59">
         <v>93</v>
       </c>
@@ -18444,7 +19306,7 @@
         <v>-1.5757478599686197</v>
       </c>
     </row>
-    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L112" s="59">
         <v>94</v>
       </c>
@@ -18467,7 +19329,7 @@
         <v>-1.2087923504095865</v>
       </c>
     </row>
-    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L113" s="59">
         <v>95</v>
       </c>
@@ -18490,7 +19352,7 @@
         <v>-0.93906250581747475</v>
       </c>
     </row>
-    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L114" s="59">
         <v>96</v>
       </c>
@@ -18513,7 +19375,7 @@
         <v>-0.72654252800534624</v>
       </c>
     </row>
-    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L115" s="59">
         <v>97</v>
       </c>
@@ -18536,7 +19398,7 @@
         <v>-0.54975465219275743</v>
       </c>
     </row>
-    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L116" s="59">
         <v>98</v>
       </c>
@@ -18559,7 +19421,7 @@
         <v>-0.39592800879770984</v>
       </c>
     </row>
-    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L117" s="59">
         <v>99</v>
       </c>
@@ -18582,7 +19444,7 @@
         <v>-0.25675636036771604</v>
       </c>
     </row>
-    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L118" s="59">
         <v>100</v>
       </c>
@@ -18605,7 +19467,7 @@
         <v>-0.12632937844609776</v>
       </c>
     </row>
-    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L119" s="59">
         <v>101</v>
       </c>
@@ -18656,109 +19518,109 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="11" customWidth="1"/>
     <col min="4" max="4" width="100" style="11" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="1.7265625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="226" t="s">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.35">
+      <c r="B2" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-    </row>
-    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="227" t="s">
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+    </row>
+    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="236" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="227"/>
+    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="236"/>
       <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="227"/>
+    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="236"/>
       <c r="D6" s="77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="227"/>
+    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="236"/>
       <c r="D7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="227"/>
+    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="236"/>
       <c r="D8" s="77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="227"/>
+    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="236"/>
       <c r="D9" s="78" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="227" t="s">
+    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="236" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="227"/>
+    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="236"/>
       <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="227"/>
+    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="236"/>
       <c r="D13" s="82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="227" t="s">
+    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="236" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="227"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="236"/>
       <c r="D16" s="76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="227"/>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="236"/>
       <c r="D17" s="81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="227"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="236"/>
       <c r="D18" s="80" t="s">
         <v>33</v>
       </c>

--- a/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
+++ b/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc197a25ccdc5fa/Desktop/GitHub2022/ExerciceExcel3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CVM\Outil de gestion\GitHub2022\ExerciceExcel3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{1F94E178-8919-4BF0-8E90-5D9E5E3834FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB47678A-72E7-44DC-AB4E-A15268CC2DAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80CBB68-1565-4165-8A18-B0A308D7C67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{3757307E-2B36-4229-AE29-1C2237A8C312}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Objectifs de cet exercice</t>
   </si>
@@ -1358,13 +1359,106 @@
     <t>y = a ∙ x + b</t>
   </si>
   <si>
-    <t>y = a ∙ x</t>
-  </si>
-  <si>
     <t>y = a ∙ ln( b ∙ x + c ) + d</t>
   </si>
   <si>
-    <t>y = a ∙ b</t>
+    <r>
+      <t>y = a ∙ x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ b ∙ x + c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = a ∙ x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ b ∙ x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ c ∙ x + d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y = a ∙ b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c ∙ x + d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ e</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1375,7 +1469,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1825,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3000,7 +3102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3780,6 +3882,91 @@
     <xf numFmtId="0" fontId="42" fillId="57" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="26" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3804,81 +3991,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="25" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="26" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3909,30 +4035,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3967,7 +4070,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7961,7 +8064,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401640"/>
@@ -7987,7 +8090,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401248"/>
@@ -8005,7 +8108,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8031,7 +8134,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10060,7 +10163,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142439888"/>
@@ -10088,7 +10191,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143403992"/>
@@ -10108,7 +10211,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10538,96 +10641,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21:H21"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="8.26953125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="8.26953125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.54296875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.26953125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="0.54296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="0.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="0.54296875" style="33" customWidth="1"/>
-    <col min="20" max="20" width="9.453125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="0.54296875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="0.54296875" style="33" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="0.54296875" style="33" customWidth="1"/>
-    <col min="26" max="26" width="9.453125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="0.54296875" style="33" customWidth="1"/>
-    <col min="28" max="28" width="9.453125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="4" customWidth="1"/>
+    <col min="7" max="10" width="8.28515625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="0.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="0.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="0.5703125" style="33" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="0.5703125" style="33" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="0.5703125" style="33" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="0.5703125" style="33" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="0.5703125" style="33" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="213" t="s">
+    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-    </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="210"/>
+    </row>
+    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="216" t="s">
+      <c r="F4" s="211"/>
+      <c r="G4" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
       <c r="M4" s="21"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -10650,7 +10754,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -10663,12 +10767,12 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="87"/>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="225"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="178" t="s">
         <v>41</v>
       </c>
@@ -10686,10 +10790,10 @@
       </c>
       <c r="K7" s="160"/>
       <c r="L7" s="161"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="220"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
@@ -10698,7 +10802,7 @@
       <c r="Y7" s="34"/>
       <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22"/>
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
@@ -10721,12 +10825,12 @@
       <c r="Y8" s="34"/>
       <c r="AA8" s="34"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="98"/>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="226"/>
+      <c r="E9" s="223"/>
       <c r="F9" s="180" t="s">
         <v>42</v>
       </c>
@@ -10740,10 +10844,10 @@
       <c r="J9" s="165"/>
       <c r="K9" s="165"/>
       <c r="L9" s="165"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="224"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
       <c r="Q9" s="99"/>
       <c r="R9" s="90"/>
       <c r="S9" s="100"/>
@@ -10758,7 +10862,7 @@
       <c r="AB9" s="39"/>
       <c r="AC9" s="22"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22"/>
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
@@ -10787,12 +10891,12 @@
       <c r="AB10" s="39"/>
       <c r="AC10" s="22"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="110"/>
-      <c r="D11" s="227" t="s">
+      <c r="D11" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="227"/>
+      <c r="E11" s="224"/>
       <c r="F11" s="181" t="s">
         <v>43</v>
       </c>
@@ -10808,10 +10912,10 @@
       <c r="J11" s="168"/>
       <c r="K11" s="168"/>
       <c r="L11" s="168"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
+      <c r="M11" s="227"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="227"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
       <c r="S11" s="112"/>
@@ -10826,7 +10930,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="22"/>
     </row>
-    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -10855,12 +10959,12 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="22"/>
     </row>
-    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="122"/>
-      <c r="D13" s="228" t="s">
+      <c r="D13" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="228"/>
+      <c r="E13" s="225"/>
       <c r="F13" s="182" t="s">
         <v>44</v>
       </c>
@@ -10878,10 +10982,10 @@
       </c>
       <c r="K13" s="171"/>
       <c r="L13" s="171"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="226"/>
+      <c r="O13" s="226"/>
+      <c r="P13" s="226"/>
       <c r="Q13" s="123"/>
       <c r="R13" s="93"/>
       <c r="S13" s="124"/>
@@ -10896,7 +11000,7 @@
       <c r="AB13" s="36"/>
       <c r="AC13" s="22"/>
     </row>
-    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="22"/>
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
@@ -10925,12 +11029,12 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="22"/>
     </row>
-    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="133"/>
-      <c r="D15" s="207" t="s">
+      <c r="D15" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="207"/>
+      <c r="E15" s="229"/>
       <c r="F15" s="183" t="s">
         <v>45</v>
       </c>
@@ -10950,10 +11054,10 @@
         <v>-20</v>
       </c>
       <c r="L15" s="174"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="206"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+      <c r="P15" s="228"/>
       <c r="Q15" s="135"/>
       <c r="R15" s="94"/>
       <c r="S15" s="136"/>
@@ -10968,7 +11072,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="22"/>
     </row>
-    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22"/>
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
@@ -10997,12 +11101,12 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="143"/>
-      <c r="D17" s="209" t="s">
+      <c r="D17" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="209"/>
+      <c r="E17" s="231"/>
       <c r="F17" s="184" t="s">
         <v>46</v>
       </c>
@@ -11020,10 +11124,10 @@
       </c>
       <c r="K17" s="177"/>
       <c r="L17" s="177"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="208"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="230"/>
       <c r="Q17" s="145"/>
       <c r="R17" s="90"/>
       <c r="S17" s="144"/>
@@ -11038,7 +11142,7 @@
       <c r="AB17" s="146"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M18" s="33"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="95"/>
@@ -11048,7 +11152,7 @@
       <c r="Z18" s="140"/>
       <c r="AB18" s="147"/>
     </row>
-    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="95"/>
@@ -11058,26 +11162,26 @@
       <c r="Z19" s="140"/>
       <c r="AB19" s="147"/>
     </row>
-    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="214" t="s">
+      <c r="E20" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="218"/>
-      <c r="G20" s="221" t="s">
+      <c r="F20" s="215"/>
+      <c r="G20" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210" t="s">
+      <c r="H20" s="207"/>
+      <c r="I20" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210" t="s">
+      <c r="J20" s="207"/>
+      <c r="K20" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="211"/>
+      <c r="L20" s="208"/>
       <c r="M20" s="44"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -11090,25 +11194,25 @@
       <c r="Z20" s="140"/>
       <c r="AB20" s="147"/>
     </row>
-    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="222">
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="219">
         <v>-10</v>
       </c>
-      <c r="H21" s="222"/>
-      <c r="I21" s="222">
+      <c r="H21" s="219"/>
+      <c r="I21" s="219">
         <v>0.2</v>
       </c>
-      <c r="J21" s="222"/>
-      <c r="K21" s="212">
+      <c r="J21" s="219"/>
+      <c r="K21" s="209">
         <f>G21+100*I21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="212"/>
+      <c r="L21" s="209"/>
       <c r="M21" s="47"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -11121,7 +11225,7 @@
       <c r="Z21" s="140"/>
       <c r="AB21" s="147"/>
     </row>
-    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P22" s="50"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="95"/>
@@ -11131,7 +11235,7 @@
       <c r="Z22" s="140"/>
       <c r="AB22" s="147"/>
     </row>
-    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P23" s="50"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="95"/>
@@ -11141,7 +11245,7 @@
       <c r="Z23" s="140"/>
       <c r="AB23" s="147"/>
     </row>
-    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -11181,7 +11285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="N25" s="53">
         <v>1</v>
@@ -11222,7 +11326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N26" s="53">
         <v>2</v>
       </c>
@@ -11262,7 +11366,7 @@
         <v>48.176784432060458</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N27" s="53">
         <v>3</v>
       </c>
@@ -11302,7 +11406,7 @@
         <v>46.635277633787879</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -11350,7 +11454,7 @@
         <v>45.299963707542659</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -11398,7 +11502,7 @@
         <v>44.122133350978828</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -11446,7 +11550,7 @@
         <v>43.068528194400564</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -11494,7 +11598,7 @@
         <v>42.115426396357314</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -11542,7 +11646,7 @@
         <v>41.245312626461022</v>
       </c>
     </row>
-    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -11590,7 +11694,7 @@
         <v>40.444885549725655</v>
       </c>
     </row>
-    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -11638,7 +11742,7 @@
         <v>39.703805828188443</v>
       </c>
     </row>
-    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -11686,7 +11790,7 @@
         <v>39.013877113318927</v>
       </c>
     </row>
-    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -11734,7 +11838,7 @@
         <v>38.368491901943216</v>
       </c>
     </row>
-    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -11782,7 +11886,7 @@
         <v>37.762245683778865</v>
       </c>
     </row>
-    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -11830,7 +11934,7 @@
         <v>37.190661545379378</v>
       </c>
     </row>
-    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -11878,7 +11982,7 @@
         <v>36.649989332676611</v>
       </c>
     </row>
-    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -11926,7 +12030,7 @@
         <v>36.137056388801113</v>
       </c>
     </row>
-    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -11974,7 +12078,7 @@
         <v>35.649154747106792</v>
       </c>
     </row>
-    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -12022,7 +12126,7 @@
         <v>35.183954590757857</v>
       </c>
     </row>
-    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -12070,7 +12174,7 @@
         <v>34.739436965049521</v>
       </c>
     </row>
-    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -12118,7 +12222,7 @@
         <v>34.313840820861557</v>
       </c>
     </row>
-    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -12166,7 +12270,7 @@
         <v>33.905620875659011</v>
       </c>
     </row>
-    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -12214,7 +12318,7 @@
         <v>33.513413744126197</v>
       </c>
     </row>
-    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -12262,7 +12366,7 @@
         <v>33.136010464297726</v>
       </c>
     </row>
-    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -12310,7 +12414,7 @@
         <v>32.772334022588979</v>
       </c>
     </row>
-    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -12358,7 +12462,7 @@
         <v>32.421420824476272</v>
       </c>
     </row>
-    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -12406,7 +12510,7 @@
         <v>32.082405307719455</v>
       </c>
     </row>
-    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -12454,7 +12558,7 @@
         <v>31.754507079489549</v>
       </c>
     </row>
-    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -12502,7 +12606,7 @@
         <v>31.437020096343744</v>
       </c>
     </row>
-    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -12550,7 +12654,7 @@
         <v>31.129303509676205</v>
       </c>
     </row>
-    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -12598,7 +12702,7 @@
         <v>30.830773878179397</v>
       </c>
     </row>
-    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -12646,7 +12750,7 @@
         <v>30.540898509446873</v>
       </c>
     </row>
-    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -12694,7 +12798,7 @@
         <v>30.259189739779909</v>
       </c>
     </row>
-    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -12742,7 +12846,7 @@
         <v>29.985199997898761</v>
       </c>
     </row>
-    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -12790,7 +12894,7 @@
         <v>29.718517527077147</v>
       </c>
     </row>
-    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12838,7 +12942,7 @@
         <v>29.458762663044542</v>
       </c>
     </row>
-    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -12886,7 +12990,7 @@
         <v>29.205584583201642</v>
       </c>
     </row>
-    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -12934,7 +13038,7 @@
         <v>28.958658457297929</v>
       </c>
     </row>
-    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -12982,7 +13086,7 @@
         <v>28.71768294150732</v>
       </c>
     </row>
-    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -13030,7 +13134,7 @@
         <v>28.48237796740538</v>
       </c>
     </row>
-    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -13078,7 +13182,7 @@
         <v>28.252482785158396</v>
       </c>
     </row>
-    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -13126,7 +13230,7 @@
         <v>28.027754226637811</v>
       </c>
     </row>
-    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -13174,7 +13278,7 @@
         <v>27.807965159450056</v>
       </c>
     </row>
-    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -13222,7 +13326,7 @@
         <v>27.592903107240421</v>
       </c>
     </row>
-    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -13270,7 +13374,7 @@
         <v>27.3823690152621</v>
       </c>
     </row>
-    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -13318,7 +13422,7 @@
         <v>27.176176143234741</v>
       </c>
     </row>
-    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -13366,7 +13470,7 @@
         <v>26.974149070059546</v>
       </c>
     </row>
-    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -13414,7 +13518,7 @@
         <v>26.776122797097749</v>
       </c>
     </row>
-    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -13462,7 +13566,7 @@
         <v>26.581941938526729</v>
       </c>
     </row>
-    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N73" s="53">
         <v>49</v>
       </c>
@@ -13500,7 +13604,7 @@
         <v>26.391459988819786</v>
       </c>
     </row>
-    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N74" s="53">
         <v>50</v>
       </c>
@@ -13538,7 +13642,7 @@
         <v>26.204538658698265</v>
       </c>
     </row>
-    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N75" s="53">
         <v>51</v>
       </c>
@@ -13576,7 +13680,7 @@
         <v>26.021047272016297</v>
       </c>
     </row>
-    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N76" s="53">
         <v>52</v>
       </c>
@@ -13614,7 +13718,7 @@
         <v>25.840862216989514</v>
       </c>
     </row>
-    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N77" s="53">
         <v>53</v>
       </c>
@@ -13652,7 +13756,7 @@
         <v>25.663866445995502</v>
       </c>
     </row>
-    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N78" s="53">
         <v>54</v>
       </c>
@@ -13690,7 +13794,7 @@
         <v>25.489949018876814</v>
       </c>
     </row>
-    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N79" s="53">
         <v>55</v>
       </c>
@@ -13728,7 +13832,7 @@
         <v>25.319004685283812</v>
       </c>
     </row>
-    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N80" s="53">
         <v>56</v>
       </c>
@@ -13766,7 +13870,7 @@
         <v>25.150933502119997</v>
       </c>
     </row>
-    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N81" s="53">
         <v>57</v>
       </c>
@@ -13804,7 +13908,7 @@
         <v>24.985640482607891</v>
       </c>
     </row>
-    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N82" s="53">
         <v>58</v>
       </c>
@@ -13842,7 +13946,7 @@
         <v>24.823035273890088</v>
       </c>
     </row>
-    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N83" s="53">
         <v>59</v>
       </c>
@@ -13880,7 +13984,7 @@
         <v>24.663031860425679</v>
       </c>
     </row>
-    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N84" s="53">
         <v>60</v>
       </c>
@@ -13918,7 +14022,7 @@
         <v>24.505548290744287</v>
       </c>
     </row>
-    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N85" s="53">
         <v>61</v>
       </c>
@@ -13956,7 +14060,7 @@
         <v>24.350506425384634</v>
       </c>
     </row>
-    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N86" s="53">
         <v>62</v>
       </c>
@@ -13994,7 +14098,7 @@
         <v>24.197831704076748</v>
       </c>
     </row>
-    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N87" s="53">
         <v>63</v>
       </c>
@@ -14032,7 +14136,7 @@
         <v>24.047452930431344</v>
       </c>
     </row>
-    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N88" s="53">
         <v>64</v>
       </c>
@@ -14070,7 +14174,7 @@
         <v>23.899302072579939</v>
       </c>
     </row>
-    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N89" s="53">
         <v>65</v>
       </c>
@@ -14108,7 +14212,7 @@
         <v>23.753314078368412</v>
       </c>
     </row>
-    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N90" s="53">
         <v>66</v>
       </c>
@@ -14146,7 +14250,7 @@
         <v>23.609426703847415</v>
       </c>
     </row>
-    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N91" s="53">
         <v>67</v>
       </c>
@@ -14184,7 +14288,7 @@
         <v>23.46758035392785</v>
       </c>
     </row>
-    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N92" s="53">
         <v>68</v>
       </c>
@@ -14222,7 +14326,7 @@
         <v>23.327717934180452</v>
       </c>
     </row>
-    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N93" s="53">
         <v>69</v>
       </c>
@@ -14260,7 +14364,7 @@
         <v>23.18978471285709</v>
       </c>
     </row>
-    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N94" s="53">
         <v>70</v>
       </c>
@@ -14298,7 +14402,7 @@
         <v>23.053728192299307</v>
       </c>
     </row>
-    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N95" s="53">
         <v>71</v>
       </c>
@@ -14336,7 +14440,7 @@
         <v>22.919497988977898</v>
       </c>
     </row>
-    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N96" s="53">
         <v>72</v>
       </c>
@@ -14374,7 +14478,7 @@
         <v>22.787045721477696</v>
       </c>
     </row>
-    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N97" s="53">
         <v>73</v>
       </c>
@@ -14412,7 +14516,7 @@
         <v>22.656324905804169</v>
       </c>
     </row>
-    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N98" s="53">
         <v>74</v>
       </c>
@@ -14450,7 +14554,7 @@
         <v>22.527290857445088</v>
       </c>
     </row>
-    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N99" s="53">
         <v>75</v>
       </c>
@@ -14488,7 +14592,7 @@
         <v>22.39990059967079</v>
       </c>
     </row>
-    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N100" s="53">
         <v>76</v>
       </c>
@@ -14526,7 +14630,7 @@
         <v>22.274112777602188</v>
       </c>
     </row>
-    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N101" s="53">
         <v>77</v>
       </c>
@@ -14564,7 +14668,7 @@
         <v>22.149887577616617</v>
       </c>
     </row>
-    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N102" s="53">
         <v>78</v>
       </c>
@@ -14602,7 +14706,7 @@
         <v>22.027186651698472</v>
       </c>
     </row>
-    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N103" s="53">
         <v>79</v>
       </c>
@@ -14640,7 +14744,7 @@
         <v>21.905973046375024</v>
       </c>
     </row>
-    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N104" s="53">
         <v>80</v>
       </c>
@@ -14678,7 +14782,7 @@
         <v>21.786211135907866</v>
       </c>
     </row>
-    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N105" s="53">
         <v>81</v>
       </c>
@@ -14716,7 +14820,7 @@
         <v>21.66786655943784</v>
       </c>
     </row>
-    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N106" s="53">
         <v>82</v>
       </c>
@@ -14754,7 +14858,7 @@
         <v>21.550906161805923</v>
       </c>
     </row>
-    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N107" s="53">
         <v>83</v>
       </c>
@@ -14792,7 +14896,7 @@
         <v>21.435297937795163</v>
       </c>
     </row>
-    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N108" s="53">
         <v>84</v>
       </c>
@@ -14830,7 +14934,7 @@
         <v>21.321010979558935</v>
       </c>
     </row>
-    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N109" s="53">
         <v>85</v>
       </c>
@@ -14868,7 +14972,7 @@
         <v>21.208015427019603</v>
       </c>
     </row>
-    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N110" s="53">
         <v>86</v>
       </c>
@@ -14906,7 +15010,7 @@
         <v>21.096282421038353</v>
       </c>
     </row>
-    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N111" s="53">
         <v>87</v>
       </c>
@@ -14944,7 +15048,7 @@
         <v>20.985784059172502</v>
       </c>
     </row>
-    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N112" s="53">
         <v>88</v>
       </c>
@@ -14982,7 +15086,7 @@
         <v>20.876493353850599</v>
       </c>
     </row>
-    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N113" s="53">
         <v>89</v>
       </c>
@@ -15020,7 +15124,7 @@
         <v>20.768384192808441</v>
       </c>
     </row>
-    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N114" s="53">
         <v>90</v>
       </c>
@@ -15058,7 +15162,7 @@
         <v>20.661431301640963</v>
       </c>
     </row>
-    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N115" s="53">
         <v>91</v>
       </c>
@@ -15096,7 +15200,7 @@
         <v>20.555610208335597</v>
       </c>
     </row>
-    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N116" s="53">
         <v>92</v>
       </c>
@@ -15134,7 +15238,7 @@
         <v>20.450897209662639</v>
       </c>
     </row>
-    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N117" s="53">
         <v>93</v>
       </c>
@@ -15172,7 +15276,7 @@
         <v>20.347269339307175</v>
       </c>
     </row>
-    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N118" s="53">
         <v>94</v>
       </c>
@@ -15210,7 +15314,7 @@
         <v>20.244704337635284</v>
       </c>
     </row>
-    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N119" s="53">
         <v>95</v>
       </c>
@@ -15248,7 +15352,7 @@
         <v>20.143180622995107</v>
       </c>
     </row>
-    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N120" s="53">
         <v>96</v>
       </c>
@@ -15286,7 +15390,7 @@
         <v>20.042677264460092</v>
       </c>
     </row>
-    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N121" s="53">
         <v>97</v>
       </c>
@@ -15324,7 +15428,7 @@
         <v>19.943173955928412</v>
       </c>
     </row>
-    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N122" s="53">
         <v>98</v>
       </c>
@@ -15362,7 +15466,7 @@
         <v>19.844650991498295</v>
       </c>
     </row>
-    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N123" s="53">
         <v>99</v>
       </c>
@@ -15400,7 +15504,7 @@
         <v>19.747089242044652</v>
       </c>
     </row>
-    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N124" s="53">
         <v>100</v>
       </c>
@@ -15438,7 +15542,7 @@
         <v>19.650470132927282</v>
       </c>
     </row>
-    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N125" s="53">
         <v>101</v>
       </c>
@@ -15479,6 +15583,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9NOS8jY5Ug7YrOY49rx7A6/cXCpIjF5Enxg4kw2PLmKKvG06duBf92zLgkT/MBeWCI1tXrFRs+R4hrI9dhXplw==" saltValue="nRjJWJch2cTa6A5Bi+wDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="22">
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B2:AB2"/>
@@ -15495,12 +15605,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15512,88 +15616,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1E6C65-06A5-4DD3-B3AB-3E980D2AF55D}">
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="0.81640625" style="198" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="198" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="198" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="11.453125" style="198"/>
-    <col min="15" max="15" width="0.54296875" style="198" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" style="198"/>
-    <col min="17" max="17" width="0.54296875" style="198" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="198"/>
-    <col min="19" max="19" width="0.54296875" style="198" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" style="198"/>
-    <col min="21" max="21" width="0.54296875" style="198" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" style="198"/>
-    <col min="23" max="23" width="0.54296875" style="198" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" style="198"/>
-    <col min="25" max="25" width="0.54296875" style="198" customWidth="1"/>
-    <col min="26" max="26" width="11.453125" style="198"/>
-    <col min="27" max="27" width="0.54296875" style="198" customWidth="1"/>
-    <col min="28" max="16384" width="11.453125" style="198"/>
+    <col min="1" max="4" width="0.85546875" style="198" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="198" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="11.42578125" style="198"/>
+    <col min="15" max="15" width="0.5703125" style="198" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="198"/>
+    <col min="17" max="17" width="0.5703125" style="198" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="198"/>
+    <col min="19" max="19" width="0.5703125" style="198" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="198"/>
+    <col min="21" max="21" width="0.5703125" style="198" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="198"/>
+    <col min="23" max="23" width="0.5703125" style="198" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="198"/>
+    <col min="25" max="25" width="0.5703125" style="198" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="198"/>
+    <col min="27" max="27" width="0.5703125" style="198" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:28" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="200"/>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="231"/>
-      <c r="AB2" s="231"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="229" t="s">
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="230" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B5" s="229"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="238"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
       <c r="G5" s="202" t="s">
         <v>16</v>
       </c>
@@ -15613,235 +15718,235 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B7" s="237" t="s">
+    <row r="6" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="238">
+      <c r="G7" s="204">
         <v>-1</v>
       </c>
-      <c r="H7" s="239">
+      <c r="H7" s="205">
         <v>5</v>
       </c>
-      <c r="I7" s="238">
+      <c r="I7" s="204">
         <v>-25</v>
       </c>
-      <c r="J7" s="238">
+      <c r="J7" s="204">
         <v>50</v>
       </c>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-    </row>
-    <row r="8" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="237" t="s">
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+    </row>
+    <row r="8" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
       <c r="F9" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="238">
+      <c r="G9" s="204">
         <v>-4</v>
       </c>
-      <c r="H9" s="238">
+      <c r="H9" s="204">
         <v>10</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-    </row>
-    <row r="10" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="237" t="s">
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+    </row>
+    <row r="10" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+    </row>
+    <row r="11" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
       <c r="F11" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="204">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="204">
+        <v>3</v>
+      </c>
+      <c r="I11" s="204">
+        <v>-25</v>
+      </c>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+    </row>
+    <row r="12" spans="1:28" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+    </row>
+    <row r="13" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="204">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H13" s="204">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="204">
+        <v>-3</v>
+      </c>
+      <c r="J13" s="204">
+        <v>0</v>
+      </c>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+    </row>
+    <row r="14" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+    </row>
+    <row r="15" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="198" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="204">
+        <v>1</v>
+      </c>
+      <c r="H15" s="204">
+        <v>2</v>
+      </c>
+      <c r="I15" s="204">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="204">
+        <v>0</v>
+      </c>
+      <c r="K15" s="204">
+        <v>-20</v>
+      </c>
+      <c r="L15" s="204"/>
+    </row>
+    <row r="16" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="238">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="238">
-        <v>3</v>
-      </c>
-      <c r="I11" s="238">
-        <v>-25</v>
-      </c>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-    </row>
-    <row r="12" spans="1:28" ht="0.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B13" s="237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="198" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="238">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H13" s="238">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="238">
-        <v>-3</v>
-      </c>
-      <c r="J13" s="238">
-        <v>0</v>
-      </c>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-    </row>
-    <row r="14" spans="1:28" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B15" s="237" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="198" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="238">
+      <c r="G17" s="204">
+        <v>-10</v>
+      </c>
+      <c r="H17" s="204">
         <v>1</v>
       </c>
-      <c r="H15" s="238">
-        <v>2</v>
-      </c>
-      <c r="I15" s="238">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="238">
-        <v>0</v>
-      </c>
-      <c r="K15" s="238">
-        <v>-20</v>
-      </c>
-      <c r="L15" s="238"/>
-    </row>
-    <row r="16" spans="1:28" ht="0.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B17" s="237" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="237"/>
-      <c r="D17" s="237"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="198" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="238">
+      <c r="I17" s="204">
+        <v>11</v>
+      </c>
+      <c r="J17" s="204">
+        <v>50</v>
+      </c>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+    </row>
+    <row r="18" spans="2:28" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="232" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="232"/>
+      <c r="I20" s="232" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="232"/>
+      <c r="K20" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="232"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="236"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="233">
         <v>-10</v>
       </c>
-      <c r="H17" s="238">
-        <v>1</v>
-      </c>
-      <c r="I17" s="238">
-        <v>11</v>
-      </c>
-      <c r="J17" s="238">
-        <v>50</v>
-      </c>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-    </row>
-    <row r="18" spans="2:28" ht="2.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B20" s="243" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="243"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="242" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="242"/>
-      <c r="K20" s="242" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="242"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="241">
-        <v>-10</v>
-      </c>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241">
+      <c r="H21" s="233"/>
+      <c r="I21" s="233">
         <v>0.2</v>
       </c>
-      <c r="J21" s="241"/>
-      <c r="K21" s="240">
+      <c r="J21" s="233"/>
+      <c r="K21" s="234">
         <v>10</v>
       </c>
-      <c r="L21" s="240"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="L21" s="234"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="P24" s="199" t="s">
         <v>21</v>
       </c>
@@ -15864,529 +15969,3963 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N25" s="244">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N25" s="206">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N26" s="244">
+      <c r="P25" s="245">
+        <f>G21</f>
+        <v>-10</v>
+      </c>
+      <c r="Q25" s="245"/>
+      <c r="R25" s="245">
+        <f>$G$7 * ABS($H$7 * P25 + $I$7) + $J$7</f>
+        <v>-25</v>
+      </c>
+      <c r="S25" s="245"/>
+      <c r="T25" s="245">
+        <f>$G$9 * P25 + $H$9</f>
+        <v>50</v>
+      </c>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245">
+        <f>$G$11 * P25^2 + $H$11 * P25 + $I$11</f>
+        <v>-5</v>
+      </c>
+      <c r="W25" s="245"/>
+      <c r="X25" s="245">
+        <f>$G$13 * P25^3 + $H$13 * P25^2 + $I$13 * P25 + $J$13</f>
+        <v>-20</v>
+      </c>
+      <c r="Y25" s="245"/>
+      <c r="Z25" s="245">
+        <f>$G$15 * POWER($H$15,$I$15 * P25 + $J$15) + $K$15</f>
+        <v>-19.96875</v>
+      </c>
+      <c r="AA25" s="245"/>
+      <c r="AB25" s="245">
+        <f>$G$17 * LN($H$17 * P25 + $I$17) + $J$17</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N26" s="206">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N27" s="244">
+      <c r="P26" s="245">
+        <f>P25+$I$21</f>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="Q26" s="245"/>
+      <c r="R26" s="245">
+        <f>$G$7 * ABS($H$7 * P26 + $I$7) + $J$7</f>
+        <v>-24</v>
+      </c>
+      <c r="S26" s="245"/>
+      <c r="T26" s="245">
+        <f>$G$9 * P26 + $H$9</f>
+        <v>49.2</v>
+      </c>
+      <c r="U26" s="245"/>
+      <c r="V26" s="245">
+        <f>$G$11 * P26^2 + $H$11 * P26 + $I$11</f>
+        <v>-6.3799999999999919</v>
+      </c>
+      <c r="W26" s="245"/>
+      <c r="X26" s="245">
+        <f>$G$13 * P26^3 + $H$13 * P26^2 + $I$13 * P26 + $J$13</f>
+        <v>-17.179400000000005</v>
+      </c>
+      <c r="Y26" s="245"/>
+      <c r="Z26" s="245">
+        <f>$G$15 * POWER($H$15,$I$15 * P26 + $J$15) + $K$15</f>
+        <v>-19.966507079295742</v>
+      </c>
+      <c r="AA26" s="245"/>
+      <c r="AB26" s="245">
+        <f t="shared" ref="AB26:AB89" si="0">$G$17 * LN($H$17 * P26 + $I$17) + $J$17</f>
+        <v>48.176784432060458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N27" s="206">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N28" s="244">
+      <c r="P27" s="245">
+        <f>P26+$I$21</f>
+        <v>-9.6000000000000014</v>
+      </c>
+      <c r="Q27" s="245"/>
+      <c r="R27" s="245">
+        <f>$G$7 * ABS($H$7 * P27 + $I$7) + $J$7</f>
+        <v>-23</v>
+      </c>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245">
+        <f t="shared" ref="T27:T90" si="1">$G$9 * P27 + $H$9</f>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="U27" s="245"/>
+      <c r="V27" s="245">
+        <f t="shared" ref="V27:V90" si="2">$G$11 * P27^2 + $H$11 * P27 + $I$11</f>
+        <v>-7.7199999999999918</v>
+      </c>
+      <c r="W27" s="245"/>
+      <c r="X27" s="245">
+        <f t="shared" ref="X27:X90" si="3">$G$13 * P27^3 + $H$13 * P27^2 + $I$13 * P27 + $J$13</f>
+        <v>-14.515200000000014</v>
+      </c>
+      <c r="Y27" s="245"/>
+      <c r="Z27" s="245">
+        <f t="shared" ref="Z27:Z90" si="4">$G$15 * POWER($H$15,$I$15 * P27 + $J$15) + $K$15</f>
+        <v>-19.964103176406343</v>
+      </c>
+      <c r="AA27" s="245"/>
+      <c r="AB27" s="245">
+        <f t="shared" si="0"/>
+        <v>46.635277633787879</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N28" s="206">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N29" s="244">
+      <c r="P28" s="245">
+        <f t="shared" ref="P28:P91" si="5">P27+$I$21</f>
+        <v>-9.4000000000000021</v>
+      </c>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="245">
+        <f>$G$7 * ABS($H$7 * P28 + $I$7) + $J$7</f>
+        <v>-22.000000000000014</v>
+      </c>
+      <c r="S28" s="245"/>
+      <c r="T28" s="245">
+        <f t="shared" si="1"/>
+        <v>47.600000000000009</v>
+      </c>
+      <c r="U28" s="245"/>
+      <c r="V28" s="245">
+        <f t="shared" si="2"/>
+        <v>-9.0199999999999854</v>
+      </c>
+      <c r="W28" s="245"/>
+      <c r="X28" s="245">
+        <f t="shared" si="3"/>
+        <v>-12.00380000000003</v>
+      </c>
+      <c r="Y28" s="245"/>
+      <c r="Z28" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.96152673708297</v>
+      </c>
+      <c r="AA28" s="245"/>
+      <c r="AB28" s="245">
+        <f t="shared" si="0"/>
+        <v>45.299963707542659</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N29" s="206">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N30" s="244">
+      <c r="P29" s="245">
+        <f t="shared" si="5"/>
+        <v>-9.2000000000000028</v>
+      </c>
+      <c r="Q29" s="245"/>
+      <c r="R29" s="245">
+        <f>$G$7 * ABS($H$7 * P29 + $I$7) + $J$7</f>
+        <v>-21.000000000000014</v>
+      </c>
+      <c r="S29" s="245"/>
+      <c r="T29" s="245">
+        <f t="shared" si="1"/>
+        <v>46.800000000000011</v>
+      </c>
+      <c r="U29" s="245"/>
+      <c r="V29" s="245">
+        <f t="shared" si="2"/>
+        <v>-10.27999999999998</v>
+      </c>
+      <c r="W29" s="245"/>
+      <c r="X29" s="245">
+        <f t="shared" si="3"/>
+        <v>-9.6416000000000395</v>
+      </c>
+      <c r="Y29" s="245"/>
+      <c r="Z29" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.958765377788346</v>
+      </c>
+      <c r="AA29" s="245"/>
+      <c r="AB29" s="245">
+        <f t="shared" si="0"/>
+        <v>44.122133350978828</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N30" s="206">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N31" s="244">
+      <c r="P30" s="245">
+        <f t="shared" si="5"/>
+        <v>-9.0000000000000036</v>
+      </c>
+      <c r="Q30" s="245"/>
+      <c r="R30" s="245">
+        <f t="shared" ref="R30:R93" si="6">$G$7 * ABS($H$7 * P30 + $I$7) + $J$7</f>
+        <v>-20.000000000000014</v>
+      </c>
+      <c r="S30" s="245"/>
+      <c r="T30" s="245">
+        <f t="shared" si="1"/>
+        <v>46.000000000000014</v>
+      </c>
+      <c r="U30" s="245"/>
+      <c r="V30" s="245">
+        <f t="shared" si="2"/>
+        <v>-11.499999999999982</v>
+      </c>
+      <c r="W30" s="245"/>
+      <c r="X30" s="245">
+        <f t="shared" si="3"/>
+        <v>-7.4250000000000362</v>
+      </c>
+      <c r="Y30" s="245"/>
+      <c r="Z30" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.95580582617584</v>
+      </c>
+      <c r="AA30" s="245"/>
+      <c r="AB30" s="245">
+        <f t="shared" si="0"/>
+        <v>43.068528194400564</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N31" s="206">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="N32" s="244">
+      <c r="P31" s="245">
+        <f t="shared" si="5"/>
+        <v>-8.8000000000000043</v>
+      </c>
+      <c r="Q31" s="245"/>
+      <c r="R31" s="245">
+        <f t="shared" si="6"/>
+        <v>-19.000000000000028</v>
+      </c>
+      <c r="S31" s="245"/>
+      <c r="T31" s="245">
+        <f t="shared" si="1"/>
+        <v>45.200000000000017</v>
+      </c>
+      <c r="U31" s="245"/>
+      <c r="V31" s="245">
+        <f t="shared" si="2"/>
+        <v>-12.679999999999978</v>
+      </c>
+      <c r="W31" s="245"/>
+      <c r="X31" s="245">
+        <f t="shared" si="3"/>
+        <v>-5.3504000000000325</v>
+      </c>
+      <c r="Y31" s="245"/>
+      <c r="Z31" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.952633857296551</v>
+      </c>
+      <c r="AA31" s="245"/>
+      <c r="AB31" s="245">
+        <f t="shared" si="0"/>
+        <v>42.115426396357314</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="N32" s="206">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N33" s="244">
+      <c r="P32" s="245">
+        <f t="shared" si="5"/>
+        <v>-8.600000000000005</v>
+      </c>
+      <c r="Q32" s="245"/>
+      <c r="R32" s="245">
+        <f t="shared" si="6"/>
+        <v>-18.000000000000028</v>
+      </c>
+      <c r="S32" s="245"/>
+      <c r="T32" s="245">
+        <f t="shared" si="1"/>
+        <v>44.40000000000002</v>
+      </c>
+      <c r="U32" s="245"/>
+      <c r="V32" s="245">
+        <f t="shared" si="2"/>
+        <v>-13.819999999999975</v>
+      </c>
+      <c r="W32" s="245"/>
+      <c r="X32" s="245">
+        <f t="shared" si="3"/>
+        <v>-3.4142000000000436</v>
+      </c>
+      <c r="Y32" s="245"/>
+      <c r="Z32" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.949234225227734</v>
+      </c>
+      <c r="AA32" s="245"/>
+      <c r="AB32" s="245">
+        <f t="shared" si="0"/>
+        <v>41.245312626461022</v>
+      </c>
+    </row>
+    <row r="33" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N33" s="206">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N34" s="244">
+      <c r="P33" s="245">
+        <f t="shared" si="5"/>
+        <v>-8.4000000000000057</v>
+      </c>
+      <c r="Q33" s="245"/>
+      <c r="R33" s="245">
+        <f t="shared" si="6"/>
+        <v>-17.000000000000028</v>
+      </c>
+      <c r="S33" s="245"/>
+      <c r="T33" s="245">
+        <f t="shared" si="1"/>
+        <v>43.600000000000023</v>
+      </c>
+      <c r="U33" s="245"/>
+      <c r="V33" s="245">
+        <f t="shared" si="2"/>
+        <v>-14.919999999999966</v>
+      </c>
+      <c r="W33" s="245"/>
+      <c r="X33" s="245">
+        <f t="shared" si="3"/>
+        <v>-1.6128000000000462</v>
+      </c>
+      <c r="Y33" s="245"/>
+      <c r="Z33" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.945590589793991</v>
+      </c>
+      <c r="AA33" s="245"/>
+      <c r="AB33" s="245">
+        <f t="shared" si="0"/>
+        <v>40.444885549725655</v>
+      </c>
+    </row>
+    <row r="34" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N34" s="206">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N35" s="244">
+      <c r="P34" s="245">
+        <f t="shared" si="5"/>
+        <v>-8.2000000000000064</v>
+      </c>
+      <c r="Q34" s="245"/>
+      <c r="R34" s="245">
+        <f t="shared" si="6"/>
+        <v>-16.000000000000028</v>
+      </c>
+      <c r="S34" s="245"/>
+      <c r="T34" s="245">
+        <f t="shared" si="1"/>
+        <v>42.800000000000026</v>
+      </c>
+      <c r="U34" s="245"/>
+      <c r="V34" s="245">
+        <f t="shared" si="2"/>
+        <v>-15.979999999999965</v>
+      </c>
+      <c r="W34" s="245"/>
+      <c r="X34" s="245">
+        <f t="shared" si="3"/>
+        <v>5.739999999995149E-2</v>
+      </c>
+      <c r="Y34" s="245"/>
+      <c r="Z34" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.941685438028948</v>
+      </c>
+      <c r="AA34" s="245"/>
+      <c r="AB34" s="245">
+        <f t="shared" si="0"/>
+        <v>39.703805828188443</v>
+      </c>
+    </row>
+    <row r="35" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N35" s="206">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N36" s="244">
+      <c r="P35" s="245">
+        <f t="shared" si="5"/>
+        <v>-8.0000000000000071</v>
+      </c>
+      <c r="Q35" s="245"/>
+      <c r="R35" s="245">
+        <f t="shared" si="6"/>
+        <v>-15.000000000000028</v>
+      </c>
+      <c r="S35" s="245"/>
+      <c r="T35" s="245">
+        <f t="shared" si="1"/>
+        <v>42.000000000000028</v>
+      </c>
+      <c r="U35" s="245"/>
+      <c r="V35" s="245">
+        <f t="shared" si="2"/>
+        <v>-16.999999999999964</v>
+      </c>
+      <c r="W35" s="245"/>
+      <c r="X35" s="245">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999517</v>
+      </c>
+      <c r="Y35" s="245"/>
+      <c r="Z35" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.9375</v>
+      </c>
+      <c r="AA35" s="245"/>
+      <c r="AB35" s="245">
+        <f t="shared" si="0"/>
+        <v>39.013877113318927</v>
+      </c>
+    </row>
+    <row r="36" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N36" s="206">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N37" s="244">
+      <c r="P36" s="245">
+        <f t="shared" si="5"/>
+        <v>-7.8000000000000069</v>
+      </c>
+      <c r="Q36" s="245"/>
+      <c r="R36" s="245">
+        <f t="shared" si="6"/>
+        <v>-14.000000000000028</v>
+      </c>
+      <c r="S36" s="245"/>
+      <c r="T36" s="245">
+        <f t="shared" si="1"/>
+        <v>41.200000000000031</v>
+      </c>
+      <c r="U36" s="245"/>
+      <c r="V36" s="245">
+        <f t="shared" si="2"/>
+        <v>-17.979999999999965</v>
+      </c>
+      <c r="W36" s="245"/>
+      <c r="X36" s="245">
+        <f t="shared" si="3"/>
+        <v>3.0185999999999567</v>
+      </c>
+      <c r="Y36" s="245"/>
+      <c r="Z36" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.933014158591483</v>
+      </c>
+      <c r="AA36" s="245"/>
+      <c r="AB36" s="245">
+        <f t="shared" si="0"/>
+        <v>38.368491901943216</v>
+      </c>
+    </row>
+    <row r="37" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N37" s="206">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N38" s="244">
+      <c r="P37" s="245">
+        <f t="shared" si="5"/>
+        <v>-7.6000000000000068</v>
+      </c>
+      <c r="Q37" s="245"/>
+      <c r="R37" s="245">
+        <f t="shared" si="6"/>
+        <v>-13.000000000000036</v>
+      </c>
+      <c r="S37" s="245"/>
+      <c r="T37" s="245">
+        <f t="shared" si="1"/>
+        <v>40.400000000000027</v>
+      </c>
+      <c r="U37" s="245"/>
+      <c r="V37" s="245">
+        <f t="shared" si="2"/>
+        <v>-18.919999999999966</v>
+      </c>
+      <c r="W37" s="245"/>
+      <c r="X37" s="245">
+        <f t="shared" si="3"/>
+        <v>4.316799999999958</v>
+      </c>
+      <c r="Y37" s="245"/>
+      <c r="Z37" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.928206352812687</v>
+      </c>
+      <c r="AA37" s="245"/>
+      <c r="AB37" s="245">
+        <f t="shared" si="0"/>
+        <v>37.762245683778865</v>
+      </c>
+    </row>
+    <row r="38" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N38" s="206">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N39" s="244">
+      <c r="P38" s="245">
+        <f t="shared" si="5"/>
+        <v>-7.4000000000000066</v>
+      </c>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245">
+        <f t="shared" si="6"/>
+        <v>-12.000000000000036</v>
+      </c>
+      <c r="S38" s="245"/>
+      <c r="T38" s="245">
+        <f t="shared" si="1"/>
+        <v>39.600000000000023</v>
+      </c>
+      <c r="U38" s="245"/>
+      <c r="V38" s="245">
+        <f t="shared" si="2"/>
+        <v>-19.819999999999972</v>
+      </c>
+      <c r="W38" s="245"/>
+      <c r="X38" s="245">
+        <f t="shared" si="3"/>
+        <v>5.4981999999999651</v>
+      </c>
+      <c r="Y38" s="245"/>
+      <c r="Z38" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.923053474165943</v>
+      </c>
+      <c r="AA38" s="245"/>
+      <c r="AB38" s="245">
+        <f t="shared" si="0"/>
+        <v>37.190661545379378</v>
+      </c>
+    </row>
+    <row r="39" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N39" s="206">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N40" s="244">
+      <c r="P39" s="245">
+        <f t="shared" si="5"/>
+        <v>-7.2000000000000064</v>
+      </c>
+      <c r="Q39" s="245"/>
+      <c r="R39" s="245">
+        <f t="shared" si="6"/>
+        <v>-11.000000000000028</v>
+      </c>
+      <c r="S39" s="245"/>
+      <c r="T39" s="245">
+        <f t="shared" si="1"/>
+        <v>38.800000000000026</v>
+      </c>
+      <c r="U39" s="245"/>
+      <c r="V39" s="245">
+        <f t="shared" si="2"/>
+        <v>-20.679999999999975</v>
+      </c>
+      <c r="W39" s="245"/>
+      <c r="X39" s="245">
+        <f t="shared" si="3"/>
+        <v>6.5663999999999696</v>
+      </c>
+      <c r="Y39" s="245"/>
+      <c r="Z39" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.917530755576696</v>
+      </c>
+      <c r="AA39" s="245"/>
+      <c r="AB39" s="245">
+        <f t="shared" si="0"/>
+        <v>36.649989332676611</v>
+      </c>
+    </row>
+    <row r="40" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N40" s="206">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N41" s="244">
+      <c r="P40" s="245">
+        <f t="shared" si="5"/>
+        <v>-7.0000000000000062</v>
+      </c>
+      <c r="Q40" s="245"/>
+      <c r="R40" s="245">
+        <f t="shared" si="6"/>
+        <v>-10.000000000000028</v>
+      </c>
+      <c r="S40" s="245"/>
+      <c r="T40" s="245">
+        <f t="shared" si="1"/>
+        <v>38.000000000000028</v>
+      </c>
+      <c r="U40" s="245"/>
+      <c r="V40" s="245">
+        <f t="shared" si="2"/>
+        <v>-21.499999999999975</v>
+      </c>
+      <c r="W40" s="245"/>
+      <c r="X40" s="245">
+        <f t="shared" si="3"/>
+        <v>7.5249999999999702</v>
+      </c>
+      <c r="Y40" s="245"/>
+      <c r="Z40" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.911611652351681</v>
+      </c>
+      <c r="AA40" s="245"/>
+      <c r="AB40" s="245">
+        <f t="shared" si="0"/>
+        <v>36.137056388801113</v>
+      </c>
+    </row>
+    <row r="41" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N41" s="206">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N42" s="244">
+      <c r="P41" s="245">
+        <f t="shared" si="5"/>
+        <v>-6.800000000000006</v>
+      </c>
+      <c r="Q41" s="245"/>
+      <c r="R41" s="245">
+        <f t="shared" si="6"/>
+        <v>-9.0000000000000284</v>
+      </c>
+      <c r="S41" s="245"/>
+      <c r="T41" s="245">
+        <f t="shared" si="1"/>
+        <v>37.200000000000024</v>
+      </c>
+      <c r="U41" s="245"/>
+      <c r="V41" s="245">
+        <f t="shared" si="2"/>
+        <v>-22.27999999999998</v>
+      </c>
+      <c r="W41" s="245"/>
+      <c r="X41" s="245">
+        <f t="shared" si="3"/>
+        <v>8.3775999999999797</v>
+      </c>
+      <c r="Y41" s="245"/>
+      <c r="Z41" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.905267714593101</v>
+      </c>
+      <c r="AA41" s="245"/>
+      <c r="AB41" s="245">
+        <f t="shared" si="0"/>
+        <v>35.649154747106792</v>
+      </c>
+    </row>
+    <row r="42" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N42" s="206">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N43" s="244">
+      <c r="P42" s="245">
+        <f t="shared" si="5"/>
+        <v>-6.6000000000000059</v>
+      </c>
+      <c r="Q42" s="245"/>
+      <c r="R42" s="245">
+        <f t="shared" si="6"/>
+        <v>-8.0000000000000284</v>
+      </c>
+      <c r="S42" s="245"/>
+      <c r="T42" s="245">
+        <f t="shared" si="1"/>
+        <v>36.40000000000002</v>
+      </c>
+      <c r="U42" s="245"/>
+      <c r="V42" s="245">
+        <f t="shared" si="2"/>
+        <v>-23.019999999999978</v>
+      </c>
+      <c r="W42" s="245"/>
+      <c r="X42" s="245">
+        <f t="shared" si="3"/>
+        <v>9.127799999999981</v>
+      </c>
+      <c r="Y42" s="245"/>
+      <c r="Z42" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.898468450455471</v>
+      </c>
+      <c r="AA42" s="245"/>
+      <c r="AB42" s="245">
+        <f t="shared" si="0"/>
+        <v>35.183954590757857</v>
+      </c>
+    </row>
+    <row r="43" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N43" s="206">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N44" s="244">
+      <c r="P43" s="245">
+        <f t="shared" si="5"/>
+        <v>-6.4000000000000057</v>
+      </c>
+      <c r="Q43" s="245"/>
+      <c r="R43" s="245">
+        <f t="shared" si="6"/>
+        <v>-7.0000000000000284</v>
+      </c>
+      <c r="S43" s="245"/>
+      <c r="T43" s="245">
+        <f t="shared" si="1"/>
+        <v>35.600000000000023</v>
+      </c>
+      <c r="U43" s="245"/>
+      <c r="V43" s="245">
+        <f t="shared" si="2"/>
+        <v>-23.719999999999981</v>
+      </c>
+      <c r="W43" s="245"/>
+      <c r="X43" s="245">
+        <f t="shared" si="3"/>
+        <v>9.7791999999999835</v>
+      </c>
+      <c r="Y43" s="245"/>
+      <c r="Z43" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.891181179587985</v>
+      </c>
+      <c r="AA43" s="245"/>
+      <c r="AB43" s="245">
+        <f t="shared" si="0"/>
+        <v>34.739436965049521</v>
+      </c>
+    </row>
+    <row r="44" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N44" s="206">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N45" s="244">
+      <c r="P44" s="245">
+        <f t="shared" si="5"/>
+        <v>-6.2000000000000055</v>
+      </c>
+      <c r="Q44" s="245"/>
+      <c r="R44" s="245">
+        <f t="shared" si="6"/>
+        <v>-6.0000000000000284</v>
+      </c>
+      <c r="S44" s="245"/>
+      <c r="T44" s="245">
+        <f t="shared" si="1"/>
+        <v>34.800000000000026</v>
+      </c>
+      <c r="U44" s="245"/>
+      <c r="V44" s="245">
+        <f t="shared" si="2"/>
+        <v>-24.379999999999981</v>
+      </c>
+      <c r="W44" s="245"/>
+      <c r="X44" s="245">
+        <f t="shared" si="3"/>
+        <v>10.335399999999986</v>
+      </c>
+      <c r="Y44" s="245"/>
+      <c r="Z44" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.883370876057899</v>
+      </c>
+      <c r="AA44" s="245"/>
+      <c r="AB44" s="245">
+        <f t="shared" si="0"/>
+        <v>34.313840820861557</v>
+      </c>
+    </row>
+    <row r="45" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N45" s="206">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N46" s="244">
+      <c r="P45" s="245">
+        <f t="shared" si="5"/>
+        <v>-6.0000000000000053</v>
+      </c>
+      <c r="Q45" s="245"/>
+      <c r="R45" s="245">
+        <f t="shared" si="6"/>
+        <v>-5.0000000000000284</v>
+      </c>
+      <c r="S45" s="245"/>
+      <c r="T45" s="245">
+        <f t="shared" si="1"/>
+        <v>34.000000000000021</v>
+      </c>
+      <c r="U45" s="245"/>
+      <c r="V45" s="245">
+        <f t="shared" si="2"/>
+        <v>-24.999999999999982</v>
+      </c>
+      <c r="W45" s="245"/>
+      <c r="X45" s="245">
+        <f t="shared" si="3"/>
+        <v>10.799999999999988</v>
+      </c>
+      <c r="Y45" s="245"/>
+      <c r="Z45" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.875</v>
+      </c>
+      <c r="AA45" s="245"/>
+      <c r="AB45" s="245">
+        <f t="shared" si="0"/>
+        <v>33.905620875659011</v>
+      </c>
+    </row>
+    <row r="46" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N46" s="206">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N47" s="244">
+      <c r="P46" s="245">
+        <f t="shared" si="5"/>
+        <v>-5.8000000000000052</v>
+      </c>
+      <c r="Q46" s="245"/>
+      <c r="R46" s="245">
+        <f t="shared" si="6"/>
+        <v>-4.0000000000000284</v>
+      </c>
+      <c r="S46" s="245"/>
+      <c r="T46" s="245">
+        <f t="shared" si="1"/>
+        <v>33.200000000000017</v>
+      </c>
+      <c r="U46" s="245"/>
+      <c r="V46" s="245">
+        <f t="shared" si="2"/>
+        <v>-25.579999999999988</v>
+      </c>
+      <c r="W46" s="245"/>
+      <c r="X46" s="245">
+        <f t="shared" si="3"/>
+        <v>11.176599999999993</v>
+      </c>
+      <c r="Y46" s="245"/>
+      <c r="Z46" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.866028317182963</v>
+      </c>
+      <c r="AA46" s="245"/>
+      <c r="AB46" s="245">
+        <f t="shared" si="0"/>
+        <v>33.513413744126197</v>
+      </c>
+    </row>
+    <row r="47" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N47" s="206">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N48" s="244">
+      <c r="P47" s="245">
+        <f t="shared" si="5"/>
+        <v>-5.600000000000005</v>
+      </c>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="245">
+        <f t="shared" si="6"/>
+        <v>-3.0000000000000284</v>
+      </c>
+      <c r="S47" s="245"/>
+      <c r="T47" s="245">
+        <f t="shared" si="1"/>
+        <v>32.40000000000002</v>
+      </c>
+      <c r="U47" s="245"/>
+      <c r="V47" s="245">
+        <f t="shared" si="2"/>
+        <v>-26.119999999999987</v>
+      </c>
+      <c r="W47" s="245"/>
+      <c r="X47" s="245">
+        <f t="shared" si="3"/>
+        <v>11.468799999999995</v>
+      </c>
+      <c r="Y47" s="245"/>
+      <c r="Z47" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.85641270562537</v>
+      </c>
+      <c r="AA47" s="245"/>
+      <c r="AB47" s="245">
+        <f t="shared" si="0"/>
+        <v>33.136010464297726</v>
+      </c>
+    </row>
+    <row r="48" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N48" s="206">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N49" s="244">
+      <c r="P48" s="245">
+        <f t="shared" si="5"/>
+        <v>-5.4000000000000048</v>
+      </c>
+      <c r="Q48" s="245"/>
+      <c r="R48" s="245">
+        <f t="shared" si="6"/>
+        <v>-2.0000000000000284</v>
+      </c>
+      <c r="S48" s="245"/>
+      <c r="T48" s="245">
+        <f t="shared" si="1"/>
+        <v>31.600000000000019</v>
+      </c>
+      <c r="U48" s="245"/>
+      <c r="V48" s="245">
+        <f t="shared" si="2"/>
+        <v>-26.619999999999987</v>
+      </c>
+      <c r="W48" s="245"/>
+      <c r="X48" s="245">
+        <f t="shared" si="3"/>
+        <v>11.680199999999996</v>
+      </c>
+      <c r="Y48" s="245"/>
+      <c r="Z48" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.846106948331887</v>
+      </c>
+      <c r="AA48" s="245"/>
+      <c r="AB48" s="245">
+        <f t="shared" si="0"/>
+        <v>32.772334022588979</v>
+      </c>
+    </row>
+    <row r="49" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N49" s="206">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N50" s="244">
+      <c r="P49" s="245">
+        <f t="shared" si="5"/>
+        <v>-5.2000000000000046</v>
+      </c>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="245">
+        <f t="shared" si="6"/>
+        <v>-1.0000000000000213</v>
+      </c>
+      <c r="S49" s="245"/>
+      <c r="T49" s="245">
+        <f t="shared" si="1"/>
+        <v>30.800000000000018</v>
+      </c>
+      <c r="U49" s="245"/>
+      <c r="V49" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.079999999999991</v>
+      </c>
+      <c r="W49" s="245"/>
+      <c r="X49" s="245">
+        <f t="shared" si="3"/>
+        <v>11.814399999999999</v>
+      </c>
+      <c r="Y49" s="245"/>
+      <c r="Z49" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.835061511153388</v>
+      </c>
+      <c r="AA49" s="245"/>
+      <c r="AB49" s="245">
+        <f t="shared" si="0"/>
+        <v>32.421420824476272</v>
+      </c>
+    </row>
+    <row r="50" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N50" s="206">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N51" s="244">
+      <c r="P50" s="245">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000044</v>
+      </c>
+      <c r="Q50" s="245"/>
+      <c r="R50" s="245">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="245"/>
+      <c r="T50" s="245">
+        <f t="shared" si="1"/>
+        <v>30.000000000000018</v>
+      </c>
+      <c r="U50" s="245"/>
+      <c r="V50" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.499999999999993</v>
+      </c>
+      <c r="W50" s="245"/>
+      <c r="X50" s="245">
+        <f t="shared" si="3"/>
+        <v>11.875</v>
+      </c>
+      <c r="Y50" s="245"/>
+      <c r="Z50" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.823223304703362</v>
+      </c>
+      <c r="AA50" s="245"/>
+      <c r="AB50" s="245">
+        <f t="shared" si="0"/>
+        <v>32.082405307719455</v>
+      </c>
+    </row>
+    <row r="51" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N51" s="206">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N52" s="244">
+      <c r="P51" s="245">
+        <f t="shared" si="5"/>
+        <v>-4.8000000000000043</v>
+      </c>
+      <c r="Q51" s="245"/>
+      <c r="R51" s="245">
+        <f t="shared" si="6"/>
+        <v>0.99999999999997868</v>
+      </c>
+      <c r="S51" s="245"/>
+      <c r="T51" s="245">
+        <f t="shared" si="1"/>
+        <v>29.200000000000017</v>
+      </c>
+      <c r="U51" s="245"/>
+      <c r="V51" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.879999999999992</v>
+      </c>
+      <c r="W51" s="245"/>
+      <c r="X51" s="245">
+        <f t="shared" si="3"/>
+        <v>11.865600000000001</v>
+      </c>
+      <c r="Y51" s="245"/>
+      <c r="Z51" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.810535429186199</v>
+      </c>
+      <c r="AA51" s="245"/>
+      <c r="AB51" s="245">
+        <f t="shared" si="0"/>
+        <v>31.754507079489549</v>
+      </c>
+    </row>
+    <row r="52" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N52" s="206">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N53" s="244">
+      <c r="P52" s="245">
+        <f t="shared" si="5"/>
+        <v>-4.6000000000000041</v>
+      </c>
+      <c r="Q52" s="245"/>
+      <c r="R52" s="245">
+        <f t="shared" si="6"/>
+        <v>1.9999999999999787</v>
+      </c>
+      <c r="S52" s="245"/>
+      <c r="T52" s="245">
+        <f t="shared" si="1"/>
+        <v>28.400000000000016</v>
+      </c>
+      <c r="U52" s="245"/>
+      <c r="V52" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.219999999999992</v>
+      </c>
+      <c r="W52" s="245"/>
+      <c r="X52" s="245">
+        <f t="shared" si="3"/>
+        <v>11.789800000000001</v>
+      </c>
+      <c r="Y52" s="245"/>
+      <c r="Z52" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.796936900910943</v>
+      </c>
+      <c r="AA52" s="245"/>
+      <c r="AB52" s="245">
+        <f t="shared" si="0"/>
+        <v>31.437020096343744</v>
+      </c>
+    </row>
+    <row r="53" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N53" s="206">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N54" s="244">
+      <c r="P53" s="245">
+        <f t="shared" si="5"/>
+        <v>-4.4000000000000039</v>
+      </c>
+      <c r="Q53" s="245"/>
+      <c r="R53" s="245">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999787</v>
+      </c>
+      <c r="S53" s="245"/>
+      <c r="T53" s="245">
+        <f t="shared" si="1"/>
+        <v>27.600000000000016</v>
+      </c>
+      <c r="U53" s="245"/>
+      <c r="V53" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.519999999999996</v>
+      </c>
+      <c r="W53" s="245"/>
+      <c r="X53" s="245">
+        <f t="shared" si="3"/>
+        <v>11.651200000000003</v>
+      </c>
+      <c r="Y53" s="245"/>
+      <c r="Z53" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.78236235917597</v>
+      </c>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245">
+        <f t="shared" si="0"/>
+        <v>31.129303509676205</v>
+      </c>
+    </row>
+    <row r="54" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N54" s="206">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N55" s="244">
+      <c r="P54" s="245">
+        <f t="shared" si="5"/>
+        <v>-4.2000000000000037</v>
+      </c>
+      <c r="Q54" s="245"/>
+      <c r="R54" s="245">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999858</v>
+      </c>
+      <c r="S54" s="245"/>
+      <c r="T54" s="245">
+        <f t="shared" si="1"/>
+        <v>26.800000000000015</v>
+      </c>
+      <c r="U54" s="245"/>
+      <c r="V54" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.779999999999994</v>
+      </c>
+      <c r="W54" s="245"/>
+      <c r="X54" s="245">
+        <f t="shared" si="3"/>
+        <v>11.453400000000006</v>
+      </c>
+      <c r="Y54" s="245"/>
+      <c r="Z54" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.766741752115799</v>
+      </c>
+      <c r="AA54" s="245"/>
+      <c r="AB54" s="245">
+        <f t="shared" si="0"/>
+        <v>30.830773878179397</v>
+      </c>
+    </row>
+    <row r="55" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N55" s="206">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N56" s="244">
+      <c r="P55" s="245">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000036</v>
+      </c>
+      <c r="Q55" s="245"/>
+      <c r="R55" s="245">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999858</v>
+      </c>
+      <c r="S55" s="245"/>
+      <c r="T55" s="245">
+        <f t="shared" si="1"/>
+        <v>26.000000000000014</v>
+      </c>
+      <c r="U55" s="245"/>
+      <c r="V55" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.999999999999996</v>
+      </c>
+      <c r="W55" s="245"/>
+      <c r="X55" s="245">
+        <f t="shared" si="3"/>
+        <v>11.200000000000006</v>
+      </c>
+      <c r="Y55" s="245"/>
+      <c r="Z55" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.75</v>
+      </c>
+      <c r="AA55" s="245"/>
+      <c r="AB55" s="245">
+        <f t="shared" si="0"/>
+        <v>30.540898509446873</v>
+      </c>
+    </row>
+    <row r="56" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N56" s="206">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N57" s="244">
+      <c r="P56" s="245">
+        <f t="shared" si="5"/>
+        <v>-3.8000000000000034</v>
+      </c>
+      <c r="Q56" s="245"/>
+      <c r="R56" s="245">
+        <f t="shared" si="6"/>
+        <v>5.9999999999999858</v>
+      </c>
+      <c r="S56" s="245"/>
+      <c r="T56" s="245">
+        <f t="shared" si="1"/>
+        <v>25.200000000000014</v>
+      </c>
+      <c r="U56" s="245"/>
+      <c r="V56" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.179999999999996</v>
+      </c>
+      <c r="W56" s="245"/>
+      <c r="X56" s="245">
+        <f t="shared" si="3"/>
+        <v>10.894600000000004</v>
+      </c>
+      <c r="Y56" s="245"/>
+      <c r="Z56" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.732056634365929</v>
+      </c>
+      <c r="AA56" s="245"/>
+      <c r="AB56" s="245">
+        <f t="shared" si="0"/>
+        <v>30.259189739779909</v>
+      </c>
+    </row>
+    <row r="57" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N57" s="206">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N58" s="244">
+      <c r="P57" s="245">
+        <f t="shared" si="5"/>
+        <v>-3.6000000000000032</v>
+      </c>
+      <c r="Q57" s="245"/>
+      <c r="R57" s="245">
+        <f t="shared" si="6"/>
+        <v>6.9999999999999858</v>
+      </c>
+      <c r="S57" s="245"/>
+      <c r="T57" s="245">
+        <f t="shared" si="1"/>
+        <v>24.400000000000013</v>
+      </c>
+      <c r="U57" s="245"/>
+      <c r="V57" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.32</v>
+      </c>
+      <c r="W57" s="245"/>
+      <c r="X57" s="245">
+        <f t="shared" si="3"/>
+        <v>10.540800000000006</v>
+      </c>
+      <c r="Y57" s="245"/>
+      <c r="Z57" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.712825411250741</v>
+      </c>
+      <c r="AA57" s="245"/>
+      <c r="AB57" s="245">
+        <f t="shared" si="0"/>
+        <v>29.985199997898761</v>
+      </c>
+    </row>
+    <row r="58" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N58" s="206">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N59" s="244">
+      <c r="P58" s="245">
+        <f t="shared" si="5"/>
+        <v>-3.400000000000003</v>
+      </c>
+      <c r="Q58" s="245"/>
+      <c r="R58" s="245">
+        <f t="shared" si="6"/>
+        <v>7.9999999999999858</v>
+      </c>
+      <c r="S58" s="245"/>
+      <c r="T58" s="245">
+        <f t="shared" si="1"/>
+        <v>23.600000000000012</v>
+      </c>
+      <c r="U58" s="245"/>
+      <c r="V58" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.42</v>
+      </c>
+      <c r="W58" s="245"/>
+      <c r="X58" s="245">
+        <f t="shared" si="3"/>
+        <v>10.142200000000008</v>
+      </c>
+      <c r="Y58" s="245"/>
+      <c r="Z58" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.69221389666377</v>
+      </c>
+      <c r="AA58" s="245"/>
+      <c r="AB58" s="245">
+        <f t="shared" si="0"/>
+        <v>29.718517527077147</v>
+      </c>
+    </row>
+    <row r="59" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N59" s="206">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N60" s="244">
+      <c r="P59" s="245">
+        <f t="shared" si="5"/>
+        <v>-3.2000000000000028</v>
+      </c>
+      <c r="Q59" s="245"/>
+      <c r="R59" s="245">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999858</v>
+      </c>
+      <c r="S59" s="245"/>
+      <c r="T59" s="245">
+        <f t="shared" si="1"/>
+        <v>22.800000000000011</v>
+      </c>
+      <c r="U59" s="245"/>
+      <c r="V59" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.48</v>
+      </c>
+      <c r="W59" s="245"/>
+      <c r="X59" s="245">
+        <f t="shared" si="3"/>
+        <v>9.7024000000000061</v>
+      </c>
+      <c r="Y59" s="245"/>
+      <c r="Z59" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.670123022306775</v>
+      </c>
+      <c r="AA59" s="245"/>
+      <c r="AB59" s="245">
+        <f t="shared" si="0"/>
+        <v>29.458762663044542</v>
+      </c>
+    </row>
+    <row r="60" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N60" s="206">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N61" s="244">
+      <c r="P60" s="245">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000000027</v>
+      </c>
+      <c r="Q60" s="245"/>
+      <c r="R60" s="245">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999858</v>
+      </c>
+      <c r="S60" s="245"/>
+      <c r="T60" s="245">
+        <f t="shared" si="1"/>
+        <v>22.000000000000011</v>
+      </c>
+      <c r="U60" s="245"/>
+      <c r="V60" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.5</v>
+      </c>
+      <c r="W60" s="245"/>
+      <c r="X60" s="245">
+        <f t="shared" si="3"/>
+        <v>9.225000000000005</v>
+      </c>
+      <c r="Y60" s="245"/>
+      <c r="Z60" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.646446609406727</v>
+      </c>
+      <c r="AA60" s="245"/>
+      <c r="AB60" s="245">
+        <f t="shared" si="0"/>
+        <v>29.205584583201642</v>
+      </c>
+    </row>
+    <row r="61" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N61" s="206">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N62" s="244">
+      <c r="P61" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.8000000000000025</v>
+      </c>
+      <c r="Q61" s="245"/>
+      <c r="R61" s="245">
+        <f t="shared" si="6"/>
+        <v>10.999999999999986</v>
+      </c>
+      <c r="S61" s="245"/>
+      <c r="T61" s="245">
+        <f t="shared" si="1"/>
+        <v>21.20000000000001</v>
+      </c>
+      <c r="U61" s="245"/>
+      <c r="V61" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.48</v>
+      </c>
+      <c r="W61" s="245"/>
+      <c r="X61" s="245">
+        <f t="shared" si="3"/>
+        <v>8.7136000000000067</v>
+      </c>
+      <c r="Y61" s="245"/>
+      <c r="Z61" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.621070858372402</v>
+      </c>
+      <c r="AA61" s="245"/>
+      <c r="AB61" s="245">
+        <f t="shared" si="0"/>
+        <v>28.958658457297929</v>
+      </c>
+    </row>
+    <row r="62" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N62" s="206">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N63" s="244">
+      <c r="P62" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.6000000000000023</v>
+      </c>
+      <c r="Q62" s="245"/>
+      <c r="R62" s="245">
+        <f t="shared" si="6"/>
+        <v>11.999999999999986</v>
+      </c>
+      <c r="S62" s="245"/>
+      <c r="T62" s="245">
+        <f t="shared" si="1"/>
+        <v>20.400000000000009</v>
+      </c>
+      <c r="U62" s="245"/>
+      <c r="V62" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.42</v>
+      </c>
+      <c r="W62" s="245"/>
+      <c r="X62" s="245">
+        <f t="shared" si="3"/>
+        <v>8.1718000000000064</v>
+      </c>
+      <c r="Y62" s="245"/>
+      <c r="Z62" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.593873801821882</v>
+      </c>
+      <c r="AA62" s="245"/>
+      <c r="AB62" s="245">
+        <f t="shared" si="0"/>
+        <v>28.71768294150732</v>
+      </c>
+    </row>
+    <row r="63" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N63" s="206">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N64" s="244">
+      <c r="P63" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.4000000000000021</v>
+      </c>
+      <c r="Q63" s="245"/>
+      <c r="R63" s="245">
+        <f t="shared" si="6"/>
+        <v>12.999999999999986</v>
+      </c>
+      <c r="S63" s="245"/>
+      <c r="T63" s="245">
+        <f t="shared" si="1"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="U63" s="245"/>
+      <c r="V63" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.32</v>
+      </c>
+      <c r="W63" s="245"/>
+      <c r="X63" s="245">
+        <f t="shared" si="3"/>
+        <v>7.6032000000000064</v>
+      </c>
+      <c r="Y63" s="245"/>
+      <c r="Z63" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.56472471835194</v>
+      </c>
+      <c r="AA63" s="245"/>
+      <c r="AB63" s="245">
+        <f t="shared" si="0"/>
+        <v>28.48237796740538</v>
+      </c>
+    </row>
+    <row r="64" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N64" s="206">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N65" s="244">
+      <c r="P64" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.200000000000002</v>
+      </c>
+      <c r="Q64" s="245"/>
+      <c r="R64" s="245">
+        <f t="shared" si="6"/>
+        <v>13.999999999999986</v>
+      </c>
+      <c r="S64" s="245"/>
+      <c r="T64" s="245">
+        <f t="shared" si="1"/>
+        <v>18.800000000000008</v>
+      </c>
+      <c r="U64" s="245"/>
+      <c r="V64" s="245">
+        <f t="shared" si="2"/>
+        <v>-29.18</v>
+      </c>
+      <c r="W64" s="245"/>
+      <c r="X64" s="245">
+        <f t="shared" si="3"/>
+        <v>7.0114000000000063</v>
+      </c>
+      <c r="Y64" s="245"/>
+      <c r="Z64" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.533483504231597</v>
+      </c>
+      <c r="AA64" s="245"/>
+      <c r="AB64" s="245">
+        <f t="shared" si="0"/>
+        <v>28.252482785158396</v>
+      </c>
+    </row>
+    <row r="65" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N65" s="206">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N66" s="244">
+      <c r="P65" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000000018</v>
+      </c>
+      <c r="Q65" s="245"/>
+      <c r="R65" s="245">
+        <f t="shared" si="6"/>
+        <v>14.999999999999993</v>
+      </c>
+      <c r="S65" s="245"/>
+      <c r="T65" s="245">
+        <f t="shared" si="1"/>
+        <v>18.000000000000007</v>
+      </c>
+      <c r="U65" s="245"/>
+      <c r="V65" s="245">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="W65" s="245"/>
+      <c r="X65" s="245">
+        <f t="shared" si="3"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="Y65" s="245"/>
+      <c r="Z65" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.5</v>
+      </c>
+      <c r="AA65" s="245"/>
+      <c r="AB65" s="245">
+        <f t="shared" si="0"/>
+        <v>28.027754226637811</v>
+      </c>
+    </row>
+    <row r="66" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N66" s="206">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N67" s="244">
+      <c r="P66" s="245">
+        <f t="shared" si="5"/>
+        <v>-1.8000000000000018</v>
+      </c>
+      <c r="Q66" s="245"/>
+      <c r="R66" s="245">
+        <f t="shared" si="6"/>
+        <v>15.999999999999993</v>
+      </c>
+      <c r="S66" s="245"/>
+      <c r="T66" s="245">
+        <f t="shared" si="1"/>
+        <v>17.200000000000006</v>
+      </c>
+      <c r="U66" s="245"/>
+      <c r="V66" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.78</v>
+      </c>
+      <c r="W66" s="245"/>
+      <c r="X66" s="245">
+        <f t="shared" si="3"/>
+        <v>5.7726000000000059</v>
+      </c>
+      <c r="Y66" s="245"/>
+      <c r="Z66" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.464113268731854</v>
+      </c>
+      <c r="AA66" s="245"/>
+      <c r="AB66" s="245">
+        <f t="shared" si="0"/>
+        <v>27.807965159450056</v>
+      </c>
+    </row>
+    <row r="67" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N67" s="206">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N68" s="244">
+      <c r="P67" s="245">
+        <f t="shared" si="5"/>
+        <v>-1.6000000000000019</v>
+      </c>
+      <c r="Q67" s="245"/>
+      <c r="R67" s="245">
+        <f t="shared" si="6"/>
+        <v>16.999999999999993</v>
+      </c>
+      <c r="S67" s="245"/>
+      <c r="T67" s="245">
+        <f t="shared" si="1"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="U67" s="245"/>
+      <c r="V67" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.520000000000003</v>
+      </c>
+      <c r="W67" s="245"/>
+      <c r="X67" s="245">
+        <f t="shared" si="3"/>
+        <v>5.1328000000000067</v>
+      </c>
+      <c r="Y67" s="245"/>
+      <c r="Z67" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.425650822501481</v>
+      </c>
+      <c r="AA67" s="245"/>
+      <c r="AB67" s="245">
+        <f t="shared" si="0"/>
+        <v>27.592903107240421</v>
+      </c>
+    </row>
+    <row r="68" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N68" s="206">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N69" s="244">
+      <c r="P68" s="245">
+        <f t="shared" si="5"/>
+        <v>-1.4000000000000019</v>
+      </c>
+      <c r="Q68" s="245"/>
+      <c r="R68" s="245">
+        <f t="shared" si="6"/>
+        <v>17.999999999999993</v>
+      </c>
+      <c r="S68" s="245"/>
+      <c r="T68" s="245">
+        <f t="shared" si="1"/>
+        <v>15.600000000000009</v>
+      </c>
+      <c r="U68" s="245"/>
+      <c r="V68" s="245">
+        <f t="shared" si="2"/>
+        <v>-28.220000000000002</v>
+      </c>
+      <c r="W68" s="245"/>
+      <c r="X68" s="245">
+        <f t="shared" si="3"/>
+        <v>4.4842000000000057</v>
+      </c>
+      <c r="Y68" s="245"/>
+      <c r="Z68" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.384427793327543</v>
+      </c>
+      <c r="AA68" s="245"/>
+      <c r="AB68" s="245">
+        <f t="shared" si="0"/>
+        <v>27.3823690152621</v>
+      </c>
+    </row>
+    <row r="69" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N69" s="206">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N70" s="244">
+      <c r="P69" s="245">
+        <f t="shared" si="5"/>
+        <v>-1.200000000000002</v>
+      </c>
+      <c r="Q69" s="245"/>
+      <c r="R69" s="245">
+        <f t="shared" si="6"/>
+        <v>18.999999999999989</v>
+      </c>
+      <c r="S69" s="245"/>
+      <c r="T69" s="245">
+        <f t="shared" si="1"/>
+        <v>14.800000000000008</v>
+      </c>
+      <c r="U69" s="245"/>
+      <c r="V69" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.880000000000003</v>
+      </c>
+      <c r="W69" s="245"/>
+      <c r="X69" s="245">
+        <f t="shared" si="3"/>
+        <v>3.8304000000000062</v>
+      </c>
+      <c r="Y69" s="245"/>
+      <c r="Z69" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.340246044613554</v>
+      </c>
+      <c r="AA69" s="245"/>
+      <c r="AB69" s="245">
+        <f t="shared" si="0"/>
+        <v>27.176176143234741</v>
+      </c>
+    </row>
+    <row r="70" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N70" s="206">
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N71" s="244">
+      <c r="P70" s="245">
+        <f t="shared" si="5"/>
+        <v>-1.000000000000002</v>
+      </c>
+      <c r="Q70" s="245"/>
+      <c r="R70" s="245">
+        <f t="shared" si="6"/>
+        <v>19.999999999999989</v>
+      </c>
+      <c r="S70" s="245"/>
+      <c r="T70" s="245">
+        <f t="shared" si="1"/>
+        <v>14.000000000000007</v>
+      </c>
+      <c r="U70" s="245"/>
+      <c r="V70" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.500000000000004</v>
+      </c>
+      <c r="W70" s="245"/>
+      <c r="X70" s="245">
+        <f t="shared" si="3"/>
+        <v>3.1750000000000069</v>
+      </c>
+      <c r="Y70" s="245"/>
+      <c r="Z70" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.292893218813454</v>
+      </c>
+      <c r="AA70" s="245"/>
+      <c r="AB70" s="245">
+        <f t="shared" si="0"/>
+        <v>26.974149070059546</v>
+      </c>
+    </row>
+    <row r="71" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N71" s="206">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N72" s="244">
+      <c r="P71" s="245">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000204</v>
+      </c>
+      <c r="Q71" s="245"/>
+      <c r="R71" s="245">
+        <f t="shared" si="6"/>
+        <v>20.999999999999989</v>
+      </c>
+      <c r="S71" s="245"/>
+      <c r="T71" s="245">
+        <f t="shared" si="1"/>
+        <v>13.200000000000008</v>
+      </c>
+      <c r="U71" s="245"/>
+      <c r="V71" s="245">
+        <f t="shared" si="2"/>
+        <v>-27.080000000000005</v>
+      </c>
+      <c r="W71" s="245"/>
+      <c r="X71" s="245">
+        <f t="shared" si="3"/>
+        <v>2.5216000000000065</v>
+      </c>
+      <c r="Y71" s="245"/>
+      <c r="Z71" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.242141716744801</v>
+      </c>
+      <c r="AA71" s="245"/>
+      <c r="AB71" s="245">
+        <f t="shared" si="0"/>
+        <v>26.776122797097749</v>
+      </c>
+    </row>
+    <row r="72" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N72" s="206">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N73" s="244">
+      <c r="P72" s="245">
+        <f t="shared" si="5"/>
+        <v>-0.60000000000000209</v>
+      </c>
+      <c r="Q72" s="245"/>
+      <c r="R72" s="245">
+        <f t="shared" si="6"/>
+        <v>21.999999999999989</v>
+      </c>
+      <c r="S72" s="245"/>
+      <c r="T72" s="245">
+        <f t="shared" si="1"/>
+        <v>12.400000000000009</v>
+      </c>
+      <c r="U72" s="245"/>
+      <c r="V72" s="245">
+        <f t="shared" si="2"/>
+        <v>-26.620000000000005</v>
+      </c>
+      <c r="W72" s="245"/>
+      <c r="X72" s="245">
+        <f t="shared" si="3"/>
+        <v>1.8738000000000068</v>
+      </c>
+      <c r="Y72" s="245"/>
+      <c r="Z72" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.187747603643764</v>
+      </c>
+      <c r="AA72" s="245"/>
+      <c r="AB72" s="245">
+        <f t="shared" si="0"/>
+        <v>26.581941938526729</v>
+      </c>
+    </row>
+    <row r="73" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N73" s="206">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N74" s="244">
+      <c r="P73" s="245">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000208</v>
+      </c>
+      <c r="Q73" s="245"/>
+      <c r="R73" s="245">
+        <f t="shared" si="6"/>
+        <v>22.999999999999989</v>
+      </c>
+      <c r="S73" s="245"/>
+      <c r="T73" s="245">
+        <f t="shared" si="1"/>
+        <v>11.600000000000009</v>
+      </c>
+      <c r="U73" s="245"/>
+      <c r="V73" s="245">
+        <f t="shared" si="2"/>
+        <v>-26.120000000000005</v>
+      </c>
+      <c r="W73" s="245"/>
+      <c r="X73" s="245">
+        <f t="shared" si="3"/>
+        <v>1.2352000000000065</v>
+      </c>
+      <c r="Y73" s="245"/>
+      <c r="Z73" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.129449436703876</v>
+      </c>
+      <c r="AA73" s="245"/>
+      <c r="AB73" s="245">
+        <f t="shared" si="0"/>
+        <v>26.391459988819786</v>
+      </c>
+    </row>
+    <row r="74" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N74" s="206">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N75" s="244">
+      <c r="P74" s="245">
+        <f t="shared" si="5"/>
+        <v>-0.20000000000000207</v>
+      </c>
+      <c r="Q74" s="245"/>
+      <c r="R74" s="245">
+        <f t="shared" si="6"/>
+        <v>23.999999999999989</v>
+      </c>
+      <c r="S74" s="245"/>
+      <c r="T74" s="245">
+        <f t="shared" si="1"/>
+        <v>10.800000000000008</v>
+      </c>
+      <c r="U74" s="245"/>
+      <c r="V74" s="245">
+        <f t="shared" si="2"/>
+        <v>-25.580000000000005</v>
+      </c>
+      <c r="W74" s="245"/>
+      <c r="X74" s="245">
+        <f t="shared" si="3"/>
+        <v>0.60940000000000638</v>
+      </c>
+      <c r="Y74" s="245"/>
+      <c r="Z74" s="245">
+        <f t="shared" si="4"/>
+        <v>-19.066967008463195</v>
+      </c>
+      <c r="AA74" s="245"/>
+      <c r="AB74" s="245">
+        <f t="shared" si="0"/>
+        <v>26.204538658698265</v>
+      </c>
+    </row>
+    <row r="75" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N75" s="206">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N76" s="244">
+      <c r="P75" s="245">
+        <f t="shared" si="5"/>
+        <v>-2.0539125955565396E-15</v>
+      </c>
+      <c r="Q75" s="245"/>
+      <c r="R75" s="245">
+        <f t="shared" si="6"/>
+        <v>24.999999999999989</v>
+      </c>
+      <c r="S75" s="245"/>
+      <c r="T75" s="245">
+        <f t="shared" si="1"/>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="U75" s="245"/>
+      <c r="V75" s="245">
+        <f t="shared" si="2"/>
+        <v>-25.000000000000007</v>
+      </c>
+      <c r="W75" s="245"/>
+      <c r="X75" s="245">
+        <f t="shared" si="3"/>
+        <v>6.1617377866696196E-15</v>
+      </c>
+      <c r="Y75" s="245"/>
+      <c r="Z75" s="245">
+        <f t="shared" si="4"/>
+        <v>-19</v>
+      </c>
+      <c r="AA75" s="245"/>
+      <c r="AB75" s="245">
+        <f t="shared" si="0"/>
+        <v>26.021047272016297</v>
+      </c>
+    </row>
+    <row r="76" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N76" s="206">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N77" s="244">
+      <c r="P76" s="245">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999796</v>
+      </c>
+      <c r="Q76" s="245"/>
+      <c r="R76" s="245">
+        <f t="shared" si="6"/>
+        <v>25.999999999999989</v>
+      </c>
+      <c r="S76" s="245"/>
+      <c r="T76" s="245">
+        <f t="shared" si="1"/>
+        <v>9.2000000000000082</v>
+      </c>
+      <c r="U76" s="245"/>
+      <c r="V76" s="245">
+        <f t="shared" si="2"/>
+        <v>-24.380000000000006</v>
+      </c>
+      <c r="W76" s="245"/>
+      <c r="X76" s="245">
+        <f t="shared" si="3"/>
+        <v>-0.58939999999999415</v>
+      </c>
+      <c r="Y76" s="245"/>
+      <c r="Z76" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.928226537463708</v>
+      </c>
+      <c r="AA76" s="245"/>
+      <c r="AB76" s="245">
+        <f t="shared" si="0"/>
+        <v>25.840862216989514</v>
+      </c>
+    </row>
+    <row r="77" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N77" s="206">
         <v>53</v>
       </c>
-    </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N78" s="244">
+      <c r="P77" s="245">
+        <f t="shared" si="5"/>
+        <v>0.39999999999999797</v>
+      </c>
+      <c r="Q77" s="245"/>
+      <c r="R77" s="245">
+        <f t="shared" si="6"/>
+        <v>26.999999999999989</v>
+      </c>
+      <c r="S77" s="245"/>
+      <c r="T77" s="245">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000075</v>
+      </c>
+      <c r="U77" s="245"/>
+      <c r="V77" s="245">
+        <f t="shared" si="2"/>
+        <v>-23.720000000000006</v>
+      </c>
+      <c r="W77" s="245"/>
+      <c r="X77" s="245">
+        <f t="shared" si="3"/>
+        <v>-1.1551999999999945</v>
+      </c>
+      <c r="Y77" s="245"/>
+      <c r="Z77" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.851301645002966</v>
+      </c>
+      <c r="AA77" s="245"/>
+      <c r="AB77" s="245">
+        <f t="shared" si="0"/>
+        <v>25.663866445995502</v>
+      </c>
+    </row>
+    <row r="78" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N78" s="206">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N79" s="244">
+      <c r="P78" s="245">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999798</v>
+      </c>
+      <c r="Q78" s="245"/>
+      <c r="R78" s="245">
+        <f t="shared" si="6"/>
+        <v>27.999999999999989</v>
+      </c>
+      <c r="S78" s="245"/>
+      <c r="T78" s="245">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000085</v>
+      </c>
+      <c r="U78" s="245"/>
+      <c r="V78" s="245">
+        <f t="shared" si="2"/>
+        <v>-23.020000000000007</v>
+      </c>
+      <c r="W78" s="245"/>
+      <c r="X78" s="245">
+        <f t="shared" si="3"/>
+        <v>-1.6937999999999949</v>
+      </c>
+      <c r="Y78" s="245"/>
+      <c r="Z78" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.768855586655086</v>
+      </c>
+      <c r="AA78" s="245"/>
+      <c r="AB78" s="245">
+        <f t="shared" si="0"/>
+        <v>25.489949018876814</v>
+      </c>
+    </row>
+    <row r="79" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N79" s="206">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N80" s="244">
+      <c r="P79" s="245">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999805</v>
+      </c>
+      <c r="Q79" s="245"/>
+      <c r="R79" s="245">
+        <f t="shared" si="6"/>
+        <v>28.999999999999989</v>
+      </c>
+      <c r="S79" s="245"/>
+      <c r="T79" s="245">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000078</v>
+      </c>
+      <c r="U79" s="245"/>
+      <c r="V79" s="245">
+        <f t="shared" si="2"/>
+        <v>-22.280000000000008</v>
+      </c>
+      <c r="W79" s="245"/>
+      <c r="X79" s="245">
+        <f t="shared" si="3"/>
+        <v>-2.2015999999999951</v>
+      </c>
+      <c r="Y79" s="245"/>
+      <c r="Z79" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.680492089227108</v>
+      </c>
+      <c r="AA79" s="245"/>
+      <c r="AB79" s="245">
+        <f t="shared" si="0"/>
+        <v>25.319004685283812</v>
+      </c>
+    </row>
+    <row r="80" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N80" s="206">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N81" s="244">
+      <c r="P80" s="245">
+        <f t="shared" si="5"/>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="Q80" s="245"/>
+      <c r="R80" s="245">
+        <f t="shared" si="6"/>
+        <v>29.999999999999989</v>
+      </c>
+      <c r="S80" s="245"/>
+      <c r="T80" s="245">
+        <f t="shared" si="1"/>
+        <v>6.000000000000008</v>
+      </c>
+      <c r="U80" s="245"/>
+      <c r="V80" s="245">
+        <f t="shared" si="2"/>
+        <v>-21.500000000000007</v>
+      </c>
+      <c r="W80" s="245"/>
+      <c r="X80" s="245">
+        <f t="shared" si="3"/>
+        <v>-2.6749999999999954</v>
+      </c>
+      <c r="Y80" s="245"/>
+      <c r="Z80" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.585786437626908</v>
+      </c>
+      <c r="AA80" s="245"/>
+      <c r="AB80" s="245">
+        <f t="shared" si="0"/>
+        <v>25.150933502119997</v>
+      </c>
+    </row>
+    <row r="81" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N81" s="206">
         <v>57</v>
       </c>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N82" s="244">
+      <c r="P81" s="245">
+        <f t="shared" si="5"/>
+        <v>1.199999999999998</v>
+      </c>
+      <c r="Q81" s="245"/>
+      <c r="R81" s="245">
+        <f t="shared" si="6"/>
+        <v>30.999999999999989</v>
+      </c>
+      <c r="S81" s="245"/>
+      <c r="T81" s="245">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000082</v>
+      </c>
+      <c r="U81" s="245"/>
+      <c r="V81" s="245">
+        <f t="shared" si="2"/>
+        <v>-20.680000000000007</v>
+      </c>
+      <c r="W81" s="245"/>
+      <c r="X81" s="245">
+        <f t="shared" si="3"/>
+        <v>-3.1103999999999958</v>
+      </c>
+      <c r="Y81" s="245"/>
+      <c r="Z81" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.484283433489605</v>
+      </c>
+      <c r="AA81" s="245"/>
+      <c r="AB81" s="245">
+        <f t="shared" si="0"/>
+        <v>24.985640482607891</v>
+      </c>
+    </row>
+    <row r="82" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N82" s="206">
         <v>58</v>
       </c>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N83" s="244">
+      <c r="P82" s="245">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999979</v>
+      </c>
+      <c r="Q82" s="245"/>
+      <c r="R82" s="245">
+        <f t="shared" si="6"/>
+        <v>31.999999999999989</v>
+      </c>
+      <c r="S82" s="245"/>
+      <c r="T82" s="245">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000083</v>
+      </c>
+      <c r="U82" s="245"/>
+      <c r="V82" s="245">
+        <f t="shared" si="2"/>
+        <v>-19.820000000000007</v>
+      </c>
+      <c r="W82" s="245"/>
+      <c r="X82" s="245">
+        <f t="shared" si="3"/>
+        <v>-3.5041999999999964</v>
+      </c>
+      <c r="Y82" s="245"/>
+      <c r="Z82" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.375495207287528</v>
+      </c>
+      <c r="AA82" s="245"/>
+      <c r="AB82" s="245">
+        <f t="shared" si="0"/>
+        <v>24.823035273890088</v>
+      </c>
+    </row>
+    <row r="83" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N83" s="206">
         <v>59</v>
       </c>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N84" s="244">
+      <c r="P83" s="245">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999979</v>
+      </c>
+      <c r="Q83" s="245"/>
+      <c r="R83" s="245">
+        <f t="shared" si="6"/>
+        <v>32.999999999999986</v>
+      </c>
+      <c r="S83" s="245"/>
+      <c r="T83" s="245">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000085</v>
+      </c>
+      <c r="U83" s="245"/>
+      <c r="V83" s="245">
+        <f t="shared" si="2"/>
+        <v>-18.920000000000009</v>
+      </c>
+      <c r="W83" s="245"/>
+      <c r="X83" s="245">
+        <f t="shared" si="3"/>
+        <v>-3.8527999999999967</v>
+      </c>
+      <c r="Y83" s="245"/>
+      <c r="Z83" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.258898873407752</v>
+      </c>
+      <c r="AA83" s="245"/>
+      <c r="AB83" s="245">
+        <f t="shared" si="0"/>
+        <v>24.663031860425679</v>
+      </c>
+    </row>
+    <row r="84" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N84" s="206">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N85" s="244">
+      <c r="P84" s="245">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999978</v>
+      </c>
+      <c r="Q84" s="245"/>
+      <c r="R84" s="245">
+        <f t="shared" si="6"/>
+        <v>33.999999999999986</v>
+      </c>
+      <c r="S84" s="245"/>
+      <c r="T84" s="245">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000087</v>
+      </c>
+      <c r="U84" s="245"/>
+      <c r="V84" s="245">
+        <f t="shared" si="2"/>
+        <v>-17.980000000000011</v>
+      </c>
+      <c r="W84" s="245"/>
+      <c r="X84" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.152599999999997</v>
+      </c>
+      <c r="Y84" s="245"/>
+      <c r="Z84" s="245">
+        <f t="shared" si="4"/>
+        <v>-18.133934016926386</v>
+      </c>
+      <c r="AA84" s="245"/>
+      <c r="AB84" s="245">
+        <f t="shared" si="0"/>
+        <v>24.505548290744287</v>
+      </c>
+    </row>
+    <row r="85" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N85" s="206">
         <v>61</v>
       </c>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N86" s="244">
+      <c r="P85" s="245">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999978</v>
+      </c>
+      <c r="Q85" s="245"/>
+      <c r="R85" s="245">
+        <f t="shared" si="6"/>
+        <v>34.999999999999986</v>
+      </c>
+      <c r="S85" s="245"/>
+      <c r="T85" s="245">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000089</v>
+      </c>
+      <c r="U85" s="245"/>
+      <c r="V85" s="245">
+        <f t="shared" si="2"/>
+        <v>-17.000000000000011</v>
+      </c>
+      <c r="W85" s="245"/>
+      <c r="X85" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.3999999999999968</v>
+      </c>
+      <c r="Y85" s="245"/>
+      <c r="Z85" s="245">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="AA85" s="245"/>
+      <c r="AB85" s="245">
+        <f t="shared" si="0"/>
+        <v>24.350506425384634</v>
+      </c>
+    </row>
+    <row r="86" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N86" s="206">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N87" s="244">
+      <c r="P86" s="245">
+        <f t="shared" si="5"/>
+        <v>2.199999999999998</v>
+      </c>
+      <c r="Q86" s="245"/>
+      <c r="R86" s="245">
+        <f t="shared" si="6"/>
+        <v>35.999999999999986</v>
+      </c>
+      <c r="S86" s="245"/>
+      <c r="T86" s="245">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000082</v>
+      </c>
+      <c r="U86" s="245"/>
+      <c r="V86" s="245">
+        <f t="shared" si="2"/>
+        <v>-15.980000000000011</v>
+      </c>
+      <c r="W86" s="245"/>
+      <c r="X86" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.5913999999999984</v>
+      </c>
+      <c r="Y86" s="245"/>
+      <c r="Z86" s="245">
+        <f t="shared" si="4"/>
+        <v>-17.856453074927416</v>
+      </c>
+      <c r="AA86" s="245"/>
+      <c r="AB86" s="245">
+        <f t="shared" si="0"/>
+        <v>24.197831704076748</v>
+      </c>
+    </row>
+    <row r="87" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N87" s="206">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N88" s="244">
+      <c r="P87" s="245">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999981</v>
+      </c>
+      <c r="Q87" s="245"/>
+      <c r="R87" s="245">
+        <f t="shared" si="6"/>
+        <v>36.999999999999993</v>
+      </c>
+      <c r="S87" s="245"/>
+      <c r="T87" s="245">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000746</v>
+      </c>
+      <c r="U87" s="245"/>
+      <c r="V87" s="245">
+        <f t="shared" si="2"/>
+        <v>-14.920000000000011</v>
+      </c>
+      <c r="W87" s="245"/>
+      <c r="X87" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.7231999999999985</v>
+      </c>
+      <c r="Y87" s="245"/>
+      <c r="Z87" s="245">
+        <f t="shared" si="4"/>
+        <v>-17.702603290005932</v>
+      </c>
+      <c r="AA87" s="245"/>
+      <c r="AB87" s="245">
+        <f t="shared" si="0"/>
+        <v>24.047452930431344</v>
+      </c>
+    </row>
+    <row r="88" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N88" s="206">
         <v>64</v>
       </c>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N89" s="244">
+      <c r="P88" s="245">
+        <f t="shared" si="5"/>
+        <v>2.5999999999999983</v>
+      </c>
+      <c r="Q88" s="245"/>
+      <c r="R88" s="245">
+        <f t="shared" si="6"/>
+        <v>37.999999999999993</v>
+      </c>
+      <c r="S88" s="245"/>
+      <c r="T88" s="245">
+        <f t="shared" si="1"/>
+        <v>-0.39999999999999325</v>
+      </c>
+      <c r="U88" s="245"/>
+      <c r="V88" s="245">
+        <f t="shared" si="2"/>
+        <v>-13.820000000000009</v>
+      </c>
+      <c r="W88" s="245"/>
+      <c r="X88" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.7918000000000003</v>
+      </c>
+      <c r="Y88" s="245"/>
+      <c r="Z88" s="245">
+        <f t="shared" si="4"/>
+        <v>-17.537711173310168</v>
+      </c>
+      <c r="AA88" s="245"/>
+      <c r="AB88" s="245">
+        <f t="shared" si="0"/>
+        <v>23.899302072579939</v>
+      </c>
+    </row>
+    <row r="89" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N89" s="206">
         <v>65</v>
       </c>
-    </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N90" s="244">
+      <c r="P89" s="245">
+        <f t="shared" si="5"/>
+        <v>2.7999999999999985</v>
+      </c>
+      <c r="Q89" s="245"/>
+      <c r="R89" s="245">
+        <f t="shared" si="6"/>
+        <v>38.999999999999993</v>
+      </c>
+      <c r="S89" s="245"/>
+      <c r="T89" s="245">
+        <f t="shared" si="1"/>
+        <v>-1.199999999999994</v>
+      </c>
+      <c r="U89" s="245"/>
+      <c r="V89" s="245">
+        <f t="shared" si="2"/>
+        <v>-12.680000000000009</v>
+      </c>
+      <c r="W89" s="245"/>
+      <c r="X89" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.7935999999999996</v>
+      </c>
+      <c r="Y89" s="245"/>
+      <c r="Z89" s="245">
+        <f t="shared" si="4"/>
+        <v>-17.360984178454213</v>
+      </c>
+      <c r="AA89" s="245"/>
+      <c r="AB89" s="245">
+        <f t="shared" si="0"/>
+        <v>23.753314078368412</v>
+      </c>
+    </row>
+    <row r="90" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N90" s="206">
         <v>66</v>
       </c>
-    </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N91" s="244">
+      <c r="P90" s="245">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999987</v>
+      </c>
+      <c r="Q90" s="245"/>
+      <c r="R90" s="245">
+        <f t="shared" si="6"/>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="S90" s="245"/>
+      <c r="T90" s="245">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999999947</v>
+      </c>
+      <c r="U90" s="245"/>
+      <c r="V90" s="245">
+        <f t="shared" si="2"/>
+        <v>-11.500000000000007</v>
+      </c>
+      <c r="W90" s="245"/>
+      <c r="X90" s="245">
+        <f t="shared" si="3"/>
+        <v>-4.7250000000000005</v>
+      </c>
+      <c r="Y90" s="245"/>
+      <c r="Z90" s="245">
+        <f t="shared" si="4"/>
+        <v>-17.171572875253812</v>
+      </c>
+      <c r="AA90" s="245"/>
+      <c r="AB90" s="245">
+        <f t="shared" ref="AB90:AB125" si="7">$G$17 * LN($H$17 * P90 + $I$17) + $J$17</f>
+        <v>23.609426703847415</v>
+      </c>
+    </row>
+    <row r="91" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N91" s="206">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N92" s="244">
+      <c r="P91" s="245">
+        <f t="shared" si="5"/>
+        <v>3.1999999999999988</v>
+      </c>
+      <c r="Q91" s="245"/>
+      <c r="R91" s="245">
+        <f t="shared" si="6"/>
+        <v>40.999999999999993</v>
+      </c>
+      <c r="S91" s="245"/>
+      <c r="T91" s="245">
+        <f t="shared" ref="T91:T125" si="8">$G$9 * P91 + $H$9</f>
+        <v>-2.7999999999999954</v>
+      </c>
+      <c r="U91" s="245"/>
+      <c r="V91" s="245">
+        <f t="shared" ref="V91:V125" si="9">$G$11 * P91^2 + $H$11 * P91 + $I$11</f>
+        <v>-10.280000000000008</v>
+      </c>
+      <c r="W91" s="245"/>
+      <c r="X91" s="245">
+        <f t="shared" ref="X91:X125" si="10">$G$13 * P91^3 + $H$13 * P91^2 + $I$13 * P91 + $J$13</f>
+        <v>-4.5824000000000007</v>
+      </c>
+      <c r="Y91" s="245"/>
+      <c r="Z91" s="245">
+        <f t="shared" ref="Z91:Z125" si="11">$G$15 * POWER($H$15,$I$15 * P91 + $J$15) + $K$15</f>
+        <v>-16.968566866979206</v>
+      </c>
+      <c r="AA91" s="245"/>
+      <c r="AB91" s="245">
+        <f t="shared" si="7"/>
+        <v>23.46758035392785</v>
+      </c>
+    </row>
+    <row r="92" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N92" s="206">
         <v>68</v>
       </c>
-    </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N93" s="244">
+      <c r="P92" s="245">
+        <f t="shared" ref="P92:P125" si="12">P91+$I$21</f>
+        <v>3.399999999999999</v>
+      </c>
+      <c r="Q92" s="245"/>
+      <c r="R92" s="245">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="S92" s="245"/>
+      <c r="T92" s="245">
+        <f t="shared" si="8"/>
+        <v>-3.5999999999999961</v>
+      </c>
+      <c r="U92" s="245"/>
+      <c r="V92" s="245">
+        <f t="shared" si="9"/>
+        <v>-9.0200000000000067</v>
+      </c>
+      <c r="W92" s="245"/>
+      <c r="X92" s="245">
+        <f t="shared" si="10"/>
+        <v>-4.3622000000000014</v>
+      </c>
+      <c r="Y92" s="245"/>
+      <c r="Z92" s="245">
+        <f t="shared" si="11"/>
+        <v>-16.75099041457506</v>
+      </c>
+      <c r="AA92" s="245"/>
+      <c r="AB92" s="245">
+        <f t="shared" si="7"/>
+        <v>23.327717934180452</v>
+      </c>
+    </row>
+    <row r="93" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N93" s="206">
         <v>69</v>
       </c>
-    </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N94" s="244">
+      <c r="P93" s="245">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999992</v>
+      </c>
+      <c r="Q93" s="245"/>
+      <c r="R93" s="245">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="S93" s="245"/>
+      <c r="T93" s="245">
+        <f t="shared" si="8"/>
+        <v>-4.3999999999999968</v>
+      </c>
+      <c r="U93" s="245"/>
+      <c r="V93" s="245">
+        <f t="shared" si="9"/>
+        <v>-7.720000000000006</v>
+      </c>
+      <c r="W93" s="245"/>
+      <c r="X93" s="245">
+        <f t="shared" si="10"/>
+        <v>-4.0608000000000004</v>
+      </c>
+      <c r="Y93" s="245"/>
+      <c r="Z93" s="245">
+        <f t="shared" si="11"/>
+        <v>-16.517797746815504</v>
+      </c>
+      <c r="AA93" s="245"/>
+      <c r="AB93" s="245">
+        <f t="shared" si="7"/>
+        <v>23.18978471285709</v>
+      </c>
+    </row>
+    <row r="94" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N94" s="206">
         <v>70</v>
       </c>
-    </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N95" s="244">
+      <c r="P94" s="245">
+        <f t="shared" si="12"/>
+        <v>3.7999999999999994</v>
+      </c>
+      <c r="Q94" s="245"/>
+      <c r="R94" s="245">
+        <f t="shared" ref="R94:R125" si="13">$G$7 * ABS($H$7 * P94 + $I$7) + $J$7</f>
+        <v>44</v>
+      </c>
+      <c r="S94" s="245"/>
+      <c r="T94" s="245">
+        <f t="shared" si="8"/>
+        <v>-5.1999999999999975</v>
+      </c>
+      <c r="U94" s="245"/>
+      <c r="V94" s="245">
+        <f t="shared" si="9"/>
+        <v>-6.3800000000000026</v>
+      </c>
+      <c r="W94" s="245"/>
+      <c r="X94" s="245">
+        <f t="shared" si="10"/>
+        <v>-3.6746000000000016</v>
+      </c>
+      <c r="Y94" s="245"/>
+      <c r="Z94" s="245">
+        <f t="shared" si="11"/>
+        <v>-16.267868033852771</v>
+      </c>
+      <c r="AA94" s="245"/>
+      <c r="AB94" s="245">
+        <f t="shared" si="7"/>
+        <v>23.053728192299307</v>
+      </c>
+    </row>
+    <row r="95" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N95" s="206">
         <v>71</v>
       </c>
-    </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N96" s="244">
+      <c r="P95" s="245">
+        <f t="shared" si="12"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="Q95" s="245"/>
+      <c r="R95" s="245">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="S95" s="245"/>
+      <c r="T95" s="245">
+        <f t="shared" si="8"/>
+        <v>-5.9999999999999982</v>
+      </c>
+      <c r="U95" s="245"/>
+      <c r="V95" s="245">
+        <f t="shared" si="9"/>
+        <v>-5.0000000000000036</v>
+      </c>
+      <c r="W95" s="245"/>
+      <c r="X95" s="245">
+        <f t="shared" si="10"/>
+        <v>-3.2000000000000011</v>
+      </c>
+      <c r="Y95" s="245"/>
+      <c r="Z95" s="245">
+        <f t="shared" si="11"/>
+        <v>-16</v>
+      </c>
+      <c r="AA95" s="245"/>
+      <c r="AB95" s="245">
+        <f t="shared" si="7"/>
+        <v>22.919497988977898</v>
+      </c>
+    </row>
+    <row r="96" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N96" s="206">
         <v>72</v>
       </c>
-    </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N97" s="244">
+      <c r="P96" s="245">
+        <f t="shared" si="12"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="Q96" s="245"/>
+      <c r="R96" s="245">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="S96" s="245"/>
+      <c r="T96" s="245">
+        <f t="shared" si="8"/>
+        <v>-6.7999999999999972</v>
+      </c>
+      <c r="U96" s="245"/>
+      <c r="V96" s="245">
+        <f t="shared" si="9"/>
+        <v>-3.5800000000000054</v>
+      </c>
+      <c r="W96" s="245"/>
+      <c r="X96" s="245">
+        <f t="shared" si="10"/>
+        <v>-2.6334000000000017</v>
+      </c>
+      <c r="Y96" s="245"/>
+      <c r="Z96" s="245">
+        <f t="shared" si="11"/>
+        <v>-15.712906149854827</v>
+      </c>
+      <c r="AA96" s="245"/>
+      <c r="AB96" s="245">
+        <f t="shared" si="7"/>
+        <v>22.787045721477696</v>
+      </c>
+    </row>
+    <row r="97" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N97" s="206">
         <v>73</v>
       </c>
-    </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N98" s="244">
+      <c r="P97" s="245">
+        <f t="shared" si="12"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="Q97" s="245"/>
+      <c r="R97" s="245">
+        <f t="shared" si="13"/>
+        <v>47</v>
+      </c>
+      <c r="S97" s="245"/>
+      <c r="T97" s="245">
+        <f t="shared" si="8"/>
+        <v>-7.5999999999999979</v>
+      </c>
+      <c r="U97" s="245"/>
+      <c r="V97" s="245">
+        <f t="shared" si="9"/>
+        <v>-2.1200000000000045</v>
+      </c>
+      <c r="W97" s="245"/>
+      <c r="X97" s="245">
+        <f t="shared" si="10"/>
+        <v>-1.9712000000000032</v>
+      </c>
+      <c r="Y97" s="245"/>
+      <c r="Z97" s="245">
+        <f t="shared" si="11"/>
+        <v>-15.40520658001186</v>
+      </c>
+      <c r="AA97" s="245"/>
+      <c r="AB97" s="245">
+        <f t="shared" si="7"/>
+        <v>22.656324905804169</v>
+      </c>
+    </row>
+    <row r="98" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N98" s="206">
         <v>74</v>
       </c>
-    </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N99" s="244">
+      <c r="P98" s="245">
+        <f t="shared" si="12"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q98" s="245"/>
+      <c r="R98" s="245">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="S98" s="245"/>
+      <c r="T98" s="245">
+        <f t="shared" si="8"/>
+        <v>-8.3999999999999986</v>
+      </c>
+      <c r="U98" s="245"/>
+      <c r="V98" s="245">
+        <f t="shared" si="9"/>
+        <v>-0.62000000000000455</v>
+      </c>
+      <c r="W98" s="245"/>
+      <c r="X98" s="245">
+        <f t="shared" si="10"/>
+        <v>-1.2098000000000031</v>
+      </c>
+      <c r="Y98" s="245"/>
+      <c r="Z98" s="245">
+        <f t="shared" si="11"/>
+        <v>-15.075422346620336</v>
+      </c>
+      <c r="AA98" s="245"/>
+      <c r="AB98" s="245">
+        <f t="shared" si="7"/>
+        <v>22.527290857445088</v>
+      </c>
+    </row>
+    <row r="99" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N99" s="206">
         <v>75</v>
       </c>
-    </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N100" s="244">
+      <c r="P99" s="245">
+        <f t="shared" si="12"/>
+        <v>4.8</v>
+      </c>
+      <c r="Q99" s="245"/>
+      <c r="R99" s="245">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="S99" s="245"/>
+      <c r="T99" s="245">
+        <f t="shared" si="8"/>
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="U99" s="245"/>
+      <c r="V99" s="245">
+        <f t="shared" si="9"/>
+        <v>0.91999999999999815</v>
+      </c>
+      <c r="W99" s="245"/>
+      <c r="X99" s="245">
+        <f t="shared" si="10"/>
+        <v>-0.34559999999999924</v>
+      </c>
+      <c r="Y99" s="245"/>
+      <c r="Z99" s="245">
+        <f t="shared" si="11"/>
+        <v>-14.721968356908423</v>
+      </c>
+      <c r="AA99" s="245"/>
+      <c r="AB99" s="245">
+        <f t="shared" si="7"/>
+        <v>22.39990059967079</v>
+      </c>
+    </row>
+    <row r="100" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N100" s="206">
         <v>76</v>
       </c>
-    </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N101" s="244">
+      <c r="P100" s="245">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Q100" s="245"/>
+      <c r="R100" s="245">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="S100" s="245"/>
+      <c r="T100" s="245">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="U100" s="245"/>
+      <c r="V100" s="245">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="W100" s="245"/>
+      <c r="X100" s="245">
+        <f t="shared" si="10"/>
+        <v>0.625</v>
+      </c>
+      <c r="Y100" s="245"/>
+      <c r="Z100" s="245">
+        <f t="shared" si="11"/>
+        <v>-14.34314575050762</v>
+      </c>
+      <c r="AA100" s="245"/>
+      <c r="AB100" s="245">
+        <f t="shared" si="7"/>
+        <v>22.274112777602188</v>
+      </c>
+    </row>
+    <row r="101" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N101" s="206">
         <v>77</v>
       </c>
-    </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N102" s="244">
+      <c r="P101" s="245">
+        <f t="shared" si="12"/>
+        <v>5.2</v>
+      </c>
+      <c r="Q101" s="245"/>
+      <c r="R101" s="245">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="S101" s="245"/>
+      <c r="T101" s="245">
+        <f t="shared" si="8"/>
+        <v>-10.8</v>
+      </c>
+      <c r="U101" s="245"/>
+      <c r="V101" s="245">
+        <f t="shared" si="9"/>
+        <v>4.1200000000000045</v>
+      </c>
+      <c r="W101" s="245"/>
+      <c r="X101" s="245">
+        <f t="shared" si="10"/>
+        <v>1.7056000000000004</v>
+      </c>
+      <c r="Y101" s="245"/>
+      <c r="Z101" s="245">
+        <f t="shared" si="11"/>
+        <v>-13.937133733958408</v>
+      </c>
+      <c r="AA101" s="245"/>
+      <c r="AB101" s="245">
+        <f t="shared" si="7"/>
+        <v>22.149887577616617</v>
+      </c>
+    </row>
+    <row r="102" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N102" s="206">
         <v>78</v>
       </c>
-    </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N103" s="244">
+      <c r="P102" s="245">
+        <f t="shared" si="12"/>
+        <v>5.4</v>
+      </c>
+      <c r="Q102" s="245"/>
+      <c r="R102" s="245">
+        <f t="shared" si="13"/>
+        <v>48</v>
+      </c>
+      <c r="S102" s="245"/>
+      <c r="T102" s="245">
+        <f t="shared" si="8"/>
+        <v>-11.600000000000001</v>
+      </c>
+      <c r="U102" s="245"/>
+      <c r="V102" s="245">
+        <f t="shared" si="9"/>
+        <v>5.7800000000000047</v>
+      </c>
+      <c r="W102" s="245"/>
+      <c r="X102" s="245">
+        <f t="shared" si="10"/>
+        <v>2.899799999999999</v>
+      </c>
+      <c r="Y102" s="245"/>
+      <c r="Z102" s="245">
+        <f t="shared" si="11"/>
+        <v>-13.501980829150115</v>
+      </c>
+      <c r="AA102" s="245"/>
+      <c r="AB102" s="245">
+        <f t="shared" si="7"/>
+        <v>22.027186651698472</v>
+      </c>
+    </row>
+    <row r="103" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N103" s="206">
         <v>79</v>
       </c>
-    </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N104" s="244">
+      <c r="P103" s="245">
+        <f t="shared" si="12"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="Q103" s="245"/>
+      <c r="R103" s="245">
+        <f t="shared" si="13"/>
+        <v>47</v>
+      </c>
+      <c r="S103" s="245"/>
+      <c r="T103" s="245">
+        <f t="shared" si="8"/>
+        <v>-12.400000000000002</v>
+      </c>
+      <c r="U103" s="245"/>
+      <c r="V103" s="245">
+        <f t="shared" si="9"/>
+        <v>7.480000000000004</v>
+      </c>
+      <c r="W103" s="245"/>
+      <c r="X103" s="245">
+        <f t="shared" si="10"/>
+        <v>4.2112000000000016</v>
+      </c>
+      <c r="Y103" s="245"/>
+      <c r="Z103" s="245">
+        <f t="shared" si="11"/>
+        <v>-13.035595493631007</v>
+      </c>
+      <c r="AA103" s="245"/>
+      <c r="AB103" s="245">
+        <f t="shared" si="7"/>
+        <v>21.905973046375024</v>
+      </c>
+    </row>
+    <row r="104" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N104" s="206">
         <v>80</v>
       </c>
-    </row>
-    <row r="105" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N105" s="244">
+      <c r="P104" s="245">
+        <f t="shared" si="12"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="Q104" s="245"/>
+      <c r="R104" s="245">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="S104" s="245"/>
+      <c r="T104" s="245">
+        <f t="shared" si="8"/>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="U104" s="245"/>
+      <c r="V104" s="245">
+        <f t="shared" si="9"/>
+        <v>9.220000000000006</v>
+      </c>
+      <c r="W104" s="245"/>
+      <c r="X104" s="245">
+        <f t="shared" si="10"/>
+        <v>5.6434000000000033</v>
+      </c>
+      <c r="Y104" s="245"/>
+      <c r="Z104" s="245">
+        <f t="shared" si="11"/>
+        <v>-12.535736067705539</v>
+      </c>
+      <c r="AA104" s="245"/>
+      <c r="AB104" s="245">
+        <f t="shared" si="7"/>
+        <v>21.786211135907866</v>
+      </c>
+    </row>
+    <row r="105" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N105" s="206">
         <v>81</v>
       </c>
-    </row>
-    <row r="106" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N106" s="244">
+      <c r="P105" s="245">
+        <f t="shared" si="12"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Q105" s="245"/>
+      <c r="R105" s="245">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="S105" s="245"/>
+      <c r="T105" s="245">
+        <f t="shared" si="8"/>
+        <v>-14.000000000000004</v>
+      </c>
+      <c r="U105" s="245"/>
+      <c r="V105" s="245">
+        <f t="shared" si="9"/>
+        <v>11.000000000000014</v>
+      </c>
+      <c r="W105" s="245"/>
+      <c r="X105" s="245">
+        <f t="shared" si="10"/>
+        <v>7.2000000000000064</v>
+      </c>
+      <c r="Y105" s="245"/>
+      <c r="Z105" s="245">
+        <f t="shared" si="11"/>
+        <v>-11.999999999999998</v>
+      </c>
+      <c r="AA105" s="245"/>
+      <c r="AB105" s="245">
+        <f t="shared" si="7"/>
+        <v>21.66786655943784</v>
+      </c>
+    </row>
+    <row r="106" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N106" s="206">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N107" s="244">
+      <c r="P106" s="245">
+        <f t="shared" si="12"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="Q106" s="245"/>
+      <c r="R106" s="245">
+        <f t="shared" si="13"/>
+        <v>43.999999999999993</v>
+      </c>
+      <c r="S106" s="245"/>
+      <c r="T106" s="245">
+        <f t="shared" si="8"/>
+        <v>-14.800000000000004</v>
+      </c>
+      <c r="U106" s="245"/>
+      <c r="V106" s="245">
+        <f t="shared" si="9"/>
+        <v>12.820000000000007</v>
+      </c>
+      <c r="W106" s="245"/>
+      <c r="X106" s="245">
+        <f t="shared" si="10"/>
+        <v>8.8846000000000096</v>
+      </c>
+      <c r="Y106" s="245"/>
+      <c r="Z106" s="245">
+        <f t="shared" si="11"/>
+        <v>-11.425812299709653</v>
+      </c>
+      <c r="AA106" s="245"/>
+      <c r="AB106" s="245">
+        <f t="shared" si="7"/>
+        <v>21.550906161805923</v>
+      </c>
+    </row>
+    <row r="107" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N107" s="206">
         <v>83</v>
       </c>
-    </row>
-    <row r="108" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N108" s="244">
+      <c r="P107" s="245">
+        <f t="shared" si="12"/>
+        <v>6.4000000000000012</v>
+      </c>
+      <c r="Q107" s="245"/>
+      <c r="R107" s="245">
+        <f t="shared" si="13"/>
+        <v>42.999999999999993</v>
+      </c>
+      <c r="S107" s="245"/>
+      <c r="T107" s="245">
+        <f t="shared" si="8"/>
+        <v>-15.600000000000005</v>
+      </c>
+      <c r="U107" s="245"/>
+      <c r="V107" s="245">
+        <f t="shared" si="9"/>
+        <v>14.680000000000007</v>
+      </c>
+      <c r="W107" s="245"/>
+      <c r="X107" s="245">
+        <f t="shared" si="10"/>
+        <v>10.700800000000008</v>
+      </c>
+      <c r="Y107" s="245"/>
+      <c r="Z107" s="245">
+        <f t="shared" si="11"/>
+        <v>-10.810413160023717</v>
+      </c>
+      <c r="AA107" s="245"/>
+      <c r="AB107" s="245">
+        <f t="shared" si="7"/>
+        <v>21.435297937795163</v>
+      </c>
+    </row>
+    <row r="108" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N108" s="206">
         <v>84</v>
       </c>
-    </row>
-    <row r="109" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N109" s="244">
+      <c r="P108" s="245">
+        <f t="shared" si="12"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="Q108" s="245"/>
+      <c r="R108" s="245">
+        <f t="shared" si="13"/>
+        <v>41.999999999999993</v>
+      </c>
+      <c r="S108" s="245"/>
+      <c r="T108" s="245">
+        <f t="shared" si="8"/>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="U108" s="245"/>
+      <c r="V108" s="245">
+        <f t="shared" si="9"/>
+        <v>16.580000000000013</v>
+      </c>
+      <c r="W108" s="245"/>
+      <c r="X108" s="245">
+        <f t="shared" si="10"/>
+        <v>12.652200000000015</v>
+      </c>
+      <c r="Y108" s="245"/>
+      <c r="Z108" s="245">
+        <f t="shared" si="11"/>
+        <v>-10.150844693240668</v>
+      </c>
+      <c r="AA108" s="245"/>
+      <c r="AB108" s="245">
+        <f t="shared" si="7"/>
+        <v>21.321010979558935</v>
+      </c>
+    </row>
+    <row r="109" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N109" s="206">
         <v>85</v>
       </c>
-    </row>
-    <row r="110" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N110" s="244">
+      <c r="P109" s="245">
+        <f t="shared" si="12"/>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="Q109" s="245"/>
+      <c r="R109" s="245">
+        <f t="shared" si="13"/>
+        <v>40.999999999999993</v>
+      </c>
+      <c r="S109" s="245"/>
+      <c r="T109" s="245">
+        <f t="shared" si="8"/>
+        <v>-17.200000000000006</v>
+      </c>
+      <c r="U109" s="245"/>
+      <c r="V109" s="245">
+        <f t="shared" si="9"/>
+        <v>18.520000000000017</v>
+      </c>
+      <c r="W109" s="245"/>
+      <c r="X109" s="245">
+        <f t="shared" si="10"/>
+        <v>14.742400000000018</v>
+      </c>
+      <c r="Y109" s="245"/>
+      <c r="Z109" s="245">
+        <f t="shared" si="11"/>
+        <v>-9.4439367138168429</v>
+      </c>
+      <c r="AA109" s="245"/>
+      <c r="AB109" s="245">
+        <f t="shared" si="7"/>
+        <v>21.208015427019603</v>
+      </c>
+    </row>
+    <row r="110" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N110" s="206">
         <v>86</v>
       </c>
-    </row>
-    <row r="111" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N111" s="244">
+      <c r="P110" s="245">
+        <f t="shared" si="12"/>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="Q110" s="245"/>
+      <c r="R110" s="245">
+        <f t="shared" si="13"/>
+        <v>39.999999999999993</v>
+      </c>
+      <c r="S110" s="245"/>
+      <c r="T110" s="245">
+        <f t="shared" si="8"/>
+        <v>-18.000000000000007</v>
+      </c>
+      <c r="U110" s="245"/>
+      <c r="V110" s="245">
+        <f t="shared" si="9"/>
+        <v>20.500000000000021</v>
+      </c>
+      <c r="W110" s="245"/>
+      <c r="X110" s="245">
+        <f t="shared" si="10"/>
+        <v>16.975000000000016</v>
+      </c>
+      <c r="Y110" s="245"/>
+      <c r="Z110" s="245">
+        <f t="shared" si="11"/>
+        <v>-8.6862915010152317</v>
+      </c>
+      <c r="AA110" s="245"/>
+      <c r="AB110" s="245">
+        <f t="shared" si="7"/>
+        <v>21.096282421038353</v>
+      </c>
+    </row>
+    <row r="111" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N111" s="206">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N112" s="244">
+      <c r="P111" s="245">
+        <f t="shared" si="12"/>
+        <v>7.200000000000002</v>
+      </c>
+      <c r="Q111" s="245"/>
+      <c r="R111" s="245">
+        <f t="shared" si="13"/>
+        <v>38.999999999999993</v>
+      </c>
+      <c r="S111" s="245"/>
+      <c r="T111" s="245">
+        <f t="shared" si="8"/>
+        <v>-18.800000000000008</v>
+      </c>
+      <c r="U111" s="245"/>
+      <c r="V111" s="245">
+        <f t="shared" si="9"/>
+        <v>22.520000000000017</v>
+      </c>
+      <c r="W111" s="245"/>
+      <c r="X111" s="245">
+        <f t="shared" si="10"/>
+        <v>19.353600000000018</v>
+      </c>
+      <c r="Y111" s="245"/>
+      <c r="Z111" s="245">
+        <f t="shared" si="11"/>
+        <v>-7.8742674679168054</v>
+      </c>
+      <c r="AA111" s="245"/>
+      <c r="AB111" s="245">
+        <f t="shared" si="7"/>
+        <v>20.985784059172502</v>
+      </c>
+    </row>
+    <row r="112" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N112" s="206">
         <v>88</v>
       </c>
-    </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N113" s="244">
+      <c r="P112" s="245">
+        <f t="shared" si="12"/>
+        <v>7.4000000000000021</v>
+      </c>
+      <c r="Q112" s="245"/>
+      <c r="R112" s="245">
+        <f t="shared" si="13"/>
+        <v>37.999999999999986</v>
+      </c>
+      <c r="S112" s="245"/>
+      <c r="T112" s="245">
+        <f t="shared" si="8"/>
+        <v>-19.600000000000009</v>
+      </c>
+      <c r="U112" s="245"/>
+      <c r="V112" s="245">
+        <f t="shared" si="9"/>
+        <v>24.580000000000027</v>
+      </c>
+      <c r="W112" s="245"/>
+      <c r="X112" s="245">
+        <f t="shared" si="10"/>
+        <v>21.88180000000003</v>
+      </c>
+      <c r="Y112" s="245"/>
+      <c r="Z112" s="245">
+        <f t="shared" si="11"/>
+        <v>-7.0039616583002218</v>
+      </c>
+      <c r="AA112" s="245"/>
+      <c r="AB112" s="245">
+        <f t="shared" si="7"/>
+        <v>20.876493353850599</v>
+      </c>
+    </row>
+    <row r="113" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N113" s="206">
         <v>89</v>
       </c>
-    </row>
-    <row r="114" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N114" s="244">
+      <c r="P113" s="245">
+        <f t="shared" si="12"/>
+        <v>7.6000000000000023</v>
+      </c>
+      <c r="Q113" s="245"/>
+      <c r="R113" s="245">
+        <f t="shared" si="13"/>
+        <v>36.999999999999986</v>
+      </c>
+      <c r="S113" s="245"/>
+      <c r="T113" s="245">
+        <f t="shared" si="8"/>
+        <v>-20.400000000000009</v>
+      </c>
+      <c r="U113" s="245"/>
+      <c r="V113" s="245">
+        <f t="shared" si="9"/>
+        <v>26.680000000000021</v>
+      </c>
+      <c r="W113" s="245"/>
+      <c r="X113" s="245">
+        <f t="shared" si="10"/>
+        <v>24.563200000000027</v>
+      </c>
+      <c r="Y113" s="245"/>
+      <c r="Z113" s="245">
+        <f t="shared" si="11"/>
+        <v>-6.0711909872620033</v>
+      </c>
+      <c r="AA113" s="245"/>
+      <c r="AB113" s="245">
+        <f t="shared" si="7"/>
+        <v>20.768384192808441</v>
+      </c>
+    </row>
+    <row r="114" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N114" s="206">
         <v>90</v>
       </c>
-    </row>
-    <row r="115" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N115" s="244">
+      <c r="P114" s="245">
+        <f t="shared" si="12"/>
+        <v>7.8000000000000025</v>
+      </c>
+      <c r="Q114" s="245"/>
+      <c r="R114" s="245">
+        <f t="shared" si="13"/>
+        <v>35.999999999999986</v>
+      </c>
+      <c r="S114" s="245"/>
+      <c r="T114" s="245">
+        <f t="shared" si="8"/>
+        <v>-21.20000000000001</v>
+      </c>
+      <c r="U114" s="245"/>
+      <c r="V114" s="245">
+        <f t="shared" si="9"/>
+        <v>28.820000000000022</v>
+      </c>
+      <c r="W114" s="245"/>
+      <c r="X114" s="245">
+        <f t="shared" si="10"/>
+        <v>27.401400000000038</v>
+      </c>
+      <c r="Y114" s="245"/>
+      <c r="Z114" s="245">
+        <f t="shared" si="11"/>
+        <v>-5.071472135411069</v>
+      </c>
+      <c r="AA114" s="245"/>
+      <c r="AB114" s="245">
+        <f t="shared" si="7"/>
+        <v>20.661431301640963</v>
+      </c>
+    </row>
+    <row r="115" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N115" s="206">
         <v>91</v>
       </c>
-    </row>
-    <row r="116" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N116" s="244">
+      <c r="P115" s="245">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="Q115" s="245"/>
+      <c r="R115" s="245">
+        <f t="shared" si="13"/>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="S115" s="245"/>
+      <c r="T115" s="245">
+        <f t="shared" si="8"/>
+        <v>-22.000000000000007</v>
+      </c>
+      <c r="U115" s="245"/>
+      <c r="V115" s="245">
+        <f t="shared" si="9"/>
+        <v>31.000000000000021</v>
+      </c>
+      <c r="W115" s="245"/>
+      <c r="X115" s="245">
+        <f t="shared" si="10"/>
+        <v>30.400000000000027</v>
+      </c>
+      <c r="Y115" s="245"/>
+      <c r="Z115" s="245">
+        <f t="shared" si="11"/>
+        <v>-3.9999999999999929</v>
+      </c>
+      <c r="AA115" s="245"/>
+      <c r="AB115" s="245">
+        <f t="shared" si="7"/>
+        <v>20.555610208335597</v>
+      </c>
+    </row>
+    <row r="116" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N116" s="206">
         <v>92</v>
       </c>
-    </row>
-    <row r="117" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N117" s="244">
+      <c r="P116" s="245">
+        <f t="shared" si="12"/>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="Q116" s="245"/>
+      <c r="R116" s="245">
+        <f t="shared" si="13"/>
+        <v>33.999999999999993</v>
+      </c>
+      <c r="S116" s="245"/>
+      <c r="T116" s="245">
+        <f t="shared" si="8"/>
+        <v>-22.800000000000004</v>
+      </c>
+      <c r="U116" s="245"/>
+      <c r="V116" s="245">
+        <f t="shared" si="9"/>
+        <v>33.220000000000013</v>
+      </c>
+      <c r="W116" s="245"/>
+      <c r="X116" s="245">
+        <f t="shared" si="10"/>
+        <v>33.562600000000025</v>
+      </c>
+      <c r="Y116" s="245"/>
+      <c r="Z116" s="245">
+        <f t="shared" si="11"/>
+        <v>-2.8516245994193028</v>
+      </c>
+      <c r="AA116" s="245"/>
+      <c r="AB116" s="245">
+        <f t="shared" si="7"/>
+        <v>20.450897209662639</v>
+      </c>
+    </row>
+    <row r="117" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N117" s="206">
         <v>93</v>
       </c>
-    </row>
-    <row r="118" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N118" s="244">
+      <c r="P117" s="245">
+        <f t="shared" si="12"/>
+        <v>8.4</v>
+      </c>
+      <c r="Q117" s="245"/>
+      <c r="R117" s="245">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="S117" s="245"/>
+      <c r="T117" s="245">
+        <f t="shared" si="8"/>
+        <v>-23.6</v>
+      </c>
+      <c r="U117" s="245"/>
+      <c r="V117" s="245">
+        <f t="shared" si="9"/>
+        <v>35.480000000000004</v>
+      </c>
+      <c r="W117" s="245"/>
+      <c r="X117" s="245">
+        <f t="shared" si="10"/>
+        <v>36.892800000000001</v>
+      </c>
+      <c r="Y117" s="245"/>
+      <c r="Z117" s="245">
+        <f t="shared" si="11"/>
+        <v>-1.620826320047442</v>
+      </c>
+      <c r="AA117" s="245"/>
+      <c r="AB117" s="245">
+        <f t="shared" si="7"/>
+        <v>20.347269339307175</v>
+      </c>
+    </row>
+    <row r="118" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N118" s="206">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N119" s="244">
+      <c r="P118" s="245">
+        <f t="shared" si="12"/>
+        <v>8.6</v>
+      </c>
+      <c r="Q118" s="245"/>
+      <c r="R118" s="245">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="S118" s="245"/>
+      <c r="T118" s="245">
+        <f t="shared" si="8"/>
+        <v>-24.4</v>
+      </c>
+      <c r="U118" s="245"/>
+      <c r="V118" s="245">
+        <f t="shared" si="9"/>
+        <v>37.779999999999994</v>
+      </c>
+      <c r="W118" s="245"/>
+      <c r="X118" s="245">
+        <f t="shared" si="10"/>
+        <v>40.394199999999998</v>
+      </c>
+      <c r="Y118" s="245"/>
+      <c r="Z118" s="245">
+        <f t="shared" si="11"/>
+        <v>-0.30168938648133903</v>
+      </c>
+      <c r="AA118" s="245"/>
+      <c r="AB118" s="245">
+        <f t="shared" si="7"/>
+        <v>20.244704337635284</v>
+      </c>
+    </row>
+    <row r="119" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N119" s="206">
         <v>95</v>
       </c>
-    </row>
-    <row r="120" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N120" s="244">
+      <c r="P119" s="245">
+        <f t="shared" si="12"/>
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="Q119" s="245"/>
+      <c r="R119" s="245">
+        <f t="shared" si="13"/>
+        <v>31.000000000000007</v>
+      </c>
+      <c r="S119" s="245"/>
+      <c r="T119" s="245">
+        <f t="shared" si="8"/>
+        <v>-25.199999999999996</v>
+      </c>
+      <c r="U119" s="245"/>
+      <c r="V119" s="245">
+        <f t="shared" si="9"/>
+        <v>40.11999999999999</v>
+      </c>
+      <c r="W119" s="245"/>
+      <c r="X119" s="245">
+        <f t="shared" si="10"/>
+        <v>44.070399999999971</v>
+      </c>
+      <c r="Y119" s="245"/>
+      <c r="Z119" s="245">
+        <f t="shared" si="11"/>
+        <v>1.1121265723662965</v>
+      </c>
+      <c r="AA119" s="245"/>
+      <c r="AB119" s="245">
+        <f t="shared" si="7"/>
+        <v>20.143180622995107</v>
+      </c>
+    </row>
+    <row r="120" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N120" s="206">
         <v>96</v>
       </c>
-    </row>
-    <row r="121" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N121" s="244">
+      <c r="P120" s="245">
+        <f t="shared" si="12"/>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="Q120" s="245"/>
+      <c r="R120" s="245">
+        <f t="shared" si="13"/>
+        <v>30.000000000000007</v>
+      </c>
+      <c r="S120" s="245"/>
+      <c r="T120" s="245">
+        <f t="shared" si="8"/>
+        <v>-25.999999999999993</v>
+      </c>
+      <c r="U120" s="245"/>
+      <c r="V120" s="245">
+        <f t="shared" si="9"/>
+        <v>42.499999999999972</v>
+      </c>
+      <c r="W120" s="245"/>
+      <c r="X120" s="245">
+        <f t="shared" si="10"/>
+        <v>47.924999999999962</v>
+      </c>
+      <c r="Y120" s="245"/>
+      <c r="Z120" s="245">
+        <f t="shared" si="11"/>
+        <v>2.627416997969501</v>
+      </c>
+      <c r="AA120" s="245"/>
+      <c r="AB120" s="245">
+        <f t="shared" si="7"/>
+        <v>20.042677264460092</v>
+      </c>
+    </row>
+    <row r="121" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N121" s="206">
         <v>97</v>
       </c>
-    </row>
-    <row r="122" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N122" s="244">
+      <c r="P121" s="245">
+        <f t="shared" si="12"/>
+        <v>9.1999999999999975</v>
+      </c>
+      <c r="Q121" s="245"/>
+      <c r="R121" s="245">
+        <f t="shared" si="13"/>
+        <v>29.000000000000014</v>
+      </c>
+      <c r="S121" s="245"/>
+      <c r="T121" s="245">
+        <f t="shared" si="8"/>
+        <v>-26.79999999999999</v>
+      </c>
+      <c r="U121" s="245"/>
+      <c r="V121" s="245">
+        <f t="shared" si="9"/>
+        <v>44.919999999999973</v>
+      </c>
+      <c r="W121" s="245"/>
+      <c r="X121" s="245">
+        <f t="shared" si="10"/>
+        <v>51.961599999999947</v>
+      </c>
+      <c r="Y121" s="245"/>
+      <c r="Z121" s="245">
+        <f t="shared" si="11"/>
+        <v>4.2514650641663465</v>
+      </c>
+      <c r="AA121" s="245"/>
+      <c r="AB121" s="245">
+        <f t="shared" si="7"/>
+        <v>19.943173955928412</v>
+      </c>
+    </row>
+    <row r="122" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N122" s="206">
         <v>98</v>
       </c>
-    </row>
-    <row r="123" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N123" s="244">
+      <c r="P122" s="245">
+        <f t="shared" si="12"/>
+        <v>9.3999999999999968</v>
+      </c>
+      <c r="Q122" s="245"/>
+      <c r="R122" s="245">
+        <f t="shared" si="13"/>
+        <v>28.000000000000014</v>
+      </c>
+      <c r="S122" s="245"/>
+      <c r="T122" s="245">
+        <f t="shared" si="8"/>
+        <v>-27.599999999999987</v>
+      </c>
+      <c r="U122" s="245"/>
+      <c r="V122" s="245">
+        <f t="shared" si="9"/>
+        <v>47.379999999999967</v>
+      </c>
+      <c r="W122" s="245"/>
+      <c r="X122" s="245">
+        <f t="shared" si="10"/>
+        <v>56.183799999999934</v>
+      </c>
+      <c r="Y122" s="245"/>
+      <c r="Z122" s="245">
+        <f t="shared" si="11"/>
+        <v>5.9920766833994996</v>
+      </c>
+      <c r="AA122" s="245"/>
+      <c r="AB122" s="245">
+        <f t="shared" si="7"/>
+        <v>19.844650991498295</v>
+      </c>
+    </row>
+    <row r="123" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N123" s="206">
         <v>99</v>
       </c>
-    </row>
-    <row r="124" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N124" s="244">
+      <c r="P123" s="245">
+        <f t="shared" si="12"/>
+        <v>9.5999999999999961</v>
+      </c>
+      <c r="Q123" s="245"/>
+      <c r="R123" s="245">
+        <f t="shared" si="13"/>
+        <v>27.000000000000021</v>
+      </c>
+      <c r="S123" s="245"/>
+      <c r="T123" s="245">
+        <f t="shared" si="8"/>
+        <v>-28.399999999999984</v>
+      </c>
+      <c r="U123" s="245"/>
+      <c r="V123" s="245">
+        <f t="shared" si="9"/>
+        <v>49.879999999999953</v>
+      </c>
+      <c r="W123" s="245"/>
+      <c r="X123" s="245">
+        <f t="shared" si="10"/>
+        <v>60.595199999999913</v>
+      </c>
+      <c r="Y123" s="245"/>
+      <c r="Z123" s="245">
+        <f t="shared" si="11"/>
+        <v>7.8576180254759365</v>
+      </c>
+      <c r="AA123" s="245"/>
+      <c r="AB123" s="245">
+        <f t="shared" si="7"/>
+        <v>19.747089242044652</v>
+      </c>
+    </row>
+    <row r="124" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N124" s="206">
         <v>100</v>
       </c>
-    </row>
-    <row r="125" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N125" s="244">
+      <c r="P124" s="245">
+        <f t="shared" si="12"/>
+        <v>9.7999999999999954</v>
+      </c>
+      <c r="Q124" s="245"/>
+      <c r="R124" s="245">
+        <f t="shared" si="13"/>
+        <v>26.000000000000021</v>
+      </c>
+      <c r="S124" s="245"/>
+      <c r="T124" s="245">
+        <f t="shared" si="8"/>
+        <v>-29.199999999999982</v>
+      </c>
+      <c r="U124" s="245"/>
+      <c r="V124" s="245">
+        <f t="shared" si="9"/>
+        <v>52.419999999999931</v>
+      </c>
+      <c r="W124" s="245"/>
+      <c r="X124" s="245">
+        <f t="shared" si="10"/>
+        <v>65.199399999999883</v>
+      </c>
+      <c r="Y124" s="245"/>
+      <c r="Z124" s="245">
+        <f t="shared" si="11"/>
+        <v>9.8570557291777838</v>
+      </c>
+      <c r="AA124" s="245"/>
+      <c r="AB124" s="245">
+        <f t="shared" si="7"/>
+        <v>19.650470132927282</v>
+      </c>
+    </row>
+    <row r="125" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="N125" s="206">
         <v>101</v>
+      </c>
+      <c r="P125" s="245">
+        <f t="shared" si="12"/>
+        <v>9.9999999999999947</v>
+      </c>
+      <c r="Q125" s="245"/>
+      <c r="R125" s="245">
+        <f t="shared" si="13"/>
+        <v>25.000000000000028</v>
+      </c>
+      <c r="S125" s="245"/>
+      <c r="T125" s="245">
+        <f t="shared" si="8"/>
+        <v>-29.999999999999979</v>
+      </c>
+      <c r="U125" s="245"/>
+      <c r="V125" s="245">
+        <f t="shared" si="9"/>
+        <v>54.999999999999929</v>
+      </c>
+      <c r="W125" s="245"/>
+      <c r="X125" s="245">
+        <f t="shared" si="10"/>
+        <v>69.999999999999858</v>
+      </c>
+      <c r="Y125" s="245"/>
+      <c r="Z125" s="245">
+        <f t="shared" si="11"/>
+        <v>11.999999999999943</v>
+      </c>
+      <c r="AA125" s="245"/>
+      <c r="AB125" s="245">
+        <f t="shared" si="7"/>
+        <v>19.554775622765774</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:F21"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B2:AB2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16400,42 +19939,43 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" style="4" customWidth="1"/>
-    <col min="7" max="10" width="11.1796875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.7265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0.54296875" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0.54296875" style="33" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0.54296875" style="33" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="11.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.5703125" style="33" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.5703125" style="33" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="213" t="s">
+    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -16447,20 +19987,20 @@
       <c r="S2" s="70"/>
       <c r="T2" s="70"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="214"/>
-      <c r="G4" s="216" t="s">
+      <c r="F4" s="211"/>
+      <c r="G4" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
       <c r="K4" s="56"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -16472,11 +20012,11 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
     </row>
-    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -16500,7 +20040,7 @@
       <c r="S5" s="54"/>
       <c r="T5" s="54"/>
     </row>
-    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -16518,12 +20058,12 @@
       <c r="S6" s="54"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="24"/>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="232"/>
+      <c r="E7" s="240"/>
       <c r="F7" s="193" t="s">
         <v>52</v>
       </c>
@@ -16550,7 +20090,7 @@
       <c r="S7" s="62"/>
       <c r="T7" s="62"/>
     </row>
-    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="22"/>
       <c r="D8" s="197"/>
       <c r="E8" s="109"/>
@@ -16570,12 +20110,12 @@
       <c r="S8" s="62"/>
       <c r="T8" s="62"/>
     </row>
-    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="25"/>
-      <c r="D9" s="233" t="s">
+      <c r="D9" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="233"/>
+      <c r="E9" s="241"/>
       <c r="F9" s="195" t="s">
         <v>52</v>
       </c>
@@ -16603,7 +20143,7 @@
       <c r="T9" s="63"/>
       <c r="U9" s="22"/>
     </row>
-    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="22"/>
       <c r="D10" s="197"/>
       <c r="E10" s="109"/>
@@ -16624,12 +20164,12 @@
       <c r="T10" s="63"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="26"/>
-      <c r="D11" s="234" t="s">
+      <c r="D11" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="234"/>
+      <c r="E11" s="242"/>
       <c r="F11" s="196" t="s">
         <v>53</v>
       </c>
@@ -16657,7 +20197,7 @@
       <c r="T11" s="64"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -16678,7 +20218,7 @@
       <c r="T12" s="64"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
@@ -16690,14 +20230,14 @@
       <c r="S13" s="54"/>
       <c r="T13" s="54"/>
     </row>
-    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="214" t="s">
+      <c r="E14" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="218"/>
+      <c r="F14" s="215"/>
       <c r="G14" s="71" t="s">
         <v>24</v>
       </c>
@@ -16719,12 +20259,12 @@
       <c r="S14" s="54"/>
       <c r="T14" s="54"/>
     </row>
-    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
       <c r="G15" s="191">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -16749,7 +20289,7 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
     </row>
-    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
       <c r="M16" s="54"/>
@@ -16761,7 +20301,7 @@
       <c r="S16" s="54"/>
       <c r="T16" s="54"/>
     </row>
-    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -16773,7 +20313,7 @@
       <c r="S17" s="54"/>
       <c r="T17" s="54"/>
     </row>
-    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -16797,7 +20337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
       <c r="K19" s="54"/>
       <c r="L19" s="59">
@@ -16824,7 +20364,7 @@
         <v>2.45029690981724E-16</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="54"/>
       <c r="L20" s="59">
         <v>2</v>
@@ -16850,7 +20390,7 @@
         <v>0.12632937844610859</v>
       </c>
     </row>
-    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="54"/>
       <c r="L21" s="59">
         <v>3</v>
@@ -16876,7 +20416,7 @@
         <v>0.25675636036772742</v>
       </c>
     </row>
-    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -16907,7 +20447,7 @@
         <v>0.39592800879772216</v>
       </c>
     </row>
-    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -16938,7 +20478,7 @@
         <v>0.54975465219277131</v>
       </c>
     </row>
-    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -16969,7 +20509,7 @@
         <v>0.72654252800536256</v>
       </c>
     </row>
-    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -17000,7 +20540,7 @@
         <v>0.93906250581749473</v>
       </c>
     </row>
-    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -17031,7 +20571,7 @@
         <v>1.2087923504096127</v>
       </c>
     </row>
-    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -17062,7 +20602,7 @@
         <v>1.5757478599686567</v>
       </c>
     </row>
-    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -17093,7 +20633,7 @@
         <v>2.1251081731572126</v>
       </c>
     </row>
-    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -17124,7 +20664,7 @@
         <v>3.077683537175274</v>
       </c>
     </row>
-    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -17155,7 +20695,7 @@
         <v>5.2421835811132382</v>
       </c>
     </row>
-    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -17186,7 +20726,7 @@
         <v>15.894544843865891</v>
       </c>
     </row>
-    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -17217,7 +20757,7 @@
         <v>-15.894544843864672</v>
       </c>
     </row>
-    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -17248,7 +20788,7 @@
         <v>-5.2421835811131006</v>
       </c>
     </row>
-    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -17279,7 +20819,7 @@
         <v>-3.0776835371752238</v>
       </c>
     </row>
-    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -17310,7 +20850,7 @@
         <v>-2.1251081731571864</v>
       </c>
     </row>
-    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -17341,7 +20881,7 @@
         <v>-1.5757478599686401</v>
       </c>
     </row>
-    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -17372,7 +20912,7 @@
         <v>-1.208792350409601</v>
       </c>
     </row>
-    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -17403,7 +20943,7 @@
         <v>-0.93906250581748574</v>
       </c>
     </row>
-    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -17434,7 +20974,7 @@
         <v>-0.72654252800535524</v>
       </c>
     </row>
-    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -17465,7 +21005,7 @@
         <v>-0.54975465219276498</v>
       </c>
     </row>
-    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -17496,7 +21036,7 @@
         <v>-0.39592800879771656</v>
       </c>
     </row>
-    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -17527,7 +21067,7 @@
         <v>-0.25675636036772231</v>
       </c>
     </row>
-    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -17558,7 +21098,7 @@
         <v>-0.1263293784461037</v>
       </c>
     </row>
-    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -17589,7 +21129,7 @@
         <v>4.5634069439914882E-15</v>
       </c>
     </row>
-    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -17620,7 +21160,7 @@
         <v>0.126329378446113</v>
       </c>
     </row>
-    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -17651,7 +21191,7 @@
         <v>0.25675636036773203</v>
       </c>
     </row>
-    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -17682,7 +21222,7 @@
         <v>0.39592800879772716</v>
       </c>
     </row>
-    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -17713,7 +21253,7 @@
         <v>0.54975465219277697</v>
       </c>
     </row>
-    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -17744,7 +21284,7 @@
         <v>0.72654252800536923</v>
       </c>
     </row>
-    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -17775,7 +21315,7 @@
         <v>0.93906250581750284</v>
       </c>
     </row>
-    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -17806,7 +21346,7 @@
         <v>1.2087923504096234</v>
       </c>
     </row>
-    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -17837,7 +21377,7 @@
         <v>1.5757478599686718</v>
       </c>
     </row>
-    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -17868,7 +21408,7 @@
         <v>2.1251081731572365</v>
       </c>
     </row>
-    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -17899,7 +21439,7 @@
         <v>3.0776835371753171</v>
       </c>
     </row>
-    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -17930,7 +21470,7 @@
         <v>5.2421835811133484</v>
       </c>
     </row>
-    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -17961,7 +21501,7 @@
         <v>15.894544843866818</v>
       </c>
     </row>
-    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -17992,7 +21532,7 @@
         <v>-15.894544843863802</v>
       </c>
     </row>
-    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -18023,7 +21563,7 @@
         <v>-5.2421835811130091</v>
       </c>
     </row>
-    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -18054,7 +21594,7 @@
         <v>-3.0776835371751923</v>
       </c>
     </row>
-    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -18085,7 +21625,7 @@
         <v>-2.1251081731571708</v>
       </c>
     </row>
-    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -18116,7 +21656,7 @@
         <v>-1.5757478599686312</v>
       </c>
     </row>
-    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -18147,7 +21687,7 @@
         <v>-1.2087923504095952</v>
       </c>
     </row>
-    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -18178,7 +21718,7 @@
         <v>-0.93906250581748174</v>
       </c>
     </row>
-    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -18209,7 +21749,7 @@
         <v>-0.72654252800535235</v>
       </c>
     </row>
-    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -18240,7 +21780,7 @@
         <v>-0.54975465219276287</v>
       </c>
     </row>
-    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -18271,7 +21811,7 @@
         <v>-0.39592800879771484</v>
       </c>
     </row>
-    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L67" s="59">
         <v>49</v>
       </c>
@@ -18294,7 +21834,7 @@
         <v>-0.25675636036772087</v>
       </c>
     </row>
-    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L68" s="59">
         <v>50</v>
       </c>
@@ -18317,7 +21857,7 @@
         <v>-0.12632937844610254</v>
       </c>
     </row>
-    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L69" s="59">
         <v>51</v>
       </c>
@@ -18340,7 +21880,7 @@
         <v>5.5511151231257827E-15</v>
       </c>
     </row>
-    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L70" s="59">
         <v>52</v>
       </c>
@@ -18363,7 +21903,7 @@
         <v>0.12632937844611383</v>
       </c>
     </row>
-    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L71" s="59">
         <v>53</v>
       </c>
@@ -18386,7 +21926,7 @@
         <v>0.25675636036773269</v>
       </c>
     </row>
-    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L72" s="59">
         <v>54</v>
       </c>
@@ -18409,7 +21949,7 @@
         <v>0.39592800879772772</v>
       </c>
     </row>
-    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L73" s="59">
         <v>55</v>
       </c>
@@ -18432,7 +21972,7 @@
         <v>0.5497546521927773</v>
       </c>
     </row>
-    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L74" s="59">
         <v>56</v>
       </c>
@@ -18455,7 +21995,7 @@
         <v>0.72654252800536934</v>
       </c>
     </row>
-    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L75" s="59">
         <v>57</v>
       </c>
@@ -18478,7 +22018,7 @@
         <v>0.93906250581750261</v>
       </c>
     </row>
-    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L76" s="59">
         <v>58</v>
       </c>
@@ -18501,7 +22041,7 @@
         <v>1.2087923504096225</v>
       </c>
     </row>
-    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L77" s="59">
         <v>59</v>
       </c>
@@ -18524,7 +22064,7 @@
         <v>1.5757478599686698</v>
       </c>
     </row>
-    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L78" s="59">
         <v>60</v>
       </c>
@@ -18547,7 +22087,7 @@
         <v>2.1251081731572321</v>
       </c>
     </row>
-    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L79" s="59">
         <v>61</v>
       </c>
@@ -18570,7 +22110,7 @@
         <v>3.0776835371753086</v>
       </c>
     </row>
-    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L80" s="59">
         <v>62</v>
       </c>
@@ -18593,7 +22133,7 @@
         <v>5.2421835811133253</v>
       </c>
     </row>
-    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L81" s="59">
         <v>63</v>
       </c>
@@ -18616,7 +22156,7 @@
         <v>15.894544843866617</v>
       </c>
     </row>
-    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L82" s="59">
         <v>64</v>
       </c>
@@ -18639,7 +22179,7 @@
         <v>-15.894544843864002</v>
       </c>
     </row>
-    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L83" s="59">
         <v>65</v>
       </c>
@@ -18662,7 +22202,7 @@
         <v>-5.2421835811130322</v>
       </c>
     </row>
-    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L84" s="59">
         <v>66</v>
       </c>
@@ -18685,7 +22225,7 @@
         <v>-3.0776835371752007</v>
       </c>
     </row>
-    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L85" s="59">
         <v>67</v>
       </c>
@@ -18708,7 +22248,7 @@
         <v>-2.1251081731571753</v>
       </c>
     </row>
-    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L86" s="59">
         <v>68</v>
       </c>
@@ -18731,7 +22271,7 @@
         <v>-1.5757478599686332</v>
       </c>
     </row>
-    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L87" s="59">
         <v>69</v>
       </c>
@@ -18754,7 +22294,7 @@
         <v>-1.2087923504095961</v>
       </c>
     </row>
-    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L88" s="59">
         <v>70</v>
       </c>
@@ -18777,7 +22317,7 @@
         <v>-0.93906250581748196</v>
       </c>
     </row>
-    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L89" s="59">
         <v>71</v>
       </c>
@@ -18800,7 +22340,7 @@
         <v>-0.72654252800535224</v>
       </c>
     </row>
-    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L90" s="59">
         <v>72</v>
       </c>
@@ -18823,7 +22363,7 @@
         <v>-0.54975465219276243</v>
       </c>
     </row>
-    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L91" s="59">
         <v>73</v>
       </c>
@@ -18846,7 +22386,7 @@
         <v>-0.39592800879771428</v>
       </c>
     </row>
-    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L92" s="59">
         <v>74</v>
       </c>
@@ -18869,7 +22409,7 @@
         <v>-0.2567563603677202</v>
       </c>
     </row>
-    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L93" s="59">
         <v>75</v>
       </c>
@@ -18892,7 +22432,7 @@
         <v>-0.1263293784461017</v>
       </c>
     </row>
-    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L94" s="59">
         <v>76</v>
       </c>
@@ -18915,7 +22455,7 @@
         <v>6.5388233022600772E-15</v>
       </c>
     </row>
-    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L95" s="59">
         <v>77</v>
       </c>
@@ -18938,7 +22478,7 @@
         <v>0.126329378446115</v>
       </c>
     </row>
-    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L96" s="59">
         <v>78</v>
       </c>
@@ -18961,7 +22501,7 @@
         <v>0.25675636036773414</v>
       </c>
     </row>
-    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L97" s="59">
         <v>79</v>
       </c>
@@ -18984,7 +22524,7 @@
         <v>0.39592800879772944</v>
       </c>
     </row>
-    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L98" s="59">
         <v>80</v>
       </c>
@@ -19007,7 +22547,7 @@
         <v>0.54975465219277952</v>
       </c>
     </row>
-    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L99" s="59">
         <v>81</v>
       </c>
@@ -19030,7 +22570,7 @@
         <v>0.72654252800537222</v>
       </c>
     </row>
-    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L100" s="59">
         <v>82</v>
       </c>
@@ -19053,7 +22593,7 @@
         <v>0.93906250581750661</v>
       </c>
     </row>
-    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L101" s="59">
         <v>83</v>
       </c>
@@ -19076,7 +22616,7 @@
         <v>1.2087923504096272</v>
       </c>
     </row>
-    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L102" s="59">
         <v>84</v>
       </c>
@@ -19099,7 +22639,7 @@
         <v>1.5757478599686772</v>
       </c>
     </row>
-    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L103" s="59">
         <v>85</v>
       </c>
@@ -19122,7 +22662,7 @@
         <v>2.125108173157245</v>
       </c>
     </row>
-    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L104" s="59">
         <v>86</v>
       </c>
@@ -19145,7 +22685,7 @@
         <v>3.0776835371753353</v>
       </c>
     </row>
-    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L105" s="59">
         <v>87</v>
       </c>
@@ -19168,7 +22708,7 @@
         <v>5.2421835811134043</v>
       </c>
     </row>
-    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L106" s="59">
         <v>88</v>
       </c>
@@ -19191,7 +22731,7 @@
         <v>15.894544843867376</v>
       </c>
     </row>
-    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L107" s="59">
         <v>89</v>
       </c>
@@ -19214,7 +22754,7 @@
         <v>-15.894544843863189</v>
       </c>
     </row>
-    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L108" s="59">
         <v>90</v>
       </c>
@@ -19237,7 +22777,7 @@
         <v>-5.2421835811129345</v>
       </c>
     </row>
-    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L109" s="59">
         <v>91</v>
       </c>
@@ -19260,7 +22800,7 @@
         <v>-3.0776835371751625</v>
       </c>
     </row>
-    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L110" s="59">
         <v>92</v>
       </c>
@@ -19283,7 +22823,7 @@
         <v>-2.1251081731571539</v>
       </c>
     </row>
-    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L111" s="59">
         <v>93</v>
       </c>
@@ -19306,7 +22846,7 @@
         <v>-1.5757478599686197</v>
       </c>
     </row>
-    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L112" s="59">
         <v>94</v>
       </c>
@@ -19329,7 +22869,7 @@
         <v>-1.2087923504095865</v>
       </c>
     </row>
-    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L113" s="59">
         <v>95</v>
       </c>
@@ -19352,7 +22892,7 @@
         <v>-0.93906250581747475</v>
       </c>
     </row>
-    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L114" s="59">
         <v>96</v>
       </c>
@@ -19375,7 +22915,7 @@
         <v>-0.72654252800534624</v>
       </c>
     </row>
-    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L115" s="59">
         <v>97</v>
       </c>
@@ -19398,7 +22938,7 @@
         <v>-0.54975465219275743</v>
       </c>
     </row>
-    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L116" s="59">
         <v>98</v>
       </c>
@@ -19421,7 +22961,7 @@
         <v>-0.39592800879770984</v>
       </c>
     </row>
-    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L117" s="59">
         <v>99</v>
       </c>
@@ -19444,7 +22984,7 @@
         <v>-0.25675636036771604</v>
       </c>
     </row>
-    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L118" s="59">
         <v>100</v>
       </c>
@@ -19467,7 +23007,7 @@
         <v>-0.12632937844609776</v>
       </c>
     </row>
-    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L119" s="59">
         <v>101</v>
       </c>
@@ -19517,110 +23057,111 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="100" style="11" customWidth="1"/>
-    <col min="5" max="5" width="1.7265625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="11"/>
+    <col min="5" max="5" width="1.7109375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.35">
-      <c r="B2" s="235" t="s">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-    </row>
-    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="236" t="s">
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+    </row>
+    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="244" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="236"/>
+    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="244"/>
       <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="236"/>
+    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="244"/>
       <c r="D6" s="77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="236"/>
+    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="244"/>
       <c r="D7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="236"/>
+    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="244"/>
       <c r="D8" s="77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="236"/>
+    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="244"/>
       <c r="D9" s="78" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="236" t="s">
+    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="244" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="236"/>
+    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="244"/>
       <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="236"/>
+    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="244"/>
       <c r="D13" s="82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="236" t="s">
+    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="244" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="236"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="244"/>
       <c r="D16" s="76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="236"/>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="244"/>
       <c r="D17" s="81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="236"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="244"/>
       <c r="D18" s="80" t="s">
         <v>33</v>
       </c>

--- a/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
+++ b/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CVM\Outil de gestion\GitHub2022\ExerciceExcel3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc197a25ccdc5fa/Desktop/GitHub2022/ExerciceExcel3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF801937-CD40-463B-A4F4-654C67F91411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{EF801937-CD40-463B-A4F4-654C67F91411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA22660-80A7-4C40-BFE3-897613F5D141}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3757307E-2B36-4229-AE29-1C2237A8C312}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{1DA72D1B-FF99-485E-854D-77014E075997}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Objectifs de cet exercice</t>
   </si>
@@ -3982,30 +3981,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4082,13 +4071,37 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4098,12 +4111,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="53" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4118,6 +4131,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -4126,26 +4145,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4180,7 +4179,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8174,7 +8173,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401640"/>
@@ -8200,7 +8199,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143401248"/>
@@ -8218,7 +8217,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8244,7 +8243,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8311,7 +8310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12253,7 +12252,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12287,7 +12286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="952694944"/>
@@ -12315,7 +12314,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12349,7 +12348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="952709088"/>
@@ -12391,7 +12390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12421,7 +12420,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12435,7 +12434,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14464,7 +14463,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142439888"/>
@@ -14492,7 +14491,7 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143403992"/>
@@ -14512,7 +14511,7 @@
           <a:pPr>
             <a:defRPr sz="600"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15539,97 +15538,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:H21"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="4" customWidth="1"/>
-    <col min="7" max="10" width="8.28515625" style="5" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="0.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="0.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" style="33" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="0.5703125" style="33" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="0.5703125" style="33" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="0.5703125" style="33" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="0.5703125" style="33" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="4" customWidth="1"/>
+    <col min="7" max="10" width="8.26953125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="8.26953125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.26953125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="0.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="0.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="0.54296875" style="33" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="0.54296875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="0.54296875" style="33" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="0.54296875" style="33" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="0.54296875" style="33" customWidth="1"/>
+    <col min="28" max="28" width="9.453125" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="s">
+    <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-    </row>
-    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="223"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="223"/>
+    </row>
+    <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="220" t="s">
+      <c r="F4" s="224"/>
+      <c r="G4" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
       <c r="M4" s="21"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -15652,7 +15648,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -15665,12 +15661,12 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="87"/>
-      <c r="D7" s="229" t="s">
+      <c r="D7" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="229"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="178" t="s">
         <v>41</v>
       </c>
@@ -15688,10 +15684,10 @@
       </c>
       <c r="K7" s="160"/>
       <c r="L7" s="161"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="227"/>
-      <c r="P7" s="227"/>
+      <c r="M7" s="233"/>
+      <c r="N7" s="233"/>
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
@@ -15700,7 +15696,7 @@
       <c r="Y7" s="34"/>
       <c r="AA7" s="34"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="22"/>
       <c r="D8" s="12"/>
       <c r="E8" s="22"/>
@@ -15723,12 +15719,12 @@
       <c r="Y8" s="34"/>
       <c r="AA8" s="34"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="98"/>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="230"/>
+      <c r="E9" s="236"/>
       <c r="F9" s="180" t="s">
         <v>42</v>
       </c>
@@ -15742,10 +15738,10 @@
       <c r="J9" s="165"/>
       <c r="K9" s="165"/>
       <c r="L9" s="165"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="228"/>
-      <c r="P9" s="228"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="234"/>
       <c r="Q9" s="99"/>
       <c r="R9" s="90"/>
       <c r="S9" s="100"/>
@@ -15760,7 +15756,7 @@
       <c r="AB9" s="39"/>
       <c r="AC9" s="22"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="22"/>
       <c r="D10" s="12"/>
       <c r="E10" s="22"/>
@@ -15789,12 +15785,12 @@
       <c r="AB10" s="39"/>
       <c r="AC10" s="22"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="110"/>
-      <c r="D11" s="231" t="s">
+      <c r="D11" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="231"/>
+      <c r="E11" s="237"/>
       <c r="F11" s="181" t="s">
         <v>43</v>
       </c>
@@ -15810,10 +15806,10 @@
       <c r="J11" s="168"/>
       <c r="K11" s="168"/>
       <c r="L11" s="168"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="209"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="240"/>
+      <c r="O11" s="240"/>
+      <c r="P11" s="240"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
       <c r="S11" s="112"/>
@@ -15828,7 +15824,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="22"/>
     </row>
-    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -15857,12 +15853,12 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="22"/>
     </row>
-    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="122"/>
-      <c r="D13" s="232" t="s">
+      <c r="D13" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="232"/>
+      <c r="E13" s="238"/>
       <c r="F13" s="182" t="s">
         <v>44</v>
       </c>
@@ -15880,10 +15876,10 @@
       </c>
       <c r="K13" s="171"/>
       <c r="L13" s="171"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="208"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
       <c r="Q13" s="123"/>
       <c r="R13" s="93"/>
       <c r="S13" s="124"/>
@@ -15898,7 +15894,7 @@
       <c r="AB13" s="36"/>
       <c r="AC13" s="22"/>
     </row>
-    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="22"/>
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
@@ -15927,12 +15923,12 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="22"/>
     </row>
-    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="133"/>
-      <c r="D15" s="211" t="s">
+      <c r="D15" s="242" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="211"/>
+      <c r="E15" s="242"/>
       <c r="F15" s="183" t="s">
         <v>45</v>
       </c>
@@ -15952,10 +15948,10 @@
         <v>-20</v>
       </c>
       <c r="L15" s="174"/>
-      <c r="M15" s="210"/>
-      <c r="N15" s="210"/>
-      <c r="O15" s="210"/>
-      <c r="P15" s="210"/>
+      <c r="M15" s="241"/>
+      <c r="N15" s="241"/>
+      <c r="O15" s="241"/>
+      <c r="P15" s="241"/>
       <c r="Q15" s="135"/>
       <c r="R15" s="94"/>
       <c r="S15" s="136"/>
@@ -15970,7 +15966,7 @@
       <c r="AB15" s="38"/>
       <c r="AC15" s="22"/>
     </row>
-    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="22"/>
       <c r="D16" s="12"/>
       <c r="E16" s="22"/>
@@ -15999,12 +15995,12 @@
       <c r="AB16" s="38"/>
       <c r="AC16" s="22"/>
     </row>
-    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="143"/>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="213"/>
+      <c r="E17" s="244"/>
       <c r="F17" s="184" t="s">
         <v>46</v>
       </c>
@@ -16022,10 +16018,10 @@
       </c>
       <c r="K17" s="177"/>
       <c r="L17" s="177"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
-      <c r="O17" s="212"/>
-      <c r="P17" s="212"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="243"/>
       <c r="Q17" s="145"/>
       <c r="R17" s="90"/>
       <c r="S17" s="144"/>
@@ -16040,7 +16036,7 @@
       <c r="AB17" s="146"/>
       <c r="AC17" s="22"/>
     </row>
-    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M18" s="33"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="95"/>
@@ -16050,7 +16046,7 @@
       <c r="Z18" s="140"/>
       <c r="AB18" s="147"/>
     </row>
-    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="95"/>
@@ -16060,26 +16056,26 @@
       <c r="Z19" s="140"/>
       <c r="AB19" s="147"/>
     </row>
-    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="218" t="s">
+      <c r="E20" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="222"/>
-      <c r="G20" s="225" t="s">
+      <c r="F20" s="228"/>
+      <c r="G20" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="214"/>
-      <c r="I20" s="214" t="s">
+      <c r="H20" s="220"/>
+      <c r="I20" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="214"/>
-      <c r="K20" s="214" t="s">
+      <c r="J20" s="220"/>
+      <c r="K20" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="215"/>
+      <c r="L20" s="221"/>
       <c r="M20" s="44"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -16092,25 +16088,25 @@
       <c r="Z20" s="140"/>
       <c r="AB20" s="147"/>
     </row>
-    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="226">
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="232">
         <v>-10</v>
       </c>
-      <c r="H21" s="226"/>
-      <c r="I21" s="226">
+      <c r="H21" s="232"/>
+      <c r="I21" s="232">
         <v>0.2</v>
       </c>
-      <c r="J21" s="226"/>
-      <c r="K21" s="216">
+      <c r="J21" s="232"/>
+      <c r="K21" s="222">
         <f>G21+100*I21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="216"/>
+      <c r="L21" s="222"/>
       <c r="M21" s="47"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -16123,7 +16119,7 @@
       <c r="Z21" s="140"/>
       <c r="AB21" s="147"/>
     </row>
-    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P22" s="50"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="95"/>
@@ -16133,7 +16129,7 @@
       <c r="Z22" s="140"/>
       <c r="AB22" s="147"/>
     </row>
-    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P23" s="50"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="95"/>
@@ -16143,7 +16139,7 @@
       <c r="Z23" s="140"/>
       <c r="AB23" s="147"/>
     </row>
-    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" s="7" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -16183,7 +16179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="N25" s="53">
         <v>1</v>
@@ -16224,7 +16220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="53">
         <v>2</v>
       </c>
@@ -16264,7 +16260,7 @@
         <v>48.176784432060458</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="53">
         <v>3</v>
       </c>
@@ -16304,7 +16300,7 @@
         <v>46.635277633787879</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -16352,7 +16348,7 @@
         <v>45.299963707542659</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -16400,7 +16396,7 @@
         <v>44.122133350978828</v>
       </c>
     </row>
-    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -16448,7 +16444,7 @@
         <v>43.068528194400564</v>
       </c>
     </row>
-    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -16496,7 +16492,7 @@
         <v>42.115426396357314</v>
       </c>
     </row>
-    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -16544,7 +16540,7 @@
         <v>41.245312626461022</v>
       </c>
     </row>
-    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -16592,7 +16588,7 @@
         <v>40.444885549725655</v>
       </c>
     </row>
-    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -16640,7 +16636,7 @@
         <v>39.703805828188443</v>
       </c>
     </row>
-    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -16688,7 +16684,7 @@
         <v>39.013877113318927</v>
       </c>
     </row>
-    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -16736,7 +16732,7 @@
         <v>38.368491901943216</v>
       </c>
     </row>
-    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -16784,7 +16780,7 @@
         <v>37.762245683778865</v>
       </c>
     </row>
-    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -16832,7 +16828,7 @@
         <v>37.190661545379378</v>
       </c>
     </row>
-    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -16880,7 +16876,7 @@
         <v>36.649989332676611</v>
       </c>
     </row>
-    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -16928,7 +16924,7 @@
         <v>36.137056388801113</v>
       </c>
     </row>
-    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -16976,7 +16972,7 @@
         <v>35.649154747106792</v>
       </c>
     </row>
-    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -17024,7 +17020,7 @@
         <v>35.183954590757857</v>
       </c>
     </row>
-    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -17072,7 +17068,7 @@
         <v>34.739436965049521</v>
       </c>
     </row>
-    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -17120,7 +17116,7 @@
         <v>34.313840820861557</v>
       </c>
     </row>
-    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -17168,7 +17164,7 @@
         <v>33.905620875659011</v>
       </c>
     </row>
-    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -17216,7 +17212,7 @@
         <v>33.513413744126197</v>
       </c>
     </row>
-    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -17264,7 +17260,7 @@
         <v>33.136010464297726</v>
       </c>
     </row>
-    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -17312,7 +17308,7 @@
         <v>32.772334022588979</v>
       </c>
     </row>
-    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -17360,7 +17356,7 @@
         <v>32.421420824476272</v>
       </c>
     </row>
-    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -17408,7 +17404,7 @@
         <v>32.082405307719455</v>
       </c>
     </row>
-    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -17456,7 +17452,7 @@
         <v>31.754507079489549</v>
       </c>
     </row>
-    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -17504,7 +17500,7 @@
         <v>31.437020096343744</v>
       </c>
     </row>
-    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -17552,7 +17548,7 @@
         <v>31.129303509676205</v>
       </c>
     </row>
-    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -17600,7 +17596,7 @@
         <v>30.830773878179397</v>
       </c>
     </row>
-    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -17648,7 +17644,7 @@
         <v>30.540898509446873</v>
       </c>
     </row>
-    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -17696,7 +17692,7 @@
         <v>30.259189739779909</v>
       </c>
     </row>
-    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -17744,7 +17740,7 @@
         <v>29.985199997898761</v>
       </c>
     </row>
-    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -17792,7 +17788,7 @@
         <v>29.718517527077147</v>
       </c>
     </row>
-    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -17840,7 +17836,7 @@
         <v>29.458762663044542</v>
       </c>
     </row>
-    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -17888,7 +17884,7 @@
         <v>29.205584583201642</v>
       </c>
     </row>
-    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -17936,7 +17932,7 @@
         <v>28.958658457297929</v>
       </c>
     </row>
-    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -17984,7 +17980,7 @@
         <v>28.71768294150732</v>
       </c>
     </row>
-    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -18032,7 +18028,7 @@
         <v>28.48237796740538</v>
       </c>
     </row>
-    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -18080,7 +18076,7 @@
         <v>28.252482785158396</v>
       </c>
     </row>
-    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -18128,7 +18124,7 @@
         <v>28.027754226637811</v>
       </c>
     </row>
-    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -18176,7 +18172,7 @@
         <v>27.807965159450056</v>
       </c>
     </row>
-    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -18224,7 +18220,7 @@
         <v>27.592903107240421</v>
       </c>
     </row>
-    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -18272,7 +18268,7 @@
         <v>27.3823690152621</v>
       </c>
     </row>
-    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -18320,7 +18316,7 @@
         <v>27.176176143234741</v>
       </c>
     </row>
-    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -18368,7 +18364,7 @@
         <v>26.974149070059546</v>
       </c>
     </row>
-    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -18416,7 +18412,7 @@
         <v>26.776122797097749</v>
       </c>
     </row>
-    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -18464,7 +18460,7 @@
         <v>26.581941938526729</v>
       </c>
     </row>
-    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N73" s="53">
         <v>49</v>
       </c>
@@ -18502,7 +18498,7 @@
         <v>26.391459988819786</v>
       </c>
     </row>
-    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N74" s="53">
         <v>50</v>
       </c>
@@ -18540,7 +18536,7 @@
         <v>26.204538658698265</v>
       </c>
     </row>
-    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N75" s="53">
         <v>51</v>
       </c>
@@ -18578,7 +18574,7 @@
         <v>26.021047272016297</v>
       </c>
     </row>
-    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N76" s="53">
         <v>52</v>
       </c>
@@ -18616,7 +18612,7 @@
         <v>25.840862216989514</v>
       </c>
     </row>
-    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N77" s="53">
         <v>53</v>
       </c>
@@ -18654,7 +18650,7 @@
         <v>25.663866445995502</v>
       </c>
     </row>
-    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N78" s="53">
         <v>54</v>
       </c>
@@ -18692,7 +18688,7 @@
         <v>25.489949018876814</v>
       </c>
     </row>
-    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N79" s="53">
         <v>55</v>
       </c>
@@ -18730,7 +18726,7 @@
         <v>25.319004685283812</v>
       </c>
     </row>
-    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N80" s="53">
         <v>56</v>
       </c>
@@ -18768,7 +18764,7 @@
         <v>25.150933502119997</v>
       </c>
     </row>
-    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N81" s="53">
         <v>57</v>
       </c>
@@ -18806,7 +18802,7 @@
         <v>24.985640482607891</v>
       </c>
     </row>
-    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N82" s="53">
         <v>58</v>
       </c>
@@ -18844,7 +18840,7 @@
         <v>24.823035273890088</v>
       </c>
     </row>
-    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N83" s="53">
         <v>59</v>
       </c>
@@ -18882,7 +18878,7 @@
         <v>24.663031860425679</v>
       </c>
     </row>
-    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N84" s="53">
         <v>60</v>
       </c>
@@ -18920,7 +18916,7 @@
         <v>24.505548290744287</v>
       </c>
     </row>
-    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N85" s="53">
         <v>61</v>
       </c>
@@ -18958,7 +18954,7 @@
         <v>24.350506425384634</v>
       </c>
     </row>
-    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N86" s="53">
         <v>62</v>
       </c>
@@ -18996,7 +18992,7 @@
         <v>24.197831704076748</v>
       </c>
     </row>
-    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N87" s="53">
         <v>63</v>
       </c>
@@ -19034,7 +19030,7 @@
         <v>24.047452930431344</v>
       </c>
     </row>
-    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N88" s="53">
         <v>64</v>
       </c>
@@ -19072,7 +19068,7 @@
         <v>23.899302072579939</v>
       </c>
     </row>
-    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N89" s="53">
         <v>65</v>
       </c>
@@ -19110,7 +19106,7 @@
         <v>23.753314078368412</v>
       </c>
     </row>
-    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N90" s="53">
         <v>66</v>
       </c>
@@ -19148,7 +19144,7 @@
         <v>23.609426703847415</v>
       </c>
     </row>
-    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N91" s="53">
         <v>67</v>
       </c>
@@ -19186,7 +19182,7 @@
         <v>23.46758035392785</v>
       </c>
     </row>
-    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N92" s="53">
         <v>68</v>
       </c>
@@ -19224,7 +19220,7 @@
         <v>23.327717934180452</v>
       </c>
     </row>
-    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N93" s="53">
         <v>69</v>
       </c>
@@ -19262,7 +19258,7 @@
         <v>23.18978471285709</v>
       </c>
     </row>
-    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N94" s="53">
         <v>70</v>
       </c>
@@ -19300,7 +19296,7 @@
         <v>23.053728192299307</v>
       </c>
     </row>
-    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N95" s="53">
         <v>71</v>
       </c>
@@ -19338,7 +19334,7 @@
         <v>22.919497988977898</v>
       </c>
     </row>
-    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N96" s="53">
         <v>72</v>
       </c>
@@ -19376,7 +19372,7 @@
         <v>22.787045721477696</v>
       </c>
     </row>
-    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N97" s="53">
         <v>73</v>
       </c>
@@ -19414,7 +19410,7 @@
         <v>22.656324905804169</v>
       </c>
     </row>
-    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N98" s="53">
         <v>74</v>
       </c>
@@ -19452,7 +19448,7 @@
         <v>22.527290857445088</v>
       </c>
     </row>
-    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N99" s="53">
         <v>75</v>
       </c>
@@ -19490,7 +19486,7 @@
         <v>22.39990059967079</v>
       </c>
     </row>
-    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N100" s="53">
         <v>76</v>
       </c>
@@ -19528,7 +19524,7 @@
         <v>22.274112777602188</v>
       </c>
     </row>
-    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N101" s="53">
         <v>77</v>
       </c>
@@ -19566,7 +19562,7 @@
         <v>22.149887577616617</v>
       </c>
     </row>
-    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N102" s="53">
         <v>78</v>
       </c>
@@ -19604,7 +19600,7 @@
         <v>22.027186651698472</v>
       </c>
     </row>
-    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N103" s="53">
         <v>79</v>
       </c>
@@ -19642,7 +19638,7 @@
         <v>21.905973046375024</v>
       </c>
     </row>
-    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N104" s="53">
         <v>80</v>
       </c>
@@ -19680,7 +19676,7 @@
         <v>21.786211135907866</v>
       </c>
     </row>
-    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N105" s="53">
         <v>81</v>
       </c>
@@ -19718,7 +19714,7 @@
         <v>21.66786655943784</v>
       </c>
     </row>
-    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N106" s="53">
         <v>82</v>
       </c>
@@ -19756,7 +19752,7 @@
         <v>21.550906161805923</v>
       </c>
     </row>
-    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N107" s="53">
         <v>83</v>
       </c>
@@ -19794,7 +19790,7 @@
         <v>21.435297937795163</v>
       </c>
     </row>
-    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N108" s="53">
         <v>84</v>
       </c>
@@ -19832,7 +19828,7 @@
         <v>21.321010979558935</v>
       </c>
     </row>
-    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N109" s="53">
         <v>85</v>
       </c>
@@ -19870,7 +19866,7 @@
         <v>21.208015427019603</v>
       </c>
     </row>
-    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N110" s="53">
         <v>86</v>
       </c>
@@ -19908,7 +19904,7 @@
         <v>21.096282421038353</v>
       </c>
     </row>
-    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N111" s="53">
         <v>87</v>
       </c>
@@ -19946,7 +19942,7 @@
         <v>20.985784059172502</v>
       </c>
     </row>
-    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N112" s="53">
         <v>88</v>
       </c>
@@ -19984,7 +19980,7 @@
         <v>20.876493353850599</v>
       </c>
     </row>
-    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N113" s="53">
         <v>89</v>
       </c>
@@ -20022,7 +20018,7 @@
         <v>20.768384192808441</v>
       </c>
     </row>
-    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N114" s="53">
         <v>90</v>
       </c>
@@ -20060,7 +20056,7 @@
         <v>20.661431301640963</v>
       </c>
     </row>
-    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N115" s="53">
         <v>91</v>
       </c>
@@ -20098,7 +20094,7 @@
         <v>20.555610208335597</v>
       </c>
     </row>
-    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N116" s="53">
         <v>92</v>
       </c>
@@ -20136,7 +20132,7 @@
         <v>20.450897209662639</v>
       </c>
     </row>
-    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N117" s="53">
         <v>93</v>
       </c>
@@ -20174,7 +20170,7 @@
         <v>20.347269339307175</v>
       </c>
     </row>
-    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N118" s="53">
         <v>94</v>
       </c>
@@ -20212,7 +20208,7 @@
         <v>20.244704337635284</v>
       </c>
     </row>
-    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N119" s="53">
         <v>95</v>
       </c>
@@ -20250,7 +20246,7 @@
         <v>20.143180622995107</v>
       </c>
     </row>
-    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N120" s="53">
         <v>96</v>
       </c>
@@ -20288,7 +20284,7 @@
         <v>20.042677264460092</v>
       </c>
     </row>
-    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N121" s="53">
         <v>97</v>
       </c>
@@ -20326,7 +20322,7 @@
         <v>19.943173955928412</v>
       </c>
     </row>
-    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N122" s="53">
         <v>98</v>
       </c>
@@ -20364,7 +20360,7 @@
         <v>19.844650991498295</v>
       </c>
     </row>
-    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N123" s="53">
         <v>99</v>
       </c>
@@ -20402,7 +20398,7 @@
         <v>19.747089242044652</v>
       </c>
     </row>
-    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N124" s="53">
         <v>100</v>
       </c>
@@ -20440,7 +20436,7 @@
         <v>19.650470132927282</v>
       </c>
     </row>
-    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="14:28" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N125" s="53">
         <v>101</v>
       </c>
@@ -20481,6 +20477,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9NOS8jY5Ug7YrOY49rx7A6/cXCpIjF5Enxg4kw2PLmKKvG06duBf92zLgkT/MBeWCI1tXrFRs+R4hrI9dhXplw==" saltValue="nRjJWJch2cTa6A5Bi+wDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="22">
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B2:AB2"/>
@@ -20497,12 +20499,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20514,91 +20510,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1E6C65-06A5-4DD3-B3AB-3E980D2AF55D}">
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="H55" sqref="H55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="0.85546875" style="198" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="198" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="198" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="11.42578125" style="198"/>
-    <col min="15" max="15" width="0.5703125" style="198" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="198"/>
-    <col min="17" max="17" width="0.5703125" style="198" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="198"/>
-    <col min="19" max="19" width="0.5703125" style="198" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="198"/>
-    <col min="21" max="21" width="0.5703125" style="198" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="198"/>
-    <col min="23" max="23" width="0.5703125" style="198" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="198"/>
-    <col min="25" max="25" width="0.5703125" style="198" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="198"/>
-    <col min="27" max="27" width="0.5703125" style="198" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="198"/>
+    <col min="1" max="4" width="0.81640625" style="198" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="198" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="198" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="11.453125" style="198"/>
+    <col min="15" max="15" width="0.54296875" style="198" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" style="198"/>
+    <col min="17" max="17" width="0.54296875" style="198" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" style="198"/>
+    <col min="19" max="19" width="0.54296875" style="198" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" style="198"/>
+    <col min="21" max="21" width="0.54296875" style="198" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" style="198"/>
+    <col min="23" max="23" width="0.54296875" style="198" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="198"/>
+    <col min="25" max="25" width="0.54296875" style="198" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="198"/>
+    <col min="27" max="27" width="0.54296875" style="198" customWidth="1"/>
+    <col min="28" max="16384" width="11.453125" style="198"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="200"/>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="235"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="233" t="s">
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252"/>
+      <c r="AB2" s="252"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B4" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="234" t="s">
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="251" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="250"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
       <c r="G5" s="202" t="s">
         <v>16</v>
       </c>
@@ -20618,14 +20609,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="236" t="s">
+    <row r="6" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B7" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="198" t="s">
         <v>54</v>
       </c>
@@ -20644,7 +20635,7 @@
       <c r="K7" s="204"/>
       <c r="L7" s="204"/>
     </row>
-    <row r="8" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G8" s="204"/>
       <c r="H8" s="204"/>
       <c r="I8" s="204"/>
@@ -20652,13 +20643,13 @@
       <c r="K8" s="204"/>
       <c r="L8" s="204"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="236" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="248"/>
       <c r="F9" s="198" t="s">
         <v>55</v>
       </c>
@@ -20673,7 +20664,7 @@
       <c r="K9" s="204"/>
       <c r="L9" s="204"/>
     </row>
-    <row r="10" spans="1:28" ht="0.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="0.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="204"/>
       <c r="H10" s="204"/>
       <c r="I10" s="204"/>
@@ -20681,13 +20672,13 @@
       <c r="K10" s="204"/>
       <c r="L10" s="204"/>
     </row>
-    <row r="11" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="236" t="s">
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
       <c r="F11" s="198" t="s">
         <v>57</v>
       </c>
@@ -20704,7 +20695,7 @@
       <c r="K11" s="204"/>
       <c r="L11" s="204"/>
     </row>
-    <row r="12" spans="1:28" ht="0.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="0.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
@@ -20712,13 +20703,13 @@
       <c r="K12" s="204"/>
       <c r="L12" s="204"/>
     </row>
-    <row r="13" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="236" t="s">
+    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
       <c r="F13" s="198" t="s">
         <v>58</v>
       </c>
@@ -20737,7 +20728,7 @@
       <c r="K13" s="204"/>
       <c r="L13" s="204"/>
     </row>
-    <row r="14" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="0.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G14" s="204"/>
       <c r="H14" s="204"/>
       <c r="I14" s="204"/>
@@ -20745,13 +20736,13 @@
       <c r="K14" s="204"/>
       <c r="L14" s="204"/>
     </row>
-    <row r="15" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="236" t="s">
+    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="236"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
       <c r="F15" s="198" t="s">
         <v>59</v>
       </c>
@@ -20772,7 +20763,7 @@
       </c>
       <c r="L15" s="204"/>
     </row>
-    <row r="16" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="0.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G16" s="204"/>
       <c r="H16" s="204"/>
       <c r="I16" s="204"/>
@@ -20780,13 +20771,13 @@
       <c r="K16" s="204"/>
       <c r="L16" s="204"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="236" t="s">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B17" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
       <c r="F17" s="198" t="s">
         <v>56</v>
       </c>
@@ -20805,72 +20796,72 @@
       <c r="K17" s="204"/>
       <c r="L17" s="204"/>
     </row>
-    <row r="18" spans="2:28" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="237" t="s">
+    <row r="18" spans="2:28" ht="2.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B20" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="238" t="s">
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238" t="s">
+      <c r="H20" s="245"/>
+      <c r="I20" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238" t="s">
+      <c r="J20" s="245"/>
+      <c r="K20" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="238"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="237"/>
-      <c r="C21" s="237"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="237"/>
-      <c r="G21" s="239">
+      <c r="L20" s="245"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B21" s="249"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="246">
         <v>-10</v>
       </c>
-      <c r="H21" s="239"/>
-      <c r="I21" s="239">
+      <c r="H21" s="246"/>
+      <c r="I21" s="246">
         <v>0.2</v>
       </c>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240">
+      <c r="J21" s="246"/>
+      <c r="K21" s="247">
         <v>10</v>
       </c>
-      <c r="L21" s="240"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="246"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="248"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="249"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="251"/>
+      <c r="L21" s="247"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="210"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="213"/>
       <c r="P24" s="199" t="s">
         <v>21</v>
       </c>
@@ -20893,18 +20884,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="249"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="251"/>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="212"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="213"/>
       <c r="N25" s="206">
         <v>1</v>
       </c>
@@ -20943,18 +20934,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="249"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
-      <c r="L26" s="251"/>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="213"/>
       <c r="N26" s="206">
         <v>2</v>
       </c>
@@ -20993,18 +20984,18 @@
         <v>48.176784432060458</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="249"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="251"/>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="213"/>
       <c r="N27" s="206">
         <v>3</v>
       </c>
@@ -21043,18 +21034,18 @@
         <v>46.635277633787879</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="251"/>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="212"/>
+      <c r="L28" s="213"/>
       <c r="N28" s="206">
         <v>4</v>
       </c>
@@ -21093,18 +21084,18 @@
         <v>45.299963707542659</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="249"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
-      <c r="L29" s="251"/>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="212"/>
+      <c r="L29" s="213"/>
       <c r="N29" s="206">
         <v>5</v>
       </c>
@@ -21143,18 +21134,18 @@
         <v>44.122133350978828</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="249"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="250"/>
-      <c r="L30" s="251"/>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="213"/>
       <c r="N30" s="206">
         <v>6</v>
       </c>
@@ -21193,18 +21184,18 @@
         <v>43.068528194400564</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="249"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="250"/>
-      <c r="L31" s="251"/>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="212"/>
+      <c r="L31" s="213"/>
       <c r="N31" s="206">
         <v>7</v>
       </c>
@@ -21243,18 +21234,18 @@
         <v>42.115426396357314</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="249"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="250"/>
-      <c r="L32" s="251"/>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="212"/>
+      <c r="K32" s="212"/>
+      <c r="L32" s="213"/>
       <c r="N32" s="206">
         <v>8</v>
       </c>
@@ -21293,18 +21284,18 @@
         <v>41.245312626461022</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="249"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="250"/>
-      <c r="L33" s="251"/>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="213"/>
       <c r="N33" s="206">
         <v>9</v>
       </c>
@@ -21343,18 +21334,18 @@
         <v>40.444885549725655</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B34" s="249"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="250"/>
-      <c r="L34" s="251"/>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="212"/>
+      <c r="K34" s="212"/>
+      <c r="L34" s="213"/>
       <c r="N34" s="206">
         <v>10</v>
       </c>
@@ -21393,18 +21384,18 @@
         <v>39.703805828188443</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="249"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="250"/>
-      <c r="J35" s="250"/>
-      <c r="K35" s="250"/>
-      <c r="L35" s="251"/>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="213"/>
       <c r="N35" s="206">
         <v>11</v>
       </c>
@@ -21443,18 +21434,18 @@
         <v>39.013877113318927</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="249"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
-      <c r="I36" s="250"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="250"/>
-      <c r="L36" s="251"/>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="213"/>
       <c r="N36" s="206">
         <v>12</v>
       </c>
@@ -21493,18 +21484,18 @@
         <v>38.368491901943216</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="249"/>
-      <c r="C37" s="250"/>
-      <c r="D37" s="250"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="250"/>
-      <c r="J37" s="250"/>
-      <c r="K37" s="250"/>
-      <c r="L37" s="251"/>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="213"/>
       <c r="N37" s="206">
         <v>13</v>
       </c>
@@ -21543,18 +21534,18 @@
         <v>37.762245683778865</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="249"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="250"/>
-      <c r="H38" s="250"/>
-      <c r="I38" s="250"/>
-      <c r="J38" s="250"/>
-      <c r="K38" s="250"/>
-      <c r="L38" s="251"/>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B38" s="211"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="212"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
+      <c r="K38" s="212"/>
+      <c r="L38" s="213"/>
       <c r="N38" s="206">
         <v>14</v>
       </c>
@@ -21593,18 +21584,18 @@
         <v>37.190661545379378</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B39" s="249"/>
-      <c r="C39" s="250"/>
-      <c r="D39" s="250"/>
-      <c r="E39" s="250"/>
-      <c r="F39" s="250"/>
-      <c r="G39" s="250"/>
-      <c r="H39" s="250"/>
-      <c r="I39" s="250"/>
-      <c r="J39" s="250"/>
-      <c r="K39" s="250"/>
-      <c r="L39" s="251"/>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B39" s="211"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="213"/>
       <c r="N39" s="206">
         <v>15</v>
       </c>
@@ -21643,18 +21634,18 @@
         <v>36.649989332676611</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="249"/>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
-      <c r="E40" s="250"/>
-      <c r="F40" s="250"/>
-      <c r="G40" s="250"/>
-      <c r="H40" s="250"/>
-      <c r="I40" s="250"/>
-      <c r="J40" s="250"/>
-      <c r="K40" s="250"/>
-      <c r="L40" s="251"/>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B40" s="211"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="212"/>
+      <c r="L40" s="213"/>
       <c r="N40" s="206">
         <v>16</v>
       </c>
@@ -21693,18 +21684,18 @@
         <v>36.137056388801113</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B41" s="249"/>
-      <c r="C41" s="250"/>
-      <c r="D41" s="250"/>
-      <c r="E41" s="250"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="250"/>
-      <c r="H41" s="250"/>
-      <c r="I41" s="250"/>
-      <c r="J41" s="250"/>
-      <c r="K41" s="250"/>
-      <c r="L41" s="251"/>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B41" s="211"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="212"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="212"/>
+      <c r="K41" s="212"/>
+      <c r="L41" s="213"/>
       <c r="N41" s="206">
         <v>17</v>
       </c>
@@ -21743,18 +21734,18 @@
         <v>35.649154747106792</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="249"/>
-      <c r="C42" s="250"/>
-      <c r="D42" s="250"/>
-      <c r="E42" s="250"/>
-      <c r="F42" s="250"/>
-      <c r="G42" s="250"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="250"/>
-      <c r="J42" s="250"/>
-      <c r="K42" s="250"/>
-      <c r="L42" s="251"/>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B42" s="211"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="213"/>
       <c r="N42" s="206">
         <v>18</v>
       </c>
@@ -21793,18 +21784,18 @@
         <v>35.183954590757857</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="250"/>
-      <c r="F43" s="250"/>
-      <c r="G43" s="250"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="250"/>
-      <c r="J43" s="250"/>
-      <c r="K43" s="250"/>
-      <c r="L43" s="251"/>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B43" s="211"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="212"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="212"/>
+      <c r="J43" s="212"/>
+      <c r="K43" s="212"/>
+      <c r="L43" s="213"/>
       <c r="N43" s="206">
         <v>19</v>
       </c>
@@ -21843,18 +21834,18 @@
         <v>34.739436965049521</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B44" s="249"/>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="251"/>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B44" s="211"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
+      <c r="K44" s="212"/>
+      <c r="L44" s="213"/>
       <c r="N44" s="206">
         <v>20</v>
       </c>
@@ -21893,18 +21884,18 @@
         <v>34.313840820861557</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B45" s="249"/>
-      <c r="C45" s="250"/>
-      <c r="D45" s="250"/>
-      <c r="E45" s="250"/>
-      <c r="F45" s="250"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="250"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="250"/>
-      <c r="K45" s="250"/>
-      <c r="L45" s="251"/>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B45" s="211"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="213"/>
       <c r="N45" s="206">
         <v>21</v>
       </c>
@@ -21943,18 +21934,18 @@
         <v>33.905620875659011</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B46" s="249"/>
-      <c r="C46" s="250"/>
-      <c r="D46" s="250"/>
-      <c r="E46" s="250"/>
-      <c r="F46" s="250"/>
-      <c r="G46" s="250"/>
-      <c r="H46" s="250"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="250"/>
-      <c r="K46" s="250"/>
-      <c r="L46" s="251"/>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B46" s="211"/>
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
+      <c r="L46" s="213"/>
       <c r="N46" s="206">
         <v>22</v>
       </c>
@@ -21993,18 +21984,18 @@
         <v>33.513413744126197</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B47" s="249"/>
-      <c r="C47" s="250"/>
-      <c r="D47" s="250"/>
-      <c r="E47" s="250"/>
-      <c r="F47" s="250"/>
-      <c r="G47" s="250"/>
-      <c r="H47" s="250"/>
-      <c r="I47" s="250"/>
-      <c r="J47" s="250"/>
-      <c r="K47" s="250"/>
-      <c r="L47" s="251"/>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B47" s="211"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="212"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="212"/>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
+      <c r="J47" s="212"/>
+      <c r="K47" s="212"/>
+      <c r="L47" s="213"/>
       <c r="N47" s="206">
         <v>23</v>
       </c>
@@ -22043,18 +22034,18 @@
         <v>33.136010464297726</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B48" s="249"/>
-      <c r="C48" s="250"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="250"/>
-      <c r="F48" s="250"/>
-      <c r="G48" s="250"/>
-      <c r="H48" s="250"/>
-      <c r="I48" s="250"/>
-      <c r="J48" s="250"/>
-      <c r="K48" s="250"/>
-      <c r="L48" s="251"/>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B48" s="211"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="213"/>
       <c r="N48" s="206">
         <v>24</v>
       </c>
@@ -22093,18 +22084,18 @@
         <v>32.772334022588979</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B49" s="249"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
-      <c r="K49" s="250"/>
-      <c r="L49" s="251"/>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B49" s="211"/>
+      <c r="C49" s="212"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="212"/>
+      <c r="J49" s="212"/>
+      <c r="K49" s="212"/>
+      <c r="L49" s="213"/>
       <c r="N49" s="206">
         <v>25</v>
       </c>
@@ -22143,18 +22134,18 @@
         <v>32.421420824476272</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B50" s="249"/>
-      <c r="C50" s="250"/>
-      <c r="D50" s="250"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="250"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="250"/>
-      <c r="I50" s="250"/>
-      <c r="J50" s="250"/>
-      <c r="K50" s="250"/>
-      <c r="L50" s="251"/>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B50" s="211"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="212"/>
+      <c r="E50" s="212"/>
+      <c r="F50" s="212"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="212"/>
+      <c r="I50" s="212"/>
+      <c r="J50" s="212"/>
+      <c r="K50" s="212"/>
+      <c r="L50" s="213"/>
       <c r="N50" s="206">
         <v>26</v>
       </c>
@@ -22193,18 +22184,18 @@
         <v>32.082405307719455</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B51" s="249"/>
-      <c r="C51" s="250"/>
-      <c r="D51" s="250"/>
-      <c r="E51" s="250"/>
-      <c r="F51" s="250"/>
-      <c r="G51" s="250"/>
-      <c r="H51" s="250"/>
-      <c r="I51" s="250"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="251"/>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B51" s="211"/>
+      <c r="C51" s="212"/>
+      <c r="D51" s="212"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="212"/>
+      <c r="K51" s="212"/>
+      <c r="L51" s="213"/>
       <c r="N51" s="206">
         <v>27</v>
       </c>
@@ -22243,18 +22234,18 @@
         <v>31.754507079489549</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B52" s="249"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="250"/>
-      <c r="F52" s="250"/>
-      <c r="G52" s="250"/>
-      <c r="H52" s="250"/>
-      <c r="I52" s="250"/>
-      <c r="J52" s="250"/>
-      <c r="K52" s="250"/>
-      <c r="L52" s="251"/>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B52" s="211"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="212"/>
+      <c r="F52" s="212"/>
+      <c r="G52" s="212"/>
+      <c r="H52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="212"/>
+      <c r="K52" s="212"/>
+      <c r="L52" s="213"/>
       <c r="N52" s="206">
         <v>28</v>
       </c>
@@ -22293,18 +22284,18 @@
         <v>31.437020096343744</v>
       </c>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B53" s="252"/>
-      <c r="C53" s="253"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="253"/>
-      <c r="F53" s="253"/>
-      <c r="G53" s="253"/>
-      <c r="H53" s="253"/>
-      <c r="I53" s="253"/>
-      <c r="J53" s="253"/>
-      <c r="K53" s="253"/>
-      <c r="L53" s="254"/>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B53" s="214"/>
+      <c r="C53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="215"/>
+      <c r="F53" s="215"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="215"/>
+      <c r="L53" s="216"/>
       <c r="N53" s="206">
         <v>29</v>
       </c>
@@ -22343,7 +22334,7 @@
         <v>31.129303509676205</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N54" s="206">
         <v>30</v>
       </c>
@@ -22382,7 +22373,7 @@
         <v>30.830773878179397</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N55" s="206">
         <v>31</v>
       </c>
@@ -22421,7 +22412,7 @@
         <v>30.540898509446873</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N56" s="206">
         <v>32</v>
       </c>
@@ -22460,7 +22451,7 @@
         <v>30.259189739779909</v>
       </c>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N57" s="206">
         <v>33</v>
       </c>
@@ -22499,7 +22490,7 @@
         <v>29.985199997898761</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N58" s="206">
         <v>34</v>
       </c>
@@ -22538,7 +22529,7 @@
         <v>29.718517527077147</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N59" s="206">
         <v>35</v>
       </c>
@@ -22577,7 +22568,7 @@
         <v>29.458762663044542</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N60" s="206">
         <v>36</v>
       </c>
@@ -22616,7 +22607,7 @@
         <v>29.205584583201642</v>
       </c>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N61" s="206">
         <v>37</v>
       </c>
@@ -22655,7 +22646,7 @@
         <v>28.958658457297929</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N62" s="206">
         <v>38</v>
       </c>
@@ -22694,7 +22685,7 @@
         <v>28.71768294150732</v>
       </c>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N63" s="206">
         <v>39</v>
       </c>
@@ -22733,7 +22724,7 @@
         <v>28.48237796740538</v>
       </c>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N64" s="206">
         <v>40</v>
       </c>
@@ -22772,7 +22763,7 @@
         <v>28.252482785158396</v>
       </c>
     </row>
-    <row r="65" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N65" s="206">
         <v>41</v>
       </c>
@@ -22811,7 +22802,7 @@
         <v>28.027754226637811</v>
       </c>
     </row>
-    <row r="66" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N66" s="206">
         <v>42</v>
       </c>
@@ -22850,7 +22841,7 @@
         <v>27.807965159450056</v>
       </c>
     </row>
-    <row r="67" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N67" s="206">
         <v>43</v>
       </c>
@@ -22889,7 +22880,7 @@
         <v>27.592903107240421</v>
       </c>
     </row>
-    <row r="68" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N68" s="206">
         <v>44</v>
       </c>
@@ -22928,7 +22919,7 @@
         <v>27.3823690152621</v>
       </c>
     </row>
-    <row r="69" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N69" s="206">
         <v>45</v>
       </c>
@@ -22967,7 +22958,7 @@
         <v>27.176176143234741</v>
       </c>
     </row>
-    <row r="70" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N70" s="206">
         <v>46</v>
       </c>
@@ -23006,7 +22997,7 @@
         <v>26.974149070059546</v>
       </c>
     </row>
-    <row r="71" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N71" s="206">
         <v>47</v>
       </c>
@@ -23045,7 +23036,7 @@
         <v>26.776122797097749</v>
       </c>
     </row>
-    <row r="72" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N72" s="206">
         <v>48</v>
       </c>
@@ -23084,7 +23075,7 @@
         <v>26.581941938526729</v>
       </c>
     </row>
-    <row r="73" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N73" s="206">
         <v>49</v>
       </c>
@@ -23123,7 +23114,7 @@
         <v>26.391459988819786</v>
       </c>
     </row>
-    <row r="74" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N74" s="206">
         <v>50</v>
       </c>
@@ -23162,7 +23153,7 @@
         <v>26.204538658698265</v>
       </c>
     </row>
-    <row r="75" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N75" s="206">
         <v>51</v>
       </c>
@@ -23201,7 +23192,7 @@
         <v>26.021047272016297</v>
       </c>
     </row>
-    <row r="76" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N76" s="206">
         <v>52</v>
       </c>
@@ -23240,7 +23231,7 @@
         <v>25.840862216989514</v>
       </c>
     </row>
-    <row r="77" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N77" s="206">
         <v>53</v>
       </c>
@@ -23279,7 +23270,7 @@
         <v>25.663866445995502</v>
       </c>
     </row>
-    <row r="78" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N78" s="206">
         <v>54</v>
       </c>
@@ -23318,7 +23309,7 @@
         <v>25.489949018876814</v>
       </c>
     </row>
-    <row r="79" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N79" s="206">
         <v>55</v>
       </c>
@@ -23357,7 +23348,7 @@
         <v>25.319004685283812</v>
       </c>
     </row>
-    <row r="80" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N80" s="206">
         <v>56</v>
       </c>
@@ -23396,7 +23387,7 @@
         <v>25.150933502119997</v>
       </c>
     </row>
-    <row r="81" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N81" s="206">
         <v>57</v>
       </c>
@@ -23435,7 +23426,7 @@
         <v>24.985640482607891</v>
       </c>
     </row>
-    <row r="82" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N82" s="206">
         <v>58</v>
       </c>
@@ -23474,7 +23465,7 @@
         <v>24.823035273890088</v>
       </c>
     </row>
-    <row r="83" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N83" s="206">
         <v>59</v>
       </c>
@@ -23513,7 +23504,7 @@
         <v>24.663031860425679</v>
       </c>
     </row>
-    <row r="84" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N84" s="206">
         <v>60</v>
       </c>
@@ -23552,7 +23543,7 @@
         <v>24.505548290744287</v>
       </c>
     </row>
-    <row r="85" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N85" s="206">
         <v>61</v>
       </c>
@@ -23591,7 +23582,7 @@
         <v>24.350506425384634</v>
       </c>
     </row>
-    <row r="86" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N86" s="206">
         <v>62</v>
       </c>
@@ -23630,7 +23621,7 @@
         <v>24.197831704076748</v>
       </c>
     </row>
-    <row r="87" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N87" s="206">
         <v>63</v>
       </c>
@@ -23669,7 +23660,7 @@
         <v>24.047452930431344</v>
       </c>
     </row>
-    <row r="88" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N88" s="206">
         <v>64</v>
       </c>
@@ -23708,7 +23699,7 @@
         <v>23.899302072579939</v>
       </c>
     </row>
-    <row r="89" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N89" s="206">
         <v>65</v>
       </c>
@@ -23747,7 +23738,7 @@
         <v>23.753314078368412</v>
       </c>
     </row>
-    <row r="90" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N90" s="206">
         <v>66</v>
       </c>
@@ -23786,7 +23777,7 @@
         <v>23.609426703847415</v>
       </c>
     </row>
-    <row r="91" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N91" s="206">
         <v>67</v>
       </c>
@@ -23825,7 +23816,7 @@
         <v>23.46758035392785</v>
       </c>
     </row>
-    <row r="92" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N92" s="206">
         <v>68</v>
       </c>
@@ -23864,7 +23855,7 @@
         <v>23.327717934180452</v>
       </c>
     </row>
-    <row r="93" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N93" s="206">
         <v>69</v>
       </c>
@@ -23903,7 +23894,7 @@
         <v>23.18978471285709</v>
       </c>
     </row>
-    <row r="94" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N94" s="206">
         <v>70</v>
       </c>
@@ -23942,7 +23933,7 @@
         <v>23.053728192299307</v>
       </c>
     </row>
-    <row r="95" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N95" s="206">
         <v>71</v>
       </c>
@@ -23981,7 +23972,7 @@
         <v>22.919497988977898</v>
       </c>
     </row>
-    <row r="96" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N96" s="206">
         <v>72</v>
       </c>
@@ -24020,7 +24011,7 @@
         <v>22.787045721477696</v>
       </c>
     </row>
-    <row r="97" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N97" s="206">
         <v>73</v>
       </c>
@@ -24059,7 +24050,7 @@
         <v>22.656324905804169</v>
       </c>
     </row>
-    <row r="98" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N98" s="206">
         <v>74</v>
       </c>
@@ -24098,7 +24089,7 @@
         <v>22.527290857445088</v>
       </c>
     </row>
-    <row r="99" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N99" s="206">
         <v>75</v>
       </c>
@@ -24137,7 +24128,7 @@
         <v>22.39990059967079</v>
       </c>
     </row>
-    <row r="100" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N100" s="206">
         <v>76</v>
       </c>
@@ -24176,7 +24167,7 @@
         <v>22.274112777602188</v>
       </c>
     </row>
-    <row r="101" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N101" s="206">
         <v>77</v>
       </c>
@@ -24215,7 +24206,7 @@
         <v>22.149887577616617</v>
       </c>
     </row>
-    <row r="102" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N102" s="206">
         <v>78</v>
       </c>
@@ -24254,7 +24245,7 @@
         <v>22.027186651698472</v>
       </c>
     </row>
-    <row r="103" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N103" s="206">
         <v>79</v>
       </c>
@@ -24293,7 +24284,7 @@
         <v>21.905973046375024</v>
       </c>
     </row>
-    <row r="104" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N104" s="206">
         <v>80</v>
       </c>
@@ -24332,7 +24323,7 @@
         <v>21.786211135907866</v>
       </c>
     </row>
-    <row r="105" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N105" s="206">
         <v>81</v>
       </c>
@@ -24371,7 +24362,7 @@
         <v>21.66786655943784</v>
       </c>
     </row>
-    <row r="106" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N106" s="206">
         <v>82</v>
       </c>
@@ -24410,7 +24401,7 @@
         <v>21.550906161805923</v>
       </c>
     </row>
-    <row r="107" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N107" s="206">
         <v>83</v>
       </c>
@@ -24449,7 +24440,7 @@
         <v>21.435297937795163</v>
       </c>
     </row>
-    <row r="108" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N108" s="206">
         <v>84</v>
       </c>
@@ -24488,7 +24479,7 @@
         <v>21.321010979558935</v>
       </c>
     </row>
-    <row r="109" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N109" s="206">
         <v>85</v>
       </c>
@@ -24527,7 +24518,7 @@
         <v>21.208015427019603</v>
       </c>
     </row>
-    <row r="110" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N110" s="206">
         <v>86</v>
       </c>
@@ -24566,7 +24557,7 @@
         <v>21.096282421038353</v>
       </c>
     </row>
-    <row r="111" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N111" s="206">
         <v>87</v>
       </c>
@@ -24605,7 +24596,7 @@
         <v>20.985784059172502</v>
       </c>
     </row>
-    <row r="112" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N112" s="206">
         <v>88</v>
       </c>
@@ -24644,7 +24635,7 @@
         <v>20.876493353850599</v>
       </c>
     </row>
-    <row r="113" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N113" s="206">
         <v>89</v>
       </c>
@@ -24683,7 +24674,7 @@
         <v>20.768384192808441</v>
       </c>
     </row>
-    <row r="114" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N114" s="206">
         <v>90</v>
       </c>
@@ -24722,7 +24713,7 @@
         <v>20.661431301640963</v>
       </c>
     </row>
-    <row r="115" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N115" s="206">
         <v>91</v>
       </c>
@@ -24761,7 +24752,7 @@
         <v>20.555610208335597</v>
       </c>
     </row>
-    <row r="116" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N116" s="206">
         <v>92</v>
       </c>
@@ -24800,7 +24791,7 @@
         <v>20.450897209662639</v>
       </c>
     </row>
-    <row r="117" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N117" s="206">
         <v>93</v>
       </c>
@@ -24839,7 +24830,7 @@
         <v>20.347269339307175</v>
       </c>
     </row>
-    <row r="118" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N118" s="206">
         <v>94</v>
       </c>
@@ -24878,7 +24869,7 @@
         <v>20.244704337635284</v>
       </c>
     </row>
-    <row r="119" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N119" s="206">
         <v>95</v>
       </c>
@@ -24917,7 +24908,7 @@
         <v>20.143180622995107</v>
       </c>
     </row>
-    <row r="120" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N120" s="206">
         <v>96</v>
       </c>
@@ -24956,7 +24947,7 @@
         <v>20.042677264460092</v>
       </c>
     </row>
-    <row r="121" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N121" s="206">
         <v>97</v>
       </c>
@@ -24995,7 +24986,7 @@
         <v>19.943173955928412</v>
       </c>
     </row>
-    <row r="122" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N122" s="206">
         <v>98</v>
       </c>
@@ -25034,7 +25025,7 @@
         <v>19.844650991498295</v>
       </c>
     </row>
-    <row r="123" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N123" s="206">
         <v>99</v>
       </c>
@@ -25073,7 +25064,7 @@
         <v>19.747089242044652</v>
       </c>
     </row>
-    <row r="124" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N124" s="206">
         <v>100</v>
       </c>
@@ -25112,7 +25103,7 @@
         <v>19.650470132927282</v>
       </c>
     </row>
-    <row r="125" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="14:28" x14ac:dyDescent="0.35">
       <c r="N125" s="206">
         <v>101</v>
       </c>
@@ -25153,22 +25144,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:F21"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B2:AB2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25180,46 +25171,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U119"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="E18" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="0.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="11.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0.5703125" style="33" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0.5703125" style="33" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" style="4" customWidth="1"/>
+    <col min="7" max="10" width="11.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0.54296875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="217" t="s">
+    <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -25231,20 +25219,20 @@
       <c r="S2" s="70"/>
       <c r="T2" s="70"/>
     </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="220" t="s">
+      <c r="F4" s="224"/>
+      <c r="G4" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
       <c r="K4" s="56"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -25256,11 +25244,11 @@
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
     </row>
-    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -25284,7 +25272,7 @@
       <c r="S5" s="54"/>
       <c r="T5" s="54"/>
     </row>
-    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -25302,12 +25290,12 @@
       <c r="S6" s="54"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="24"/>
-      <c r="D7" s="241" t="s">
+      <c r="D7" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="241"/>
+      <c r="E7" s="253"/>
       <c r="F7" s="193" t="s">
         <v>52</v>
       </c>
@@ -25334,7 +25322,7 @@
       <c r="S7" s="62"/>
       <c r="T7" s="62"/>
     </row>
-    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="22"/>
       <c r="D8" s="197"/>
       <c r="E8" s="109"/>
@@ -25354,12 +25342,12 @@
       <c r="S8" s="62"/>
       <c r="T8" s="62"/>
     </row>
-    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="25"/>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="254" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="242"/>
+      <c r="E9" s="254"/>
       <c r="F9" s="195" t="s">
         <v>52</v>
       </c>
@@ -25387,7 +25375,7 @@
       <c r="T9" s="63"/>
       <c r="U9" s="22"/>
     </row>
-    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="22"/>
       <c r="D10" s="197"/>
       <c r="E10" s="109"/>
@@ -25408,12 +25396,12 @@
       <c r="T10" s="63"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="26"/>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="243"/>
+      <c r="E11" s="255"/>
       <c r="F11" s="196" t="s">
         <v>53</v>
       </c>
@@ -25441,7 +25429,7 @@
       <c r="T11" s="64"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="22"/>
       <c r="D12" s="12"/>
       <c r="E12" s="22"/>
@@ -25462,7 +25450,7 @@
       <c r="T12" s="64"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
@@ -25474,14 +25462,14 @@
       <c r="S13" s="54"/>
       <c r="T13" s="54"/>
     </row>
-    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="222"/>
+      <c r="F14" s="228"/>
       <c r="G14" s="71" t="s">
         <v>24</v>
       </c>
@@ -25503,12 +25491,12 @@
       <c r="S14" s="54"/>
       <c r="T14" s="54"/>
     </row>
-    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="224"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
       <c r="G15" s="191">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -25533,7 +25521,7 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
     </row>
-    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
       <c r="M16" s="54"/>
@@ -25545,7 +25533,7 @@
       <c r="S16" s="54"/>
       <c r="T16" s="54"/>
     </row>
-    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -25557,7 +25545,7 @@
       <c r="S17" s="54"/>
       <c r="T17" s="54"/>
     </row>
-    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:20" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -25581,7 +25569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="K19" s="54"/>
       <c r="L19" s="59">
@@ -25608,7 +25596,7 @@
         <v>2.45029690981724E-16</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K20" s="54"/>
       <c r="L20" s="59">
         <v>2</v>
@@ -25634,7 +25622,7 @@
         <v>0.12632937844610859</v>
       </c>
     </row>
-    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="54"/>
       <c r="L21" s="59">
         <v>3</v>
@@ -25660,7 +25648,7 @@
         <v>0.25675636036772742</v>
       </c>
     </row>
-    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -25691,7 +25679,7 @@
         <v>0.39592800879772216</v>
       </c>
     </row>
-    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -25722,7 +25710,7 @@
         <v>0.54975465219277131</v>
       </c>
     </row>
-    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -25753,7 +25741,7 @@
         <v>0.72654252800536256</v>
       </c>
     </row>
-    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -25784,7 +25772,7 @@
         <v>0.93906250581749473</v>
       </c>
     </row>
-    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -25815,7 +25803,7 @@
         <v>1.2087923504096127</v>
       </c>
     </row>
-    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -25846,7 +25834,7 @@
         <v>1.5757478599686567</v>
       </c>
     </row>
-    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -25877,7 +25865,7 @@
         <v>2.1251081731572126</v>
       </c>
     </row>
-    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -25908,7 +25896,7 @@
         <v>3.077683537175274</v>
       </c>
     </row>
-    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -25939,7 +25927,7 @@
         <v>5.2421835811132382</v>
       </c>
     </row>
-    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -25970,7 +25958,7 @@
         <v>15.894544843865891</v>
       </c>
     </row>
-    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -26001,7 +25989,7 @@
         <v>-15.894544843864672</v>
       </c>
     </row>
-    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -26032,7 +26020,7 @@
         <v>-5.2421835811131006</v>
       </c>
     </row>
-    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -26063,7 +26051,7 @@
         <v>-3.0776835371752238</v>
       </c>
     </row>
-    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -26094,7 +26082,7 @@
         <v>-2.1251081731571864</v>
       </c>
     </row>
-    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -26125,7 +26113,7 @@
         <v>-1.5757478599686401</v>
       </c>
     </row>
-    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -26156,7 +26144,7 @@
         <v>-1.208792350409601</v>
       </c>
     </row>
-    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -26187,7 +26175,7 @@
         <v>-0.93906250581748574</v>
       </c>
     </row>
-    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -26218,7 +26206,7 @@
         <v>-0.72654252800535524</v>
       </c>
     </row>
-    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -26249,7 +26237,7 @@
         <v>-0.54975465219276498</v>
       </c>
     </row>
-    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -26280,7 +26268,7 @@
         <v>-0.39592800879771656</v>
       </c>
     </row>
-    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -26311,7 +26299,7 @@
         <v>-0.25675636036772231</v>
       </c>
     </row>
-    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -26342,7 +26330,7 @@
         <v>-0.1263293784461037</v>
       </c>
     </row>
-    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -26373,7 +26361,7 @@
         <v>4.5634069439914882E-15</v>
       </c>
     </row>
-    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -26404,7 +26392,7 @@
         <v>0.126329378446113</v>
       </c>
     </row>
-    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -26435,7 +26423,7 @@
         <v>0.25675636036773203</v>
       </c>
     </row>
-    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -26466,7 +26454,7 @@
         <v>0.39592800879772716</v>
       </c>
     </row>
-    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -26497,7 +26485,7 @@
         <v>0.54975465219277697</v>
       </c>
     </row>
-    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -26528,7 +26516,7 @@
         <v>0.72654252800536923</v>
       </c>
     </row>
-    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -26559,7 +26547,7 @@
         <v>0.93906250581750284</v>
       </c>
     </row>
-    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -26590,7 +26578,7 @@
         <v>1.2087923504096234</v>
       </c>
     </row>
-    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -26621,7 +26609,7 @@
         <v>1.5757478599686718</v>
       </c>
     </row>
-    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -26652,7 +26640,7 @@
         <v>2.1251081731572365</v>
       </c>
     </row>
-    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -26683,7 +26671,7 @@
         <v>3.0776835371753171</v>
       </c>
     </row>
-    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -26714,7 +26702,7 @@
         <v>5.2421835811133484</v>
       </c>
     </row>
-    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -26745,7 +26733,7 @@
         <v>15.894544843866818</v>
       </c>
     </row>
-    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -26776,7 +26764,7 @@
         <v>-15.894544843863802</v>
       </c>
     </row>
-    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -26807,7 +26795,7 @@
         <v>-5.2421835811130091</v>
       </c>
     </row>
-    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -26838,7 +26826,7 @@
         <v>-3.0776835371751923</v>
       </c>
     </row>
-    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -26869,7 +26857,7 @@
         <v>-2.1251081731571708</v>
       </c>
     </row>
-    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -26900,7 +26888,7 @@
         <v>-1.5757478599686312</v>
       </c>
     </row>
-    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -26931,7 +26919,7 @@
         <v>-1.2087923504095952</v>
       </c>
     </row>
-    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -26962,7 +26950,7 @@
         <v>-0.93906250581748174</v>
       </c>
     </row>
-    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -26993,7 +26981,7 @@
         <v>-0.72654252800535235</v>
       </c>
     </row>
-    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -27024,7 +27012,7 @@
         <v>-0.54975465219276287</v>
       </c>
     </row>
-    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -27055,7 +27043,7 @@
         <v>-0.39592800879771484</v>
       </c>
     </row>
-    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L67" s="59">
         <v>49</v>
       </c>
@@ -27078,7 +27066,7 @@
         <v>-0.25675636036772087</v>
       </c>
     </row>
-    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L68" s="59">
         <v>50</v>
       </c>
@@ -27101,7 +27089,7 @@
         <v>-0.12632937844610254</v>
       </c>
     </row>
-    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L69" s="59">
         <v>51</v>
       </c>
@@ -27124,7 +27112,7 @@
         <v>5.5511151231257827E-15</v>
       </c>
     </row>
-    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L70" s="59">
         <v>52</v>
       </c>
@@ -27147,7 +27135,7 @@
         <v>0.12632937844611383</v>
       </c>
     </row>
-    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L71" s="59">
         <v>53</v>
       </c>
@@ -27170,7 +27158,7 @@
         <v>0.25675636036773269</v>
       </c>
     </row>
-    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L72" s="59">
         <v>54</v>
       </c>
@@ -27193,7 +27181,7 @@
         <v>0.39592800879772772</v>
       </c>
     </row>
-    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L73" s="59">
         <v>55</v>
       </c>
@@ -27216,7 +27204,7 @@
         <v>0.5497546521927773</v>
       </c>
     </row>
-    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L74" s="59">
         <v>56</v>
       </c>
@@ -27239,7 +27227,7 @@
         <v>0.72654252800536934</v>
       </c>
     </row>
-    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L75" s="59">
         <v>57</v>
       </c>
@@ -27262,7 +27250,7 @@
         <v>0.93906250581750261</v>
       </c>
     </row>
-    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L76" s="59">
         <v>58</v>
       </c>
@@ -27285,7 +27273,7 @@
         <v>1.2087923504096225</v>
       </c>
     </row>
-    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L77" s="59">
         <v>59</v>
       </c>
@@ -27308,7 +27296,7 @@
         <v>1.5757478599686698</v>
       </c>
     </row>
-    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L78" s="59">
         <v>60</v>
       </c>
@@ -27331,7 +27319,7 @@
         <v>2.1251081731572321</v>
       </c>
     </row>
-    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L79" s="59">
         <v>61</v>
       </c>
@@ -27354,7 +27342,7 @@
         <v>3.0776835371753086</v>
       </c>
     </row>
-    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L80" s="59">
         <v>62</v>
       </c>
@@ -27377,7 +27365,7 @@
         <v>5.2421835811133253</v>
       </c>
     </row>
-    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L81" s="59">
         <v>63</v>
       </c>
@@ -27400,7 +27388,7 @@
         <v>15.894544843866617</v>
       </c>
     </row>
-    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L82" s="59">
         <v>64</v>
       </c>
@@ -27423,7 +27411,7 @@
         <v>-15.894544843864002</v>
       </c>
     </row>
-    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L83" s="59">
         <v>65</v>
       </c>
@@ -27446,7 +27434,7 @@
         <v>-5.2421835811130322</v>
       </c>
     </row>
-    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L84" s="59">
         <v>66</v>
       </c>
@@ -27469,7 +27457,7 @@
         <v>-3.0776835371752007</v>
       </c>
     </row>
-    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L85" s="59">
         <v>67</v>
       </c>
@@ -27492,7 +27480,7 @@
         <v>-2.1251081731571753</v>
       </c>
     </row>
-    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L86" s="59">
         <v>68</v>
       </c>
@@ -27515,7 +27503,7 @@
         <v>-1.5757478599686332</v>
       </c>
     </row>
-    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L87" s="59">
         <v>69</v>
       </c>
@@ -27538,7 +27526,7 @@
         <v>-1.2087923504095961</v>
       </c>
     </row>
-    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L88" s="59">
         <v>70</v>
       </c>
@@ -27561,7 +27549,7 @@
         <v>-0.93906250581748196</v>
       </c>
     </row>
-    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L89" s="59">
         <v>71</v>
       </c>
@@ -27584,7 +27572,7 @@
         <v>-0.72654252800535224</v>
       </c>
     </row>
-    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L90" s="59">
         <v>72</v>
       </c>
@@ -27607,7 +27595,7 @@
         <v>-0.54975465219276243</v>
       </c>
     </row>
-    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L91" s="59">
         <v>73</v>
       </c>
@@ -27630,7 +27618,7 @@
         <v>-0.39592800879771428</v>
       </c>
     </row>
-    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L92" s="59">
         <v>74</v>
       </c>
@@ -27653,7 +27641,7 @@
         <v>-0.2567563603677202</v>
       </c>
     </row>
-    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L93" s="59">
         <v>75</v>
       </c>
@@ -27676,7 +27664,7 @@
         <v>-0.1263293784461017</v>
       </c>
     </row>
-    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L94" s="59">
         <v>76</v>
       </c>
@@ -27699,7 +27687,7 @@
         <v>6.5388233022600772E-15</v>
       </c>
     </row>
-    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L95" s="59">
         <v>77</v>
       </c>
@@ -27722,7 +27710,7 @@
         <v>0.126329378446115</v>
       </c>
     </row>
-    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L96" s="59">
         <v>78</v>
       </c>
@@ -27745,7 +27733,7 @@
         <v>0.25675636036773414</v>
       </c>
     </row>
-    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L97" s="59">
         <v>79</v>
       </c>
@@ -27768,7 +27756,7 @@
         <v>0.39592800879772944</v>
       </c>
     </row>
-    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L98" s="59">
         <v>80</v>
       </c>
@@ -27791,7 +27779,7 @@
         <v>0.54975465219277952</v>
       </c>
     </row>
-    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L99" s="59">
         <v>81</v>
       </c>
@@ -27814,7 +27802,7 @@
         <v>0.72654252800537222</v>
       </c>
     </row>
-    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L100" s="59">
         <v>82</v>
       </c>
@@ -27837,7 +27825,7 @@
         <v>0.93906250581750661</v>
       </c>
     </row>
-    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L101" s="59">
         <v>83</v>
       </c>
@@ -27860,7 +27848,7 @@
         <v>1.2087923504096272</v>
       </c>
     </row>
-    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L102" s="59">
         <v>84</v>
       </c>
@@ -27883,7 +27871,7 @@
         <v>1.5757478599686772</v>
       </c>
     </row>
-    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L103" s="59">
         <v>85</v>
       </c>
@@ -27906,7 +27894,7 @@
         <v>2.125108173157245</v>
       </c>
     </row>
-    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L104" s="59">
         <v>86</v>
       </c>
@@ -27929,7 +27917,7 @@
         <v>3.0776835371753353</v>
       </c>
     </row>
-    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L105" s="59">
         <v>87</v>
       </c>
@@ -27952,7 +27940,7 @@
         <v>5.2421835811134043</v>
       </c>
     </row>
-    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L106" s="59">
         <v>88</v>
       </c>
@@ -27975,7 +27963,7 @@
         <v>15.894544843867376</v>
       </c>
     </row>
-    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L107" s="59">
         <v>89</v>
       </c>
@@ -27998,7 +27986,7 @@
         <v>-15.894544843863189</v>
       </c>
     </row>
-    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L108" s="59">
         <v>90</v>
       </c>
@@ -28021,7 +28009,7 @@
         <v>-5.2421835811129345</v>
       </c>
     </row>
-    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L109" s="59">
         <v>91</v>
       </c>
@@ -28044,7 +28032,7 @@
         <v>-3.0776835371751625</v>
       </c>
     </row>
-    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L110" s="59">
         <v>92</v>
       </c>
@@ -28067,7 +28055,7 @@
         <v>-2.1251081731571539</v>
       </c>
     </row>
-    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L111" s="59">
         <v>93</v>
       </c>
@@ -28090,7 +28078,7 @@
         <v>-1.5757478599686197</v>
       </c>
     </row>
-    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L112" s="59">
         <v>94</v>
       </c>
@@ -28113,7 +28101,7 @@
         <v>-1.2087923504095865</v>
       </c>
     </row>
-    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L113" s="59">
         <v>95</v>
       </c>
@@ -28136,7 +28124,7 @@
         <v>-0.93906250581747475</v>
       </c>
     </row>
-    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L114" s="59">
         <v>96</v>
       </c>
@@ -28159,7 +28147,7 @@
         <v>-0.72654252800534624</v>
       </c>
     </row>
-    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L115" s="59">
         <v>97</v>
       </c>
@@ -28182,7 +28170,7 @@
         <v>-0.54975465219275743</v>
       </c>
     </row>
-    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L116" s="59">
         <v>98</v>
       </c>
@@ -28205,7 +28193,7 @@
         <v>-0.39592800879770984</v>
       </c>
     </row>
-    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L117" s="59">
         <v>99</v>
       </c>
@@ -28228,7 +28216,7 @@
         <v>-0.25675636036771604</v>
       </c>
     </row>
-    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L118" s="59">
         <v>100</v>
       </c>
@@ -28251,7 +28239,7 @@
         <v>-0.12632937844609776</v>
       </c>
     </row>
-    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="12:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L119" s="59">
         <v>101</v>
       </c>
@@ -28296,58 +28284,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26ECBF-E433-459E-ADC1-CD84348562CD}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:Q106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="198" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="198"/>
+    <col min="1" max="1" width="3.26953125" style="198" customWidth="1"/>
+    <col min="2" max="5" width="11.453125" style="198"/>
     <col min="6" max="6" width="20" style="198" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="198" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="198"/>
-    <col min="9" max="9" width="12.42578125" style="198" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="198"/>
+    <col min="7" max="7" width="15.81640625" style="198" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="198"/>
+    <col min="9" max="9" width="12.453125" style="198" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.453125" style="198"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="255" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="233" t="s">
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="238" t="s">
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="238"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="245"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="250"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
       <c r="G5" s="206" t="s">
         <v>16</v>
       </c>
@@ -28360,8 +28345,35 @@
       <c r="J5" s="206" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="O5" s="198" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N6" s="198">
+        <f>G15</f>
+        <v>-6.2830000000000004</v>
+      </c>
+      <c r="O6" s="198">
+        <f>$G$7 * COS($H$7 *N6 + $I$7) + $J$7</f>
+        <v>1.9999998626449984</v>
+      </c>
+      <c r="P6" s="198">
+        <f>$G$9 * SIN($H$9 *N6 + $I$9) + $J$9</f>
+        <v>3.7061435705115694E-4</v>
+      </c>
+      <c r="Q6" s="198">
+        <f>$G$11 * TAN($H$11 * N6 + $I$11) + $J$11</f>
+        <v>1.8530718170718704E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="256" t="s">
         <v>27</v>
       </c>
@@ -28371,30 +28383,62 @@
       <c r="F7" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="258">
+      <c r="G7" s="218">
         <v>2</v>
       </c>
-      <c r="H7" s="258">
+      <c r="H7" s="218">
         <v>2</v>
       </c>
-      <c r="I7" s="258">
+      <c r="I7" s="218">
         <v>0</v>
       </c>
-      <c r="J7" s="258">
+      <c r="J7" s="218">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="257"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="G8" s="258"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N7" s="198">
+        <f>N6 + $H$15</f>
+        <v>-6.157</v>
+      </c>
+      <c r="O7" s="198">
+        <f t="shared" ref="O7:O70" si="0">$G$7 * COS($H$7 *N7 + $I$7) + $J$7</f>
+        <v>1.9366464006597808</v>
+      </c>
+      <c r="P7" s="198">
+        <f t="shared" ref="P7:P70" si="1">$G$9 * SIN($H$9 *N7 + $I$9) + $J$9</f>
+        <v>0.25170140909462396</v>
+      </c>
+      <c r="Q7" s="198">
+        <f t="shared" ref="Q7:Q70" si="2">$G$11 * TAN($H$11 * N7 + $I$11) + $J$11</f>
+        <v>0.12685933874040059</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="N8" s="198">
+        <f t="shared" ref="N8:N71" si="3">N7 + $H$15</f>
+        <v>-6.0309999999999997</v>
+      </c>
+      <c r="O8" s="198">
+        <f t="shared" si="0"/>
+        <v>1.7509576050443236</v>
+      </c>
+      <c r="P8" s="198">
+        <f t="shared" si="1"/>
+        <v>0.49904147618777767</v>
+      </c>
+      <c r="Q8" s="198">
+        <f t="shared" si="2"/>
+        <v>0.25767101267078973</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="256" t="s">
         <v>28</v>
       </c>
@@ -28404,26 +28448,58 @@
       <c r="F9" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="258">
+      <c r="G9" s="218">
         <v>2</v>
       </c>
-      <c r="H9" s="258">
+      <c r="H9" s="218">
         <v>1</v>
       </c>
-      <c r="I9" s="258">
+      <c r="I9" s="218">
         <v>0</v>
       </c>
-      <c r="J9" s="258">
+      <c r="J9" s="218">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="N9" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.9049999999999994</v>
+      </c>
+      <c r="O9" s="198">
+        <f t="shared" si="0"/>
+        <v>1.4546631858558041</v>
+      </c>
+      <c r="P9" s="198">
+        <f t="shared" si="1"/>
+        <v>0.73846923710077184</v>
+      </c>
+      <c r="Q9" s="198">
+        <f t="shared" si="2"/>
+        <v>0.39731005147085796</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="N10" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.778999999999999</v>
+      </c>
+      <c r="O10" s="198">
+        <f t="shared" si="0"/>
+        <v>1.0664796607878269</v>
+      </c>
+      <c r="P10" s="198">
+        <f t="shared" si="1"/>
+        <v>0.96618856296903721</v>
+      </c>
+      <c r="Q10" s="198">
+        <f t="shared" si="2"/>
+        <v>0.55174937272282631</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="256" t="s">
         <v>29</v>
       </c>
@@ -28433,43 +28509,111 @@
       <c r="F11" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="258">
+      <c r="G11" s="218">
         <v>1</v>
       </c>
-      <c r="H11" s="258">
+      <c r="H11" s="218">
         <v>1</v>
       </c>
-      <c r="I11" s="258">
+      <c r="I11" s="218">
         <v>0</v>
       </c>
-      <c r="J11" s="258">
+      <c r="J11" s="218">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="234" t="s">
+      <c r="N11" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.6529999999999987</v>
+      </c>
+      <c r="O11" s="198">
+        <f t="shared" si="0"/>
+        <v>0.61092805806360073</v>
+      </c>
+      <c r="P11" s="198">
+        <f t="shared" si="1"/>
+        <v>1.1785889622495196</v>
+      </c>
+      <c r="Q11" s="198">
+        <f t="shared" si="2"/>
+        <v>0.72939858560826298</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N12" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.5269999999999984</v>
+      </c>
+      <c r="O12" s="198">
+        <f t="shared" si="0"/>
+        <v>0.11678495625011225</v>
+      </c>
+      <c r="P12" s="198">
+        <f t="shared" si="1"/>
+        <v>1.3723028250899609</v>
+      </c>
+      <c r="Q12" s="198">
+        <f t="shared" si="2"/>
+        <v>0.94321692959671877</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N13" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.400999999999998</v>
+      </c>
+      <c r="O13" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.3847352932868755</v>
+      </c>
+      <c r="P13" s="198">
+        <f t="shared" si="1"/>
+        <v>1.5442588168072331</v>
+      </c>
+      <c r="Q13" s="198">
+        <f t="shared" si="2"/>
+        <v>1.2150614368902624</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="259" t="s">
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="259" t="s">
+      <c r="H14" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="259" t="s">
+      <c r="I14" s="219" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
+      <c r="N14" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.2749999999999977</v>
+      </c>
+      <c r="O14" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.86195233473820387</v>
+      </c>
+      <c r="P14" s="198">
+        <f t="shared" si="1"/>
+        <v>1.6917305739207422</v>
+      </c>
+      <c r="Q14" s="198">
+        <f t="shared" si="2"/>
+        <v>1.5858093426187767</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
       <c r="G15" s="198">
         <v>-6.2830000000000004</v>
       </c>
@@ -28478,6 +28622,1660 @@
       </c>
       <c r="I15" s="198">
         <v>6.2830000000000004</v>
+      </c>
+      <c r="N15" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.1489999999999974</v>
+      </c>
+      <c r="O15" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.2847210130770723</v>
+      </c>
+      <c r="P15" s="198">
+        <f t="shared" si="1"/>
+        <v>1.8123799306649455</v>
+      </c>
+      <c r="Q15" s="198">
+        <f t="shared" si="2"/>
+        <v>2.1429473993321628</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N16" s="198">
+        <f t="shared" si="3"/>
+        <v>-5.022999999999997</v>
+      </c>
+      <c r="O16" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.6263356027278775</v>
+      </c>
+      <c r="P16" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9042939906243146</v>
+      </c>
+      <c r="Q16" s="198">
+        <f t="shared" si="2"/>
+        <v>3.1152516648024537</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N17" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.8969999999999967</v>
+      </c>
+      <c r="O17" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.8652167721287753</v>
+      </c>
+      <c r="P17" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9660154557197091</v>
+      </c>
+      <c r="Q17" s="198">
+        <f t="shared" si="2"/>
+        <v>5.3551174609773442</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N18" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.7709999999999964</v>
+      </c>
+      <c r="O18" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.9862747209183347</v>
+      </c>
+      <c r="P18" s="198">
+        <f t="shared" si="1"/>
+        <v>1.99656573167986</v>
+      </c>
+      <c r="Q18" s="198">
+        <f t="shared" si="2"/>
+        <v>17.042096526443199</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N19" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.644999999999996</v>
+      </c>
+      <c r="O19" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.9818623822139703</v>
+      </c>
+      <c r="P19" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9954604436605528</v>
+      </c>
+      <c r="Q19" s="198">
+        <f t="shared" si="2"/>
+        <v>-14.816751605132295</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N20" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.5189999999999957</v>
+      </c>
+      <c r="O20" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.8522584774835269</v>
+      </c>
+      <c r="P20" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9627171160112522</v>
+      </c>
+      <c r="Q20" s="198">
+        <f t="shared" si="2"/>
+        <v>-5.106301155025827</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N21" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.3929999999999954</v>
+      </c>
+      <c r="O21" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.6056499100871529</v>
+      </c>
+      <c r="P21" s="198">
+        <f t="shared" si="1"/>
+        <v>1.8988548944264154</v>
+      </c>
+      <c r="Q21" s="198">
+        <f t="shared" si="2"/>
+        <v>-3.0237842894140581</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N22" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.266999999999995</v>
+      </c>
+      <c r="O22" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.2576146096656089</v>
+      </c>
+      <c r="P22" s="198">
+        <f t="shared" si="1"/>
+        <v>1.8048863148867877</v>
+      </c>
+      <c r="Q22" s="198">
+        <f t="shared" si="2"/>
+        <v>-2.0947642028376494</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N23" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.1409999999999947</v>
+      </c>
+      <c r="O23" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.83013749539550097</v>
+      </c>
+      <c r="P23" s="198">
+        <f t="shared" si="1"/>
+        <v>1.6823012498941743</v>
+      </c>
+      <c r="Q23" s="198">
+        <f t="shared" si="2"/>
+        <v>-1.5553794504950544</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N24" s="198">
+        <f t="shared" si="3"/>
+        <v>-4.0149999999999944</v>
+      </c>
+      <c r="O24" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.35022171838159949</v>
+      </c>
+      <c r="P24" s="198">
+        <f t="shared" si="1"/>
+        <v>1.533043286532249</v>
+      </c>
+      <c r="Q24" s="198">
+        <f t="shared" si="2"/>
+        <v>-1.193552774307163</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N25" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.8889999999999945</v>
+      </c>
+      <c r="O25" s="198">
+        <f t="shared" si="0"/>
+        <v>0.15181709087410353</v>
+      </c>
+      <c r="P25" s="198">
+        <f t="shared" si="1"/>
+        <v>1.359478910879421</v>
+      </c>
+      <c r="Q25" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.9267653727245575</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N26" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.7629999999999946</v>
+      </c>
+      <c r="O26" s="198">
+        <f t="shared" si="0"/>
+        <v>0.64426581984642162</v>
+      </c>
+      <c r="P26" s="198">
+        <f t="shared" si="1"/>
+        <v>1.1643599873551043</v>
+      </c>
+      <c r="Q26" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.71603576798111146</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N27" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.6369999999999947</v>
+      </c>
+      <c r="O27" s="198">
+        <f t="shared" si="0"/>
+        <v>1.0960171484101677</v>
+      </c>
+      <c r="P27" s="198">
+        <f t="shared" si="1"/>
+        <v>0.95078012788963584</v>
+      </c>
+      <c r="Q27" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.54035405793876157</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N28" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.5109999999999948</v>
+      </c>
+      <c r="O28" s="198">
+        <f t="shared" si="0"/>
+        <v>1.4785345561768382</v>
+      </c>
+      <c r="P28" s="198">
+        <f t="shared" si="1"/>
+        <v>0.72212564268495683</v>
+      </c>
+      <c r="Q28" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.38718150715586014</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N29" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.3849999999999949</v>
+      </c>
+      <c r="O29" s="198">
+        <f t="shared" si="0"/>
+        <v>1.7676549358891831</v>
+      </c>
+      <c r="P29" s="198">
+        <f t="shared" si="1"/>
+        <v>0.48202185024209948</v>
+      </c>
+      <c r="Q29" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.24833113019580119</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N30" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.258999999999995</v>
+      </c>
+      <c r="O30" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9451149442237328</v>
+      </c>
+      <c r="P30" s="198">
+        <f t="shared" si="1"/>
+        <v>0.23427559791038235</v>
+      </c>
+      <c r="Q30" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.1179498042086834</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N31" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.1329999999999951</v>
+      </c>
+      <c r="O31" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9997046724856242</v>
+      </c>
+      <c r="P31" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.7185095704586758E-2</v>
+      </c>
+      <c r="Q31" s="198">
+        <f t="shared" si="2"/>
+        <v>8.5928650718340941E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N32" s="198">
+        <f t="shared" si="3"/>
+        <v>-3.0069999999999952</v>
+      </c>
+      <c r="O32" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9279757613783808</v>
+      </c>
+      <c r="P32" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.26837331950404325</v>
+      </c>
+      <c r="Q32" s="198">
+        <f t="shared" si="2"/>
+        <v>0.13541130963318615</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N33" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.8809999999999953</v>
+      </c>
+      <c r="O33" s="198">
+        <f t="shared" si="0"/>
+        <v>1.734459229196436</v>
+      </c>
+      <c r="P33" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.51530648240009946</v>
+      </c>
+      <c r="Q33" s="198">
+        <f t="shared" si="2"/>
+        <v>0.26665623604500688</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N34" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.7549999999999955</v>
+      </c>
+      <c r="O34" s="198">
+        <f t="shared" si="0"/>
+        <v>1.4313792535281096</v>
+      </c>
+      <c r="P34" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.75406945732597497</v>
+      </c>
+      <c r="Q34" s="198">
+        <f t="shared" si="2"/>
+        <v>0.40707739810346705</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N35" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.6289999999999956</v>
+      </c>
+      <c r="O35" s="198">
+        <f t="shared" si="0"/>
+        <v>1.0378809864917218</v>
+      </c>
+      <c r="P35" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.98087665560368908</v>
+      </c>
+      <c r="Q35" s="198">
+        <f t="shared" si="2"/>
+        <v>0.5627675154822025</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N36" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.5029999999999957</v>
+      </c>
+      <c r="O36" s="198">
+        <f t="shared" si="0"/>
+        <v>0.57882118137192895</v>
+      </c>
+      <c r="P36" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.1921320474796704</v>
+      </c>
+      <c r="Q36" s="198">
+        <f t="shared" si="2"/>
+        <v>0.74235860794953468</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N37" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.3769999999999958</v>
+      </c>
+      <c r="O37" s="198">
+        <f t="shared" si="0"/>
+        <v>8.3198025135866147E-2</v>
+      </c>
+      <c r="P37" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.3844861772022623</v>
+      </c>
+      <c r="Q37" s="198">
+        <f t="shared" si="2"/>
+        <v>0.95923131106856674</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N38" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.2509999999999959</v>
+      </c>
+      <c r="O38" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.4176806378147449</v>
+      </c>
+      <c r="P38" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.5548892686666613</v>
+      </c>
+      <c r="Q38" s="198">
+        <f t="shared" si="2"/>
+        <v>1.2360965520547245</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N39" s="198">
+        <f t="shared" si="3"/>
+        <v>-2.124999999999996</v>
+      </c>
+      <c r="O39" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.89217497982759986</v>
+      </c>
+      <c r="P39" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.7006395796369083</v>
+      </c>
+      <c r="Q39" s="198">
+        <f t="shared" si="2"/>
+        <v>1.6157594239734745</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N40" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.9989999999999961</v>
+      </c>
+      <c r="O40" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.3103118351167158</v>
+      </c>
+      <c r="P40" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.8194262378883943</v>
+      </c>
+      <c r="Q40" s="198">
+        <f t="shared" si="2"/>
+        <v>2.1908269093209292</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N41" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.8729999999999962</v>
+      </c>
+      <c r="O41" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.6456780641035582</v>
+      </c>
+      <c r="P41" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.909365880103538</v>
+      </c>
+      <c r="Q41" s="198">
+        <f t="shared" si="2"/>
+        <v>3.2076733614779225</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N42" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.7469999999999963</v>
+      </c>
+      <c r="O42" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.8770890357179211</v>
+      </c>
+      <c r="P42" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.9690325126106782</v>
+      </c>
+      <c r="Q42" s="198">
+        <f t="shared" si="2"/>
+        <v>5.6163940982019902</v>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N43" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.6209999999999964</v>
+      </c>
+      <c r="O43" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.9899268318883914</v>
+      </c>
+      <c r="P43" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.9974801205239545</v>
+      </c>
+      <c r="Q43" s="198">
+        <f t="shared" si="2"/>
+        <v>19.902123863539483</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N44" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.4949999999999966</v>
+      </c>
+      <c r="O44" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.97706364165479</v>
+      </c>
+      <c r="P44" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.9942576668160987</v>
+      </c>
+      <c r="Q44" s="198">
+        <f t="shared" si="2"/>
+        <v>-13.167976346854354</v>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N45" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.3689999999999967</v>
+      </c>
+      <c r="O45" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.8393120153454783</v>
+      </c>
+      <c r="P45" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.9594162435137354</v>
+      </c>
+      <c r="Q45" s="198">
+        <f t="shared" si="2"/>
+        <v>-4.8880428238793456</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N46" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.2429999999999968</v>
+      </c>
+      <c r="O46" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.5853735368721693</v>
+      </c>
+      <c r="P46" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.8935082616329324</v>
+      </c>
+      <c r="Q46" s="198">
+        <f t="shared" si="2"/>
+        <v>-2.9406185723143499</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N47" s="198">
+        <f t="shared" si="3"/>
+        <v>-1.1169999999999969</v>
+      </c>
+      <c r="O47" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.2312891564439479</v>
+      </c>
+      <c r="P47" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.7975786926985833</v>
+      </c>
+      <c r="Q47" s="198">
+        <f t="shared" si="2"/>
+        <v>-2.0502480520082926</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N48" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.99099999999999688</v>
+      </c>
+      <c r="O48" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.79942590543948244</v>
+      </c>
+      <c r="P48" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.6731485007133953</v>
+      </c>
+      <c r="Q48" s="198">
+        <f t="shared" si="2"/>
+        <v>-1.5270034016933942</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N49" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.86499999999999688</v>
+      </c>
+      <c r="O49" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.31706400128838325</v>
+      </c>
+      <c r="P49" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.5221905272627285</v>
+      </c>
+      <c r="Q49" s="198">
+        <f t="shared" si="2"/>
+        <v>-1.1733706337693091</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N50" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.73899999999999688</v>
+      </c>
+      <c r="O50" s="198">
+        <f t="shared" si="0"/>
+        <v>0.18532640696472361</v>
+      </c>
+      <c r="P50" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.3470982120971271</v>
+      </c>
+      <c r="Q50" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.91125747300289139</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N51" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.61299999999999688</v>
+      </c>
+      <c r="O51" s="198">
+        <f t="shared" si="0"/>
+        <v>0.67600999676155527</v>
+      </c>
+      <c r="P51" s="198">
+        <f t="shared" si="1"/>
+        <v>-1.1506476451279275</v>
+      </c>
+      <c r="Q51" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.70339372111986542</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N52" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.48699999999999688</v>
+      </c>
+      <c r="O52" s="198">
+        <f t="shared" si="0"/>
+        <v>1.1239909494311202</v>
+      </c>
+      <c r="P52" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.93595355150182513</v>
+      </c>
+      <c r="Q52" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.52954078276503691</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N53" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.36099999999999688</v>
+      </c>
+      <c r="O53" s="198">
+        <f t="shared" si="0"/>
+        <v>1.5009709141303569</v>
+      </c>
+      <c r="P53" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.70641990761136042</v>
+      </c>
+      <c r="Q53" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.37754496102267854</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N54" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.23499999999999688</v>
+      </c>
+      <c r="O54" s="198">
+        <f t="shared" si="0"/>
+        <v>1.7831365763906635</v>
+      </c>
+      <c r="P54" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.46568597102482751</v>
+      </c>
+      <c r="Q54" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.23942370370944582</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N55" s="198">
+        <f t="shared" si="3"/>
+        <v>-0.10899999999999688</v>
+      </c>
+      <c r="O55" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9526639129830954</v>
+      </c>
+      <c r="P55" s="198">
+        <f t="shared" si="1"/>
+        <v>-0.21756858003145702</v>
+      </c>
+      <c r="Q55" s="198">
+        <f t="shared" si="2"/>
+        <v>-0.10943373774527267</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N56" s="198">
+        <f t="shared" si="3"/>
+        <v>1.7000000000003124E-2</v>
+      </c>
+      <c r="O56" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9988441113570419</v>
+      </c>
+      <c r="P56" s="198">
+        <f t="shared" si="1"/>
+        <v>3.3998362357003702E-2</v>
+      </c>
+      <c r="Q56" s="198">
+        <f t="shared" si="2"/>
+        <v>1.7001637856006207E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N57" s="198">
+        <f t="shared" si="3"/>
+        <v>0.14300000000000312</v>
+      </c>
+      <c r="O57" s="198">
+        <f t="shared" si="0"/>
+        <v>1.9187600308443546</v>
+      </c>
+      <c r="P57" s="198">
+        <f t="shared" si="1"/>
+        <v>0.28502626046672513</v>
+      </c>
+      <c r="Q57" s="198">
+        <f t="shared" si="2"/>
+        <v>0.14398277515784177</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N58" s="198">
+        <f t="shared" si="3"/>
+        <v>0.26900000000000313</v>
+      </c>
+      <c r="O58" s="198">
+        <f t="shared" si="0"/>
+        <v>1.7174704744896434</v>
+      </c>
+      <c r="P58" s="198">
+        <f t="shared" si="1"/>
+        <v>0.531535065174779</v>
+      </c>
+      <c r="Q58" s="198">
+        <f t="shared" si="2"/>
+        <v>0.27568183832459875</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N59" s="198">
+        <f t="shared" si="3"/>
+        <v>0.39500000000000313</v>
+      </c>
+      <c r="O59" s="198">
+        <f t="shared" si="0"/>
+        <v>1.4076906313044633</v>
+      </c>
+      <c r="P59" s="198">
+        <f t="shared" si="1"/>
+        <v>0.76961637761649582</v>
+      </c>
+      <c r="Q59" s="198">
+        <f t="shared" si="2"/>
+        <v>0.41691183224909656</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N60" s="198">
+        <f t="shared" si="3"/>
+        <v>0.52100000000000313</v>
+      </c>
+      <c r="O60" s="198">
+        <f t="shared" si="0"/>
+        <v>1.0089888749759628</v>
+      </c>
+      <c r="P60" s="198">
+        <f t="shared" si="1"/>
+        <v>0.99549541687746468</v>
+      </c>
+      <c r="Q60" s="198">
+        <f t="shared" si="2"/>
+        <v>0.57389041844288291</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N61" s="198">
+        <f t="shared" si="3"/>
+        <v>0.64700000000000313</v>
+      </c>
+      <c r="O61" s="198">
+        <f t="shared" si="0"/>
+        <v>0.54655065616916398</v>
+      </c>
+      <c r="P61" s="198">
+        <f t="shared" si="1"/>
+        <v>1.2055908691719741</v>
+      </c>
+      <c r="Q61" s="198">
+        <f t="shared" si="2"/>
+        <v>0.75548142405864793</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N62" s="198">
+        <f t="shared" si="3"/>
+        <v>0.77300000000000313</v>
+      </c>
+      <c r="O62" s="198">
+        <f t="shared" si="0"/>
+        <v>4.9587571674182825E-2</v>
+      </c>
+      <c r="P62" s="198">
+        <f t="shared" si="1"/>
+        <v>1.3965716695987418</v>
+      </c>
+      <c r="Q62" s="198">
+        <f t="shared" si="2"/>
+        <v>0.97550609757446871</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N63" s="198">
+        <f t="shared" si="3"/>
+        <v>0.89900000000000313</v>
+      </c>
+      <c r="O63" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.45050789265152419</v>
+      </c>
+      <c r="P63" s="198">
+        <f t="shared" si="1"/>
+        <v>1.5654098161987884</v>
+      </c>
+      <c r="Q63" s="198">
+        <f t="shared" si="2"/>
+        <v>1.2575734751398955</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N64" s="198">
+        <f t="shared" si="3"/>
+        <v>1.025000000000003</v>
+      </c>
+      <c r="O64" s="198">
+        <f t="shared" si="0"/>
+        <v>-0.92214538275343649</v>
+      </c>
+      <c r="P64" s="198">
+        <f t="shared" si="1"/>
+        <v>1.7094283789481899</v>
+      </c>
+      <c r="Q64" s="198">
+        <f t="shared" si="2"/>
+        <v>1.6465344294765589</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N65" s="198">
+        <f t="shared" si="3"/>
+        <v>1.1510000000000029</v>
+      </c>
+      <c r="O65" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.3355321963166202</v>
+      </c>
+      <c r="P65" s="198">
+        <f t="shared" si="1"/>
+        <v>1.8263439425027861</v>
+      </c>
+      <c r="Q65" s="198">
+        <f t="shared" si="2"/>
+        <v>2.2405033486537196</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N66" s="198">
+        <f t="shared" si="3"/>
+        <v>1.2770000000000028</v>
+      </c>
+      <c r="O66" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.6645552474734828</v>
+      </c>
+      <c r="P66" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9143028097648196</v>
+      </c>
+      <c r="Q66" s="198">
+        <f t="shared" si="2"/>
+        <v>3.3052182004054793</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N67" s="198">
+        <f t="shared" si="3"/>
+        <v>1.4030000000000027</v>
+      </c>
+      <c r="O67" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.888430595117583</v>
+      </c>
+      <c r="P67" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9719103922637009</v>
+      </c>
+      <c r="Q67" s="198">
+        <f t="shared" si="2"/>
+        <v>5.903568646087118</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N68" s="198">
+        <f t="shared" si="3"/>
+        <v>1.5290000000000026</v>
+      </c>
+      <c r="O68" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.993016336351058</v>
+      </c>
+      <c r="P68" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9982533213662022</v>
+      </c>
+      <c r="Q68" s="198">
+        <f t="shared" si="2"/>
+        <v>23.911613719025262</v>
+      </c>
+    </row>
+    <row r="69" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N69" s="198">
+        <f t="shared" si="3"/>
+        <v>1.6550000000000025</v>
+      </c>
+      <c r="O69" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.9717059313624044</v>
+      </c>
+      <c r="P69" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9929139297426781</v>
+      </c>
+      <c r="Q69" s="198">
+        <f t="shared" si="2"/>
+        <v>-11.847885307064628</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N70" s="198">
+        <f t="shared" si="3"/>
+        <v>1.7810000000000024</v>
+      </c>
+      <c r="O70" s="198">
+        <f t="shared" si="0"/>
+        <v>-1.8258455296103953</v>
+      </c>
+      <c r="P70" s="198">
+        <f t="shared" si="1"/>
+        <v>1.9559768734855725</v>
+      </c>
+      <c r="Q70" s="198">
+        <f t="shared" si="2"/>
+        <v>-4.6870156339738278</v>
+      </c>
+    </row>
+    <row r="71" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N71" s="198">
+        <f t="shared" si="3"/>
+        <v>1.9070000000000022</v>
+      </c>
+      <c r="O71" s="198">
+        <f t="shared" ref="O71:O106" si="4">$G$7 * COS($H$7 *N71 + $I$7) + $J$7</f>
+        <v>-1.5646489353835642</v>
+      </c>
+      <c r="P71" s="198">
+        <f t="shared" ref="P71:P106" si="5">$G$9 * SIN($H$9 *N71 + $I$9) + $J$9</f>
+        <v>1.8880277898864637</v>
+      </c>
+      <c r="Q71" s="198">
+        <f t="shared" ref="Q71:Q106" si="6">$G$11 * TAN($H$11 * N71 + $I$11) + $J$11</f>
+        <v>-2.8614659143282859</v>
+      </c>
+    </row>
+    <row r="72" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N72" s="198">
+        <f t="shared" ref="N72:N107" si="7">N71 + $H$15</f>
+        <v>2.0330000000000021</v>
+      </c>
+      <c r="O72" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.204615584245851</v>
+      </c>
+      <c r="P72" s="198">
+        <f t="shared" si="5"/>
+        <v>1.790144012152612</v>
+      </c>
+      <c r="Q72" s="198">
+        <f t="shared" si="6"/>
+        <v>-2.0072405939160722</v>
+      </c>
+    </row>
+    <row r="73" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N73" s="198">
+        <f t="shared" si="7"/>
+        <v>2.159000000000002</v>
+      </c>
+      <c r="O73" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.76848829600909074</v>
+      </c>
+      <c r="P73" s="198">
+        <f t="shared" si="5"/>
+        <v>1.6638774882812408</v>
+      </c>
+      <c r="Q73" s="198">
+        <f t="shared" si="6"/>
+        <v>-1.499346720636185</v>
+      </c>
+    </row>
+    <row r="74" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N74" s="198">
+        <f t="shared" si="7"/>
+        <v>2.2850000000000019</v>
+      </c>
+      <c r="O74" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.28381664156733977</v>
+      </c>
+      <c r="P74" s="198">
+        <f t="shared" si="5"/>
+        <v>1.5112301749129216</v>
+      </c>
+      <c r="Q74" s="198">
+        <f t="shared" si="6"/>
+        <v>-1.1535828036201592</v>
+      </c>
+    </row>
+    <row r="75" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N75" s="198">
+        <f t="shared" si="7"/>
+        <v>2.4110000000000018</v>
+      </c>
+      <c r="O75" s="198">
+        <f t="shared" si="4"/>
+        <v>0.2187833262330737</v>
+      </c>
+      <c r="P75" s="198">
+        <f t="shared" si="5"/>
+        <v>1.3346222962946956</v>
+      </c>
+      <c r="Q75" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.89598539218629791</v>
+      </c>
+    </row>
+    <row r="76" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N76" s="198">
+        <f t="shared" si="7"/>
+        <v>2.5370000000000017</v>
+      </c>
+      <c r="O76" s="198">
+        <f t="shared" si="4"/>
+        <v>0.70756304724071273</v>
+      </c>
+      <c r="P76" s="198">
+        <f t="shared" si="5"/>
+        <v>1.1368539716072981</v>
+      </c>
+      <c r="Q76" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.69090032061945306</v>
+      </c>
+    </row>
+    <row r="77" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N77" s="198">
+        <f t="shared" si="7"/>
+        <v>2.6630000000000016</v>
+      </c>
+      <c r="O77" s="198">
+        <f t="shared" si="4"/>
+        <v>1.151646967600835</v>
+      </c>
+      <c r="P77" s="198">
+        <f t="shared" si="5"/>
+        <v>0.92106081905548731</v>
+      </c>
+      <c r="Q77" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.51882336520009686</v>
+      </c>
+    </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N78" s="198">
+        <f t="shared" si="7"/>
+        <v>2.7890000000000015</v>
+      </c>
+      <c r="O78" s="198">
+        <f t="shared" si="4"/>
+        <v>1.5229829067302567</v>
+      </c>
+      <c r="P78" s="198">
+        <f t="shared" si="5"/>
+        <v>0.69066424061894449</v>
+      </c>
+      <c r="Q78" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.36796939846559823</v>
+      </c>
+    </row>
+    <row r="79" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N79" s="198">
+        <f t="shared" si="7"/>
+        <v>2.9150000000000014</v>
+      </c>
+      <c r="O79" s="198">
+        <f t="shared" si="4"/>
+        <v>1.7981140756215379</v>
+      </c>
+      <c r="P79" s="198">
+        <f t="shared" si="5"/>
+        <v>0.44931717569937385</v>
+      </c>
+      <c r="Q79" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.2305520658652129</v>
+      </c>
+    </row>
+    <row r="80" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N80" s="198">
+        <f t="shared" si="7"/>
+        <v>3.0410000000000013</v>
+      </c>
+      <c r="O80" s="198">
+        <f t="shared" si="4"/>
+        <v>1.9596608104770303</v>
+      </c>
+      <c r="P80" s="198">
+        <f t="shared" si="5"/>
+        <v>0.20084618374011914</v>
+      </c>
+      <c r="Q80" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.10093332761480862</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N81" s="198">
+        <f t="shared" si="7"/>
+        <v>3.1670000000000011</v>
+      </c>
+      <c r="O81" s="198">
+        <f t="shared" si="4"/>
+        <v>1.9974184225633183</v>
+      </c>
+      <c r="P81" s="198">
+        <f t="shared" si="5"/>
+        <v>-5.0809225901225066E-2</v>
+      </c>
+      <c r="Q81" s="198">
+        <f t="shared" si="6"/>
+        <v>2.5412814917901309E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N82" s="198">
+        <f t="shared" si="7"/>
+        <v>3.293000000000001</v>
+      </c>
+      <c r="O82" s="198">
+        <f t="shared" si="4"/>
+        <v>1.909001814595692</v>
+      </c>
+      <c r="P82" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.30165905490190098</v>
+      </c>
+      <c r="Q82" s="198">
+        <f t="shared" si="6"/>
+        <v>0.15257501806538845</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N83" s="198">
+        <f t="shared" si="7"/>
+        <v>3.4190000000000009</v>
+      </c>
+      <c r="O83" s="198">
+        <f t="shared" si="4"/>
+        <v>1.6999961441075493</v>
+      </c>
+      <c r="P83" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.54772607742598001</v>
+      </c>
+      <c r="Q83" s="198">
+        <f t="shared" si="6"/>
+        <v>0.28474937701885827</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N84" s="198">
+        <f t="shared" si="7"/>
+        <v>3.5450000000000008</v>
+      </c>
+      <c r="O84" s="198">
+        <f t="shared" si="4"/>
+        <v>1.3836040166034722</v>
+      </c>
+      <c r="P84" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.78510889906848458</v>
+      </c>
+      <c r="Q84" s="198">
+        <f t="shared" si="6"/>
+        <v>0.4268154523167666</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N85" s="198">
+        <f t="shared" si="7"/>
+        <v>3.6710000000000007</v>
+      </c>
+      <c r="O85" s="198">
+        <f t="shared" si="4"/>
+        <v>0.9798114948272868</v>
+      </c>
+      <c r="P85" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.0100438134916292</v>
+      </c>
+      <c r="Q85" s="198">
+        <f t="shared" si="6"/>
+        <v>0.58512117803174768</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N86" s="198">
+        <f t="shared" si="7"/>
+        <v>3.7970000000000006</v>
+      </c>
+      <c r="O86" s="198">
+        <f t="shared" si="4"/>
+        <v>0.51412560621159842</v>
+      </c>
+      <c r="P86" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.2189644760157703</v>
+      </c>
+      <c r="Q86" s="198">
+        <f t="shared" si="6"/>
+        <v>0.7687720113361487</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N87" s="198">
+        <f t="shared" si="7"/>
+        <v>3.9230000000000005</v>
+      </c>
+      <c r="O87" s="198">
+        <f t="shared" si="4"/>
+        <v>1.5963098455566684E-2</v>
+      </c>
+      <c r="P87" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.408558448039851</v>
+      </c>
+      <c r="Q87" s="198">
+        <f t="shared" si="6"/>
+        <v>0.99205005061325846</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N88" s="198">
+        <f t="shared" si="7"/>
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="O88" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.48320777663828612</v>
+      </c>
+      <c r="P88" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.5758197157791516</v>
+      </c>
+      <c r="Q88" s="198">
+        <f t="shared" si="6"/>
+        <v>1.2795094068958039</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N89" s="198">
+        <f t="shared" si="7"/>
+        <v>4.1750000000000007</v>
+      </c>
+      <c r="O89" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.9518550700666224</v>
+      </c>
+      <c r="P89" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.7180963506353835</v>
+      </c>
+      <c r="Q89" s="198">
+        <f t="shared" si="6"/>
+        <v>1.6781734518083602</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N90" s="198">
+        <f t="shared" si="7"/>
+        <v>4.301000000000001</v>
+      </c>
+      <c r="O90" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.3603749661938487</v>
+      </c>
+      <c r="P90" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.8331325555436107</v>
+      </c>
+      <c r="Q90" s="198">
+        <f t="shared" si="6"/>
+        <v>2.2920872422041083</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N91" s="198">
+        <f t="shared" si="7"/>
+        <v>4.4270000000000014</v>
+      </c>
+      <c r="O91" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.6829618157438304</v>
+      </c>
+      <c r="P91" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.919104430650878</v>
+      </c>
+      <c r="Q91" s="198">
+        <f t="shared" si="6"/>
+        <v>3.4083392987317778</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N92" s="198">
+        <f t="shared" si="7"/>
+        <v>4.5530000000000017</v>
+      </c>
+      <c r="O92" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.8992382437600548</v>
+      </c>
+      <c r="P92" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.9746488912614453</v>
+      </c>
+      <c r="Q92" s="198">
+        <f t="shared" si="6"/>
+        <v>6.2207395900259765</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N93" s="198">
+        <f t="shared" si="7"/>
+        <v>4.679000000000002</v>
+      </c>
+      <c r="O93" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.9955423608192862</v>
+      </c>
+      <c r="P93" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.9988852795544036</v>
+      </c>
+      <c r="Q93" s="198">
+        <f t="shared" si="6"/>
+        <v>29.938870635093895</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N94" s="198">
+        <f t="shared" si="7"/>
+        <v>4.8050000000000024</v>
+      </c>
+      <c r="O94" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.9657907661074201</v>
+      </c>
+      <c r="P94" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.9914293274197354</v>
+      </c>
+      <c r="Q94" s="198">
+        <f t="shared" si="6"/>
+        <v>-10.766963094173494</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N95" s="198">
+        <f t="shared" si="7"/>
+        <v>4.9310000000000027</v>
+      </c>
+      <c r="O95" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.8118628276205282</v>
+      </c>
+      <c r="P95" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.9523992490319515</v>
+      </c>
+      <c r="Q95" s="198">
+        <f t="shared" si="6"/>
+        <v>-4.5012312539459511</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N96" s="198">
+        <f t="shared" si="7"/>
+        <v>5.057000000000003</v>
+      </c>
+      <c r="O96" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.543481965030572</v>
+      </c>
+      <c r="P96" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.8824138665635068</v>
+      </c>
+      <c r="Q96" s="198">
+        <f t="shared" si="6"/>
+        <v>-2.7860322782578582</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N97" s="198">
+        <f t="shared" si="7"/>
+        <v>5.1830000000000034</v>
+      </c>
+      <c r="O97" s="198">
+        <f t="shared" si="4"/>
+        <v>-1.1776014344165799</v>
+      </c>
+      <c r="P97" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.7825827987548235</v>
+      </c>
+      <c r="Q97" s="198">
+        <f t="shared" si="6"/>
+        <v>-1.9656606301622808</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N98" s="198">
+        <f t="shared" si="7"/>
+        <v>5.3090000000000037</v>
+      </c>
+      <c r="O98" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.73733341400903485</v>
+      </c>
+      <c r="P98" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.6544888679012122</v>
+      </c>
+      <c r="Q98" s="198">
+        <f t="shared" si="6"/>
+        <v>-1.4723786298540331</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N99" s="198">
+        <f t="shared" si="7"/>
+        <v>5.4350000000000041</v>
+      </c>
+      <c r="O99" s="198">
+        <f t="shared" si="4"/>
+        <v>-0.25048903915248522</v>
+      </c>
+      <c r="P99" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.5001630041940393</v>
+      </c>
+      <c r="Q99" s="198">
+        <f t="shared" si="6"/>
+        <v>-1.1341751228437211</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N100" s="198">
+        <f t="shared" si="7"/>
+        <v>5.5610000000000044</v>
+      </c>
+      <c r="O100" s="198">
+        <f t="shared" si="4"/>
+        <v>0.25217838949694971</v>
+      </c>
+      <c r="P100" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.322052045307994</v>
+      </c>
+      <c r="Q100" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.88094168135166395</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N101" s="198">
+        <f t="shared" si="7"/>
+        <v>5.6870000000000047</v>
+      </c>
+      <c r="O101" s="198">
+        <f t="shared" si="4"/>
+        <v>0.73891605037724739</v>
+      </c>
+      <c r="P101" s="198">
+        <f t="shared" si="5"/>
+        <v>-1.1229799417722262</v>
+      </c>
+      <c r="Q101" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.67855122459655814</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N102" s="198">
+        <f t="shared" si="7"/>
+        <v>5.8130000000000051</v>
+      </c>
+      <c r="O102" s="198">
+        <f t="shared" si="4"/>
+        <v>1.1789773838098276</v>
+      </c>
+      <c r="P102" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.90610298321447569</v>
+      </c>
+      <c r="Q102" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.50819904096448887</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N103" s="198">
+        <f t="shared" si="7"/>
+        <v>5.9390000000000054</v>
+      </c>
+      <c r="O103" s="198">
+        <f t="shared" si="4"/>
+        <v>1.5445643105867863</v>
+      </c>
+      <c r="P103" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.67485975536641218</v>
+      </c>
+      <c r="Q103" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.35845290137796304</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N104" s="198">
+        <f t="shared" si="7"/>
+        <v>6.0650000000000057</v>
+      </c>
+      <c r="O104" s="198">
+        <f t="shared" si="4"/>
+        <v>1.8125831990348991</v>
+      </c>
+      <c r="P104" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.43291662126222519</v>
+      </c>
+      <c r="Q104" s="198">
+        <f t="shared" si="6"/>
+        <v>-0.22171475463619375</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N105" s="198">
+        <f t="shared" si="7"/>
+        <v>6.1910000000000061</v>
+      </c>
+      <c r="O105" s="198">
+        <f t="shared" si="4"/>
+        <v>1.966103658492073</v>
+      </c>
+      <c r="P105" s="198">
+        <f t="shared" si="5"/>
+        <v>-0.18410959102645097</v>
+      </c>
+      <c r="Q105" s="198">
+        <f t="shared" si="6"/>
+        <v>-9.2447332172630389E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.35">
+      <c r="N106" s="198">
+        <f t="shared" si="7"/>
+        <v>6.3170000000000064</v>
+      </c>
+      <c r="O106" s="198">
+        <f t="shared" si="4"/>
+        <v>1.9954280091854995</v>
+      </c>
+      <c r="P106" s="198">
+        <f t="shared" si="5"/>
+        <v>6.7616498094034305E-2</v>
+      </c>
+      <c r="Q106" s="198">
+        <f t="shared" si="6"/>
+        <v>3.3827587001537422E-2</v>
       </c>
     </row>
   </sheetData>
@@ -28499,114 +30297,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" style="11" customWidth="1"/>
     <col min="4" max="4" width="100" style="11" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="1.7265625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="244" t="s">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.35">
+      <c r="B2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-    </row>
-    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="245" t="s">
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+    </row>
+    <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="259" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="245"/>
+    <row r="5" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="259"/>
       <c r="D5" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="245"/>
+    <row r="6" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="259"/>
       <c r="D6" s="77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="245"/>
+    <row r="7" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="259"/>
       <c r="D7" s="76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="245"/>
+    <row r="8" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="259"/>
       <c r="D8" s="77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="245"/>
+    <row r="9" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="259"/>
       <c r="D9" s="78" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="245" t="s">
+    <row r="11" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="259" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="79" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="245"/>
+    <row r="12" spans="2:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="259"/>
       <c r="D12" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="245"/>
+    <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="259"/>
       <c r="D13" s="82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="245" t="s">
+    <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="259" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="245"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="259"/>
       <c r="D16" s="76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="245"/>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="259"/>
       <c r="D17" s="81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="245"/>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="259"/>
       <c r="D18" s="80" t="s">
         <v>33</v>
       </c>

--- a/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
+++ b/ExerciceExcel3/Islam_Shafaatul_Excel_Exercice03_FonctionsMathematiques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc197a25ccdc5fa/Desktop/GitHub2022/ExerciceExcel3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{EF801937-CD40-463B-A4F4-654C67F91411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA22660-80A7-4C40-BFE3-897613F5D141}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{EF801937-CD40-463B-A4F4-654C67F91411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B734D00F-E451-4FE3-9C11-3A14D76C94F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{1DA72D1B-FF99-485E-854D-77014E075997}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{1DA72D1B-FF99-485E-854D-77014E075997}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -1847,7 +1847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2250,8 +2250,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="81">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -3187,11 +3205,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3995,6 +4024,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4071,37 +4124,13 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="37" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="45" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="49" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4111,12 +4140,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="45" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="56" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="53" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4144,6 +4173,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14534,7 +14587,2283 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Fonctions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> trigonométriques</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cosinus</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$N$6:$N$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$O$6:$O$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.9999998626449984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9366464006597808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7509576050443236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4546631858558041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0664796607878269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61092805806360073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11678495625011225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3847352932868755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.86195233473820387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2847210130770723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6263356027278775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8652167721287753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9862747209183347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9818623822139703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8522584774835269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6056499100871529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2576146096656089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.83013749539550097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.35022171838159949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15181709087410353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64426581984642162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0960171484101677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4785345561768382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7676549358891831</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9451149442237328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9997046724856242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9279757613783808</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.734459229196436</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4313792535281096</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0378809864917218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57882118137192895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3198025135866147E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.4176806378147449</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.89217497982759986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3103118351167158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6456780641035582</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8770890357179211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9899268318883914</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.97706364165479</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8393120153454783</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.5853735368721693</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.2312891564439479</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.79942590543948244</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.31706400128838325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18532640696472361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67600999676155527</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1239909494311202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5009709141303569</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7831365763906635</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9526639129830954</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9988441113570419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9187600308443546</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7174704744896434</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4076906313044633</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0089888749759628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54655065616916398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9587571674182825E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.45050789265152419</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.92214538275343649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3355321963166202</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.6645552474734828</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.888430595117583</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.993016336351058</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9717059313624044</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.8258455296103953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5646489353835642</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.204615584245851</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.76848829600909074</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.28381664156733977</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2187833262330737</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70756304724071273</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.151646967600835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5229829067302567</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7981140756215379</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9596608104770303</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9974184225633183</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.909001814595692</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6999961441075493</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3836040166034722</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.9798114948272868</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51412560621159842</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5963098455566684E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.48320777663828612</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.9518550700666224</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.3603749661938487</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.6829618157438304</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.8992382437600548</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.9955423608192862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.9657907661074201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.8118628276205282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.543481965030572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.1776014344165799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.73733341400903485</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.25048903915248522</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25217838949694971</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.73891605037724739</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1789773838098276</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5445643105867863</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8125831990348991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.966103658492073</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9954280091854995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97DA-4E19-A351-0BAE812BC343}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sinus</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$N$6:$N$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$P$6:$P$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>3.7061435705115694E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25170140909462396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49904147618777767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73846923710077184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96618856296903721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1785889622495196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3723028250899609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5442588168072331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6917305739207422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8123799306649455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9042939906243146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9660154557197091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.99656573167986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9954604436605528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9627171160112522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8988548944264154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8048863148867877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6823012498941743</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.533043286532249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.359478910879421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1643599873551043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95078012788963584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72212564268495683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48202185024209948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23427559791038235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7185095704586758E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.26837331950404325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.51530648240009946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.75406945732597497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.98087665560368908</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.1921320474796704</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.3844861772022623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5548892686666613</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7006395796369083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.8194262378883943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.909365880103538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9690325126106782</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9974801205239545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9942576668160987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.9594162435137354</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.8935082616329324</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7975786926985833</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6731485007133953</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5221905272627285</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.3470982120971271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.1506476451279275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.93595355150182513</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.70641990761136042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.46568597102482751</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.21756858003145702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3998362357003702E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28502626046672513</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.531535065174779</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76961637761649582</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99549541687746468</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2055908691719741</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3965716695987418</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5654098161987884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7094283789481899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8263439425027861</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9143028097648196</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9719103922637009</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9982533213662022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9929139297426781</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9559768734855725</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8880277898864637</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.790144012152612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6638774882812408</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5112301749129216</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3346222962946956</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1368539716072981</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92106081905548731</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69066424061894449</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44931717569937385</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.20084618374011914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.0809225901225066E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.30165905490190098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.54772607742598001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.78510889906848458</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0100438134916292</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.2189644760157703</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.408558448039851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.5758197157791516</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.7180963506353835</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.8331325555436107</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.919104430650878</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.9746488912614453</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.9988852795544036</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.9914293274197354</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.9523992490319515</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.8824138665635068</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.7825827987548235</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.6544888679012122</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.5001630041940393</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.322052045307994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.1229799417722262</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.90610298321447569</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.67485975536641218</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.43291662126222519</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.18410959102645097</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.7616498094034305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97DA-4E19-A351-0BAE812BC343}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tangente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$N$6:$N$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fonctions trigonométrique(Ex)'!$Q$6:$Q$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.8530718170718704E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12685933874040059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25767101267078973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39731005147085796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55174937272282631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72939858560826298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94321692959671877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2150614368902624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5858093426187767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1429473993321628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1152516648024537</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3551174609773442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.042096526443199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.816751605132295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.106301155025827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0237842894140581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0947642028376494</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5553794504950544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.193552774307163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.9267653727245575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.71603576798111146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.54035405793876157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.38718150715586014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.24833113019580119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.1179498042086834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5928650718340941E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13541130963318615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26665623604500688</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40707739810346705</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5627675154822025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74235860794953468</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95923131106856674</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2360965520547245</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6157594239734745</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1908269093209292</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2076733614779225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6163940982019902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.902123863539483</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-13.167976346854354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.8880428238793456</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.9406185723143499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0502480520082926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.5270034016933942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.1733706337693091</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.91125747300289139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.70339372111986542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.52954078276503691</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.37754496102267854</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23942370370944582</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10943373774527267</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7001637856006207E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14398277515784177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27568183832459875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41691183224909656</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.57389041844288291</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.75548142405864793</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97550609757446871</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2575734751398955</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6465344294765589</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2405033486537196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3052182004054793</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.903568646087118</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.911613719025262</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-11.847885307064628</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.6870156339738278</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.8614659143282859</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.0072405939160722</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.499346720636185</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1535828036201592</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.89598539218629791</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.69090032061945306</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.51882336520009686</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.36796939846559823</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.2305520658652129</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.10093332761480862</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5412814917901309E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.15257501806538845</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28474937701885827</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4268154523167666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58512117803174768</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7687720113361487</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99205005061325846</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2795094068958039</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6781734518083602</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2920872422041083</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4083392987317778</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.2207395900259765</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.938870635093895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-10.766963094173494</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.5012312539459511</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7860322782578582</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.9656606301622808</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.4723786298540331</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.1341751228437211</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.88094168135166395</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.67855122459655814</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.50819904096448887</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.35845290137796304</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.22171475463619375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-9.2447332172630389E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3827587001537422E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97DA-4E19-A351-0BAE812BC343}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1363448847"/>
+        <c:axId val="1363448431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1363448847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363448431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363448431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363448847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15090,6 +17419,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15213,6 +18058,51 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774699</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5236FB83-A83F-F5B8-7793-90577D99B70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15571,52 +18461,52 @@
   <sheetData>
     <row r="1" spans="2:29" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="223"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="223"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
     </row>
     <row r="3" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:29" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="224"/>
-      <c r="G4" s="226" t="s">
+      <c r="F4" s="230"/>
+      <c r="G4" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
       <c r="M4" s="21"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -15624,8 +18514,8 @@
     <row r="5" spans="2:29" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -15663,10 +18553,10 @@
     </row>
     <row r="7" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="87"/>
-      <c r="D7" s="235" t="s">
+      <c r="D7" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="235"/>
+      <c r="E7" s="241"/>
       <c r="F7" s="178" t="s">
         <v>41</v>
       </c>
@@ -15684,10 +18574,10 @@
       </c>
       <c r="K7" s="160"/>
       <c r="L7" s="161"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="233"/>
-      <c r="P7" s="233"/>
+      <c r="M7" s="239"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="239"/>
       <c r="Q7" s="88"/>
       <c r="R7" s="89"/>
       <c r="S7" s="34"/>
@@ -15721,10 +18611,10 @@
     </row>
     <row r="9" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="98"/>
-      <c r="D9" s="236" t="s">
+      <c r="D9" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="236"/>
+      <c r="E9" s="242"/>
       <c r="F9" s="180" t="s">
         <v>42</v>
       </c>
@@ -15738,10 +18628,10 @@
       <c r="J9" s="165"/>
       <c r="K9" s="165"/>
       <c r="L9" s="165"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="234"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="240"/>
+      <c r="O9" s="240"/>
+      <c r="P9" s="240"/>
       <c r="Q9" s="99"/>
       <c r="R9" s="90"/>
       <c r="S9" s="100"/>
@@ -15787,10 +18677,10 @@
     </row>
     <row r="11" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="110"/>
-      <c r="D11" s="237" t="s">
+      <c r="D11" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="237"/>
+      <c r="E11" s="243"/>
       <c r="F11" s="181" t="s">
         <v>43</v>
       </c>
@@ -15806,10 +18696,10 @@
       <c r="J11" s="168"/>
       <c r="K11" s="168"/>
       <c r="L11" s="168"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="240"/>
-      <c r="O11" s="240"/>
-      <c r="P11" s="240"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="221"/>
+      <c r="P11" s="221"/>
       <c r="Q11" s="111"/>
       <c r="R11" s="91"/>
       <c r="S11" s="112"/>
@@ -15855,10 +18745,10 @@
     </row>
     <row r="13" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="122"/>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="238"/>
+      <c r="E13" s="244"/>
       <c r="F13" s="182" t="s">
         <v>44</v>
       </c>
@@ -15876,10 +18766,10 @@
       </c>
       <c r="K13" s="171"/>
       <c r="L13" s="171"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="220"/>
       <c r="Q13" s="123"/>
       <c r="R13" s="93"/>
       <c r="S13" s="124"/>
@@ -15925,10 +18815,10 @@
     </row>
     <row r="15" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="133"/>
-      <c r="D15" s="242" t="s">
+      <c r="D15" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="242"/>
+      <c r="E15" s="223"/>
       <c r="F15" s="183" t="s">
         <v>45</v>
       </c>
@@ -15948,10 +18838,10 @@
         <v>-20</v>
       </c>
       <c r="L15" s="174"/>
-      <c r="M15" s="241"/>
-      <c r="N15" s="241"/>
-      <c r="O15" s="241"/>
-      <c r="P15" s="241"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="222"/>
       <c r="Q15" s="135"/>
       <c r="R15" s="94"/>
       <c r="S15" s="136"/>
@@ -15997,10 +18887,10 @@
     </row>
     <row r="17" spans="2:29" s="11" customFormat="1" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="143"/>
-      <c r="D17" s="244" t="s">
+      <c r="D17" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="244"/>
+      <c r="E17" s="225"/>
       <c r="F17" s="184" t="s">
         <v>46</v>
       </c>
@@ -16018,10 +18908,10 @@
       </c>
       <c r="K17" s="177"/>
       <c r="L17" s="177"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="243"/>
-      <c r="O17" s="243"/>
-      <c r="P17" s="243"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="224"/>
       <c r="Q17" s="145"/>
       <c r="R17" s="90"/>
       <c r="S17" s="144"/>
@@ -16060,22 +18950,22 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="224" t="s">
+      <c r="E20" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="228"/>
-      <c r="G20" s="231" t="s">
+      <c r="F20" s="234"/>
+      <c r="G20" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220" t="s">
+      <c r="H20" s="226"/>
+      <c r="I20" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220" t="s">
+      <c r="J20" s="226"/>
+      <c r="K20" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="221"/>
+      <c r="L20" s="227"/>
       <c r="M20" s="44"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -16092,21 +18982,21 @@
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="232">
+      <c r="E21" s="235"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="238">
         <v>-10</v>
       </c>
-      <c r="H21" s="232"/>
-      <c r="I21" s="232">
+      <c r="H21" s="238"/>
+      <c r="I21" s="238">
         <v>0.2</v>
       </c>
-      <c r="J21" s="232"/>
-      <c r="K21" s="222">
+      <c r="J21" s="238"/>
+      <c r="K21" s="228">
         <f>G21+100*I21</f>
         <v>10</v>
       </c>
-      <c r="L21" s="222"/>
+      <c r="L21" s="228"/>
       <c r="M21" s="47"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -20477,12 +23367,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9NOS8jY5Ug7YrOY49rx7A6/cXCpIjF5Enxg4kw2PLmKKvG06duBf92zLgkT/MBeWCI1tXrFRs+R4hrI9dhXplw==" saltValue="nRjJWJch2cTa6A5Bi+wDuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="22">
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="B2:AB2"/>
@@ -20499,6 +23383,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20537,59 +23427,59 @@
     <row r="1" spans="1:28" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="200"/>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="252"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="247"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="251" t="s">
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="246"/>
+      <c r="J4" s="246"/>
+      <c r="K4" s="246"/>
+      <c r="L4" s="246"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="202" t="s">
         <v>16</v>
       </c>
@@ -20805,18 +23695,18 @@
       <c r="D20" s="249"/>
       <c r="E20" s="249"/>
       <c r="F20" s="249"/>
-      <c r="G20" s="245" t="s">
+      <c r="G20" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="245"/>
-      <c r="I20" s="245" t="s">
+      <c r="H20" s="250"/>
+      <c r="I20" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="245"/>
-      <c r="K20" s="245" t="s">
+      <c r="J20" s="250"/>
+      <c r="K20" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="245"/>
+      <c r="L20" s="250"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B21" s="249"/>
@@ -20824,18 +23714,18 @@
       <c r="D21" s="249"/>
       <c r="E21" s="249"/>
       <c r="F21" s="249"/>
-      <c r="G21" s="246">
+      <c r="G21" s="251">
         <v>-10</v>
       </c>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246">
+      <c r="H21" s="251"/>
+      <c r="I21" s="251">
         <v>0.2</v>
       </c>
-      <c r="J21" s="246"/>
-      <c r="K21" s="247">
+      <c r="J21" s="251"/>
+      <c r="K21" s="252">
         <v>10</v>
       </c>
-      <c r="L21" s="247"/>
+      <c r="L21" s="252"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B23" s="208"/>
@@ -25144,22 +28034,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="B2:AB2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:F21"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="B2:AB2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25171,7 +28061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U119"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25197,17 +28087,17 @@
   <sheetData>
     <row r="1" spans="2:21" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
       <c r="K2" s="70"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
@@ -25223,16 +28113,16 @@
     <row r="4" spans="2:21" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="224"/>
-      <c r="G4" s="226" t="s">
+      <c r="F4" s="230"/>
+      <c r="G4" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
       <c r="K4" s="56"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -25247,8 +28137,8 @@
     <row r="5" spans="2:21" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="30"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="17" t="s">
         <v>16</v>
       </c>
@@ -25466,10 +28356,10 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="228"/>
+      <c r="F14" s="234"/>
       <c r="G14" s="71" t="s">
         <v>24</v>
       </c>
@@ -25495,8 +28385,8 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="236"/>
       <c r="G15" s="191">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -28286,7 +31176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26ECBF-E433-459E-ADC1-CD84348562CD}">
   <dimension ref="B2:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28296,7 +31188,9 @@
     <col min="7" max="7" width="15.81640625" style="198" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.453125" style="198"/>
     <col min="9" max="9" width="12.453125" style="198" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="198"/>
+    <col min="10" max="13" width="11.453125" style="198"/>
+    <col min="14" max="17" width="0" style="198" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.453125" style="198"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.35">
@@ -28313,36 +31207,36 @@
       <c r="J2" s="257"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="245" t="s">
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="250"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="206" t="s">
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="206" t="s">
+      <c r="H5" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="206" t="s">
+      <c r="I5" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="206" t="s">
+      <c r="J5" s="262" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="198" t="s">
@@ -28380,19 +31274,19 @@
       <c r="C7" s="256"/>
       <c r="D7" s="256"/>
       <c r="E7" s="256"/>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="218">
+      <c r="G7" s="267">
         <v>2</v>
       </c>
-      <c r="H7" s="218">
+      <c r="H7" s="267">
         <v>2</v>
       </c>
-      <c r="I7" s="218">
+      <c r="I7" s="267">
         <v>0</v>
       </c>
-      <c r="J7" s="218">
+      <c r="J7" s="267">
         <v>0</v>
       </c>
       <c r="N7" s="198">
@@ -28445,19 +31339,19 @@
       <c r="C9" s="256"/>
       <c r="D9" s="256"/>
       <c r="E9" s="256"/>
-      <c r="F9" s="198" t="s">
+      <c r="F9" s="268" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="218">
+      <c r="G9" s="269">
         <v>2</v>
       </c>
-      <c r="H9" s="218">
+      <c r="H9" s="269">
         <v>1</v>
       </c>
-      <c r="I9" s="218">
+      <c r="I9" s="269">
         <v>0</v>
       </c>
-      <c r="J9" s="218">
+      <c r="J9" s="269">
         <v>0</v>
       </c>
       <c r="N9" s="198">
@@ -28506,19 +31400,19 @@
       <c r="C11" s="256"/>
       <c r="D11" s="256"/>
       <c r="E11" s="256"/>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="270" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="218">
+      <c r="G11" s="271">
         <v>1</v>
       </c>
-      <c r="H11" s="218">
+      <c r="H11" s="271">
         <v>1</v>
       </c>
-      <c r="I11" s="218">
+      <c r="I11" s="271">
         <v>0</v>
       </c>
-      <c r="J11" s="218">
+      <c r="J11" s="271">
         <v>0</v>
       </c>
       <c r="N11" s="198">
@@ -28575,13 +31469,13 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
       <c r="G14" s="219" t="s">
         <v>24</v>
       </c>
@@ -28609,18 +31503,18 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="198">
+      <c r="B15" s="246"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="263">
         <v>-6.2830000000000004</v>
       </c>
-      <c r="H15" s="198">
+      <c r="H15" s="264">
         <v>0.126</v>
       </c>
-      <c r="I15" s="198">
+      <c r="I15" s="265">
         <v>6.2830000000000004</v>
       </c>
       <c r="N15" s="198">
@@ -28658,7 +31552,16 @@
         <v>3.1152516648024537</v>
       </c>
     </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="208"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="210"/>
       <c r="N17" s="198">
         <f t="shared" si="3"/>
         <v>-4.8969999999999967</v>
@@ -28676,7 +31579,16 @@
         <v>5.3551174609773442</v>
       </c>
     </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="213"/>
       <c r="N18" s="198">
         <f t="shared" si="3"/>
         <v>-4.7709999999999964</v>
@@ -28694,7 +31606,16 @@
         <v>17.042096526443199</v>
       </c>
     </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="213"/>
       <c r="N19" s="198">
         <f t="shared" si="3"/>
         <v>-4.644999999999996</v>
@@ -28712,7 +31633,16 @@
         <v>-14.816751605132295</v>
       </c>
     </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" s="211"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="213"/>
       <c r="N20" s="198">
         <f t="shared" si="3"/>
         <v>-4.5189999999999957</v>
@@ -28730,7 +31660,16 @@
         <v>-5.106301155025827</v>
       </c>
     </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
       <c r="N21" s="198">
         <f t="shared" si="3"/>
         <v>-4.3929999999999954</v>
@@ -28748,7 +31687,16 @@
         <v>-3.0237842894140581</v>
       </c>
     </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="213"/>
       <c r="N22" s="198">
         <f t="shared" si="3"/>
         <v>-4.266999999999995</v>
@@ -28766,7 +31714,16 @@
         <v>-2.0947642028376494</v>
       </c>
     </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="213"/>
       <c r="N23" s="198">
         <f t="shared" si="3"/>
         <v>-4.1409999999999947</v>
@@ -28784,7 +31741,16 @@
         <v>-1.5553794504950544</v>
       </c>
     </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="213"/>
       <c r="N24" s="198">
         <f t="shared" si="3"/>
         <v>-4.0149999999999944</v>
@@ -28802,7 +31768,16 @@
         <v>-1.193552774307163</v>
       </c>
     </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="213"/>
       <c r="N25" s="198">
         <f t="shared" si="3"/>
         <v>-3.8889999999999945</v>
@@ -28820,7 +31795,16 @@
         <v>-0.9267653727245575</v>
       </c>
     </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="213"/>
       <c r="N26" s="198">
         <f t="shared" si="3"/>
         <v>-3.7629999999999946</v>
@@ -28838,7 +31822,16 @@
         <v>-0.71603576798111146</v>
       </c>
     </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="213"/>
       <c r="N27" s="198">
         <f t="shared" si="3"/>
         <v>-3.6369999999999947</v>
@@ -28856,7 +31849,16 @@
         <v>-0.54035405793876157</v>
       </c>
     </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="213"/>
       <c r="N28" s="198">
         <f t="shared" si="3"/>
         <v>-3.5109999999999948</v>
@@ -28874,7 +31876,16 @@
         <v>-0.38718150715586014</v>
       </c>
     </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="213"/>
       <c r="N29" s="198">
         <f t="shared" si="3"/>
         <v>-3.3849999999999949</v>
@@ -28892,7 +31903,16 @@
         <v>-0.24833113019580119</v>
       </c>
     </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="213"/>
       <c r="N30" s="198">
         <f t="shared" si="3"/>
         <v>-3.258999999999995</v>
@@ -28910,7 +31930,16 @@
         <v>-0.1179498042086834</v>
       </c>
     </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="213"/>
       <c r="N31" s="198">
         <f t="shared" si="3"/>
         <v>-3.1329999999999951</v>
@@ -28928,7 +31957,16 @@
         <v>8.5928650718340941E-3</v>
       </c>
     </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="213"/>
       <c r="N32" s="198">
         <f t="shared" si="3"/>
         <v>-3.0069999999999952</v>
@@ -28946,7 +31984,16 @@
         <v>0.13541130963318615</v>
       </c>
     </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
       <c r="N33" s="198">
         <f t="shared" si="3"/>
         <v>-2.8809999999999953</v>
@@ -28964,7 +32011,16 @@
         <v>0.26665623604500688</v>
       </c>
     </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="211"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="213"/>
       <c r="N34" s="198">
         <f t="shared" si="3"/>
         <v>-2.7549999999999955</v>
@@ -28982,7 +32038,16 @@
         <v>0.40707739810346705</v>
       </c>
     </row>
-    <row r="35" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="211"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="213"/>
       <c r="N35" s="198">
         <f t="shared" si="3"/>
         <v>-2.6289999999999956</v>
@@ -29000,7 +32065,16 @@
         <v>0.5627675154822025</v>
       </c>
     </row>
-    <row r="36" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="213"/>
       <c r="N36" s="198">
         <f t="shared" si="3"/>
         <v>-2.5029999999999957</v>
@@ -29018,7 +32092,16 @@
         <v>0.74235860794953468</v>
       </c>
     </row>
-    <row r="37" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="213"/>
       <c r="N37" s="198">
         <f t="shared" si="3"/>
         <v>-2.3769999999999958</v>
@@ -29036,7 +32119,16 @@
         <v>0.95923131106856674</v>
       </c>
     </row>
-    <row r="38" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="211"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="212"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="213"/>
       <c r="N38" s="198">
         <f t="shared" si="3"/>
         <v>-2.2509999999999959</v>
@@ -29054,7 +32146,16 @@
         <v>1.2360965520547245</v>
       </c>
     </row>
-    <row r="39" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="211"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="213"/>
       <c r="N39" s="198">
         <f t="shared" si="3"/>
         <v>-2.124999999999996</v>
@@ -29072,7 +32173,16 @@
         <v>1.6157594239734745</v>
       </c>
     </row>
-    <row r="40" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="211"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="213"/>
       <c r="N40" s="198">
         <f t="shared" si="3"/>
         <v>-1.9989999999999961</v>
@@ -29090,7 +32200,16 @@
         <v>2.1908269093209292</v>
       </c>
     </row>
-    <row r="41" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="211"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
+      <c r="H41" s="212"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="213"/>
       <c r="N41" s="198">
         <f t="shared" si="3"/>
         <v>-1.8729999999999962</v>
@@ -29108,7 +32227,16 @@
         <v>3.2076733614779225</v>
       </c>
     </row>
-    <row r="42" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="211"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="212"/>
+      <c r="F42" s="212"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="213"/>
       <c r="N42" s="198">
         <f t="shared" si="3"/>
         <v>-1.7469999999999963</v>
@@ -29126,7 +32254,16 @@
         <v>5.6163940982019902</v>
       </c>
     </row>
-    <row r="43" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="211"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="212"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="212"/>
+      <c r="J43" s="213"/>
       <c r="N43" s="198">
         <f t="shared" si="3"/>
         <v>-1.6209999999999964</v>
@@ -29144,7 +32281,16 @@
         <v>19.902123863539483</v>
       </c>
     </row>
-    <row r="44" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="211"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="212"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="213"/>
       <c r="N44" s="198">
         <f t="shared" si="3"/>
         <v>-1.4949999999999966</v>
@@ -29162,7 +32308,16 @@
         <v>-13.167976346854354</v>
       </c>
     </row>
-    <row r="45" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="211"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="213"/>
       <c r="N45" s="198">
         <f t="shared" si="3"/>
         <v>-1.3689999999999967</v>
@@ -29180,7 +32335,16 @@
         <v>-4.8880428238793456</v>
       </c>
     </row>
-    <row r="46" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="211"/>
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="213"/>
       <c r="N46" s="198">
         <f t="shared" si="3"/>
         <v>-1.2429999999999968</v>
@@ -29198,7 +32362,16 @@
         <v>-2.9406185723143499</v>
       </c>
     </row>
-    <row r="47" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="214"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="216"/>
       <c r="N47" s="198">
         <f t="shared" si="3"/>
         <v>-1.1169999999999969</v>
@@ -29216,7 +32389,7 @@
         <v>-2.0502480520082926</v>
       </c>
     </row>
-    <row r="48" spans="14:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="N48" s="198">
         <f t="shared" si="3"/>
         <v>-0.99099999999999688</v>
@@ -29650,7 +32823,7 @@
     </row>
     <row r="72" spans="14:17" x14ac:dyDescent="0.35">
       <c r="N72" s="198">
-        <f t="shared" ref="N72:N107" si="7">N71 + $H$15</f>
+        <f t="shared" ref="N72:N106" si="7">N71 + $H$15</f>
         <v>2.0330000000000021</v>
       </c>
       <c r="O72" s="198">
@@ -30290,6 +33463,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
